--- a/Deliverables/predator_marker_species_proportions.xlsx
+++ b/Deliverables/predator_marker_species_proportions.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/5bd2331949789710/文档/WADE LAB/Arctic-predator-diet-microbiome/Deliverables/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="45" documentId="11_0D30DD7752A19C4B9CE555094AA304B7ACEA4E5D" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{57F4C3FC-393C-40E4-82A1-6F272B6B5FBE}"/>
+  <xr:revisionPtr revIDLastSave="6" documentId="11_4CCD3EAAE31B54E3FCA96F2A0C9FDAB6AC71CF75" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{06E97E13-0999-40EF-84B3-99CA12333F90}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" firstSheet="1" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView minimized="1" xWindow="5610" yWindow="1110" windowWidth="21600" windowHeight="11295" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="bearded seal_12S" sheetId="1" r:id="rId1"/>
@@ -20,25 +20,12 @@
     <sheet name="Beluga whale_16S" sheetId="5" r:id="rId5"/>
     <sheet name="ringed seal_16S" sheetId="6" r:id="rId6"/>
   </sheets>
-  <calcPr calcId="191029"/>
-  <extLst>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
-      </xcalcf:calcFeatures>
-    </ext>
-  </extLst>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="669" uniqueCount="65">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="708" uniqueCount="70">
   <si>
     <t>Marker</t>
   </si>
@@ -55,15 +42,15 @@
     <t>12S</t>
   </si>
   <si>
+    <t>Eleginus gracilis</t>
+  </si>
+  <si>
+    <t>bearded seal</t>
+  </si>
+  <si>
     <t>Glyptocephalus zachirus</t>
   </si>
   <si>
-    <t>bearded seal</t>
-  </si>
-  <si>
-    <t>Eleginus gracilis</t>
-  </si>
-  <si>
     <t>Ammodytes hexapterus</t>
   </si>
   <si>
@@ -73,21 +60,21 @@
     <t>Leptoclinus maculatus</t>
   </si>
   <si>
+    <t>Gymnocanthus spp.</t>
+  </si>
+  <si>
+    <t>Hippoglossoides elassodon</t>
+  </si>
+  <si>
     <t>Platichthys stellatus</t>
   </si>
   <si>
-    <t>Gymnocanthus spp.</t>
+    <t>Stichaeus punctatus</t>
   </si>
   <si>
     <t>Pleuronectes quadrituberculatus</t>
   </si>
   <si>
-    <t>Hippoglossoides elassodon</t>
-  </si>
-  <si>
-    <t>Stichaeus punctatus</t>
-  </si>
-  <si>
     <t>Acantholumpenus mackayi</t>
   </si>
   <si>
@@ -97,12 +84,18 @@
     <t>Ammodytes personatus</t>
   </si>
   <si>
+    <t>Ammodytes spp.</t>
+  </si>
+  <si>
     <t>Artedius harringtoni</t>
   </si>
   <si>
     <t>Aspidophoroides monopterygius</t>
   </si>
   <si>
+    <t>Bisgaardia spp.</t>
+  </si>
+  <si>
     <t>Boreogadus saida</t>
   </si>
   <si>
@@ -112,7 +105,7 @@
     <t>Citharichthys sordidus</t>
   </si>
   <si>
-    <t>Clupea spp.</t>
+    <t>Clostridium spp.</t>
   </si>
   <si>
     <t>Coregonus laurettae</t>
@@ -121,6 +114,12 @@
     <t>Coregonus spp.</t>
   </si>
   <si>
+    <t>Cottus spp.</t>
+  </si>
+  <si>
+    <t>Delphinapterus leucas</t>
+  </si>
+  <si>
     <t>Eurymen gyrinus</t>
   </si>
   <si>
@@ -142,6 +141,9 @@
     <t>Hemilepidotus spp.</t>
   </si>
   <si>
+    <t>Homo sapiens</t>
+  </si>
+  <si>
     <t>Hypomesus olidus</t>
   </si>
   <si>
@@ -187,6 +189,9 @@
     <t>Pungitius pungitius</t>
   </si>
   <si>
+    <t>Pusa hispida</t>
+  </si>
+  <si>
     <t>Stenobrachius leucopsarus</t>
   </si>
   <si>
@@ -230,25 +235,14 @@
   </si>
   <si>
     <t>Salvelinus spp.</t>
-  </si>
-  <si>
-    <t>SUMS TO:</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="1" x14ac:knownFonts="1">
     <font>
-      <sz val="11"/>
-      <color rgb="FF000000"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
@@ -276,9 +270,8 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -575,34 +568,30 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G46"/>
+  <dimension ref="A1:D52"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:XFD1"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="2" width="30.7109375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="16" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="12.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="1" t="s">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>4</v>
       </c>
@@ -610,13 +599,13 @@
         <v>5</v>
       </c>
       <c r="C2">
-        <v>0.39078459745628402</v>
+        <v>0.301321684937217</v>
       </c>
       <c r="D2" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>4</v>
       </c>
@@ -624,13 +613,13 @@
         <v>7</v>
       </c>
       <c r="C3">
-        <v>0.24344070233706</v>
+        <v>0.28869366546805197</v>
       </c>
       <c r="D3" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>4</v>
       </c>
@@ -638,13 +627,13 @@
         <v>8</v>
       </c>
       <c r="C4">
-        <v>0.138801564279844</v>
+        <v>0.16231070880870799</v>
       </c>
       <c r="D4" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>4</v>
       </c>
@@ -652,13 +641,13 @@
         <v>9</v>
       </c>
       <c r="C5">
-        <v>0.113613381869328</v>
+        <v>0.13801096170716801</v>
       </c>
       <c r="D5" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>4</v>
       </c>
@@ -666,13 +655,13 @@
         <v>10</v>
       </c>
       <c r="C6">
-        <v>5.5549062839207797E-2</v>
+        <v>5.4961753299877097E-2</v>
       </c>
       <c r="D6" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>4</v>
       </c>
@@ -680,13 +669,13 @@
         <v>11</v>
       </c>
       <c r="C7">
-        <v>1.3723554045465399E-2</v>
+        <v>1.36877324487557E-2</v>
       </c>
       <c r="D7" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>4</v>
       </c>
@@ -694,13 +683,13 @@
         <v>12</v>
       </c>
       <c r="C8">
-        <v>1.28196114257572E-2</v>
+        <v>1.1059881639759499E-2</v>
       </c>
       <c r="D8" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>4</v>
       </c>
@@ -708,13 +697,13 @@
         <v>13</v>
       </c>
       <c r="C9">
-        <v>9.3701607682029307E-3</v>
+        <v>1.00077702262711E-2</v>
       </c>
       <c r="D9" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>4</v>
       </c>
@@ -722,16 +711,13 @@
         <v>14</v>
       </c>
       <c r="C10">
-        <v>9.0985306447520092E-3</v>
+        <v>8.5961791921617108E-3</v>
       </c>
       <c r="D10" t="s">
         <v>6</v>
       </c>
-      <c r="G10" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>4</v>
       </c>
@@ -739,17 +725,13 @@
         <v>15</v>
       </c>
       <c r="C11">
-        <v>7.0717393146861804E-3</v>
+        <v>6.8330999128014399E-3</v>
       </c>
       <c r="D11" t="s">
         <v>6</v>
       </c>
-      <c r="G11">
-        <f>SUM(C:C)</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>4</v>
       </c>
@@ -757,13 +739,13 @@
         <v>16</v>
       </c>
       <c r="C12">
-        <v>5.0582283792954003E-3</v>
+        <v>3.6886645546981198E-3</v>
       </c>
       <c r="D12" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>4</v>
       </c>
@@ -771,13 +753,13 @@
         <v>17</v>
       </c>
       <c r="C13">
-        <v>6.6886664011721103E-4</v>
+        <v>8.2789780453131404E-4</v>
       </c>
       <c r="D13" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>4</v>
       </c>
@@ -791,7 +773,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>4</v>
       </c>
@@ -805,7 +787,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>4</v>
       </c>
@@ -1236,6 +1218,90 @@
         <v>0</v>
       </c>
       <c r="D46" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="47" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A47" t="s">
+        <v>4</v>
+      </c>
+      <c r="B47" t="s">
+        <v>51</v>
+      </c>
+      <c r="C47">
+        <v>0</v>
+      </c>
+      <c r="D47" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="48" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A48" t="s">
+        <v>4</v>
+      </c>
+      <c r="B48" t="s">
+        <v>52</v>
+      </c>
+      <c r="C48">
+        <v>0</v>
+      </c>
+      <c r="D48" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="49" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A49" t="s">
+        <v>4</v>
+      </c>
+      <c r="B49" t="s">
+        <v>53</v>
+      </c>
+      <c r="C49">
+        <v>0</v>
+      </c>
+      <c r="D49" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="50" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A50" t="s">
+        <v>4</v>
+      </c>
+      <c r="B50" t="s">
+        <v>54</v>
+      </c>
+      <c r="C50">
+        <v>0</v>
+      </c>
+      <c r="D50" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="51" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A51" t="s">
+        <v>4</v>
+      </c>
+      <c r="B51" t="s">
+        <v>55</v>
+      </c>
+      <c r="C51">
+        <v>0</v>
+      </c>
+      <c r="D51" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="52" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A52" t="s">
+        <v>4</v>
+      </c>
+      <c r="B52" t="s">
+        <v>56</v>
+      </c>
+      <c r="C52">
+        <v>0</v>
+      </c>
+      <c r="D52" t="s">
         <v>6</v>
       </c>
     </row>
@@ -1247,248 +1313,239 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:G46"/>
+  <dimension ref="A1:D52"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:XFD1"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="2" width="30.7109375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="16" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="12.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="1" t="s">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>4</v>
       </c>
       <c r="B2" t="s">
+        <v>30</v>
+      </c>
+      <c r="C2">
+        <v>0.83743382897987295</v>
+      </c>
+      <c r="D2" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3">
+        <v>0.123719958646294</v>
+      </c>
+      <c r="D3" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4" t="s">
+        <v>8</v>
+      </c>
+      <c r="C4">
+        <v>1.8352570751614498E-2</v>
+      </c>
+      <c r="D4" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>4</v>
+      </c>
+      <c r="B5" t="s">
+        <v>50</v>
+      </c>
+      <c r="C5">
+        <v>1.7487074898404401E-2</v>
+      </c>
+      <c r="D5" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>4</v>
+      </c>
+      <c r="B6" t="s">
+        <v>48</v>
+      </c>
+      <c r="C6">
+        <v>1.03120553404619E-3</v>
+      </c>
+      <c r="D6" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>4</v>
+      </c>
+      <c r="B7" t="s">
+        <v>49</v>
+      </c>
+      <c r="C7">
+        <v>9.8693457343779494E-4</v>
+      </c>
+      <c r="D7" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>4</v>
+      </c>
+      <c r="B8" t="s">
+        <v>18</v>
+      </c>
+      <c r="C8">
+        <v>7.4797837085729404E-4</v>
+      </c>
+      <c r="D8" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>4</v>
+      </c>
+      <c r="B9" t="s">
+        <v>27</v>
+      </c>
+      <c r="C9">
+        <v>1.6680584339793701E-4</v>
+      </c>
+      <c r="D9" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>4</v>
+      </c>
+      <c r="B10" t="s">
+        <v>23</v>
+      </c>
+      <c r="C10">
+        <v>5.1932811884088201E-5</v>
+      </c>
+      <c r="D10" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>4</v>
+      </c>
+      <c r="B11" t="s">
+        <v>26</v>
+      </c>
+      <c r="C11">
+        <v>2.1709590190446199E-5</v>
+      </c>
+      <c r="D11" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>4</v>
+      </c>
+      <c r="B12" t="s">
+        <v>16</v>
+      </c>
+      <c r="C12">
+        <v>0</v>
+      </c>
+      <c r="D12" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>4</v>
+      </c>
+      <c r="B13" t="s">
+        <v>19</v>
+      </c>
+      <c r="C13">
+        <v>0</v>
+      </c>
+      <c r="D13" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>4</v>
+      </c>
+      <c r="B14" t="s">
+        <v>20</v>
+      </c>
+      <c r="C14">
+        <v>0</v>
+      </c>
+      <c r="D14" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>4</v>
+      </c>
+      <c r="B15" t="s">
         <v>21</v>
       </c>
-      <c r="C2">
-        <v>0.317058823529412</v>
-      </c>
-      <c r="D2" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>4</v>
-      </c>
-      <c r="B3" t="s">
-        <v>45</v>
-      </c>
-      <c r="C3">
-        <v>0.29940314461071699</v>
-      </c>
-      <c r="D3" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>4</v>
-      </c>
-      <c r="B4" t="s">
-        <v>7</v>
-      </c>
-      <c r="C4">
-        <v>0.27465596606764198</v>
-      </c>
-      <c r="D4" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>4</v>
-      </c>
-      <c r="B5" t="s">
-        <v>44</v>
-      </c>
-      <c r="C5">
-        <v>4.1764705882352898E-2</v>
-      </c>
-      <c r="D5" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
-        <v>4</v>
-      </c>
-      <c r="B6" t="s">
-        <v>8</v>
-      </c>
-      <c r="C6">
-        <v>4.0742359638352398E-2</v>
-      </c>
-      <c r="D6" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
-        <v>4</v>
-      </c>
-      <c r="B7" t="s">
-        <v>43</v>
-      </c>
-      <c r="C7">
-        <v>1.7655678918695301E-2</v>
-      </c>
-      <c r="D7" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
-        <v>4</v>
-      </c>
-      <c r="B8" t="s">
-        <v>25</v>
-      </c>
-      <c r="C8">
-        <v>7.0588235294117598E-3</v>
-      </c>
-      <c r="D8" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
-        <v>4</v>
-      </c>
-      <c r="B9" t="s">
-        <v>18</v>
-      </c>
-      <c r="C9">
-        <v>1.66049782341779E-3</v>
-      </c>
-      <c r="D9" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
-        <v>4</v>
-      </c>
-      <c r="B10" t="s">
-        <v>16</v>
-      </c>
-      <c r="C10">
-        <v>0</v>
-      </c>
-      <c r="D10" t="s">
-        <v>51</v>
-      </c>
-      <c r="G10" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
-        <v>4</v>
-      </c>
-      <c r="B11" t="s">
-        <v>19</v>
-      </c>
-      <c r="C11">
-        <v>0</v>
-      </c>
-      <c r="D11" t="s">
-        <v>51</v>
-      </c>
-      <c r="G11">
-        <f>SUM(C:C)</f>
-        <v>1.0000000000000011</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A12" t="s">
-        <v>4</v>
-      </c>
-      <c r="B12" t="s">
-        <v>20</v>
-      </c>
-      <c r="C12">
-        <v>0</v>
-      </c>
-      <c r="D12" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A13" t="s">
-        <v>4</v>
-      </c>
-      <c r="B13" t="s">
+      <c r="C15">
+        <v>0</v>
+      </c>
+      <c r="D15" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>4</v>
+      </c>
+      <c r="B16" t="s">
         <v>22</v>
       </c>
-      <c r="C13">
-        <v>0</v>
-      </c>
-      <c r="D13" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A14" t="s">
-        <v>4</v>
-      </c>
-      <c r="B14" t="s">
-        <v>23</v>
-      </c>
-      <c r="C14">
-        <v>0</v>
-      </c>
-      <c r="D14" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A15" t="s">
-        <v>4</v>
-      </c>
-      <c r="B15" t="s">
-        <v>17</v>
-      </c>
-      <c r="C15">
-        <v>0</v>
-      </c>
-      <c r="D15" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A16" t="s">
-        <v>4</v>
-      </c>
-      <c r="B16" t="s">
-        <v>24</v>
-      </c>
       <c r="C16">
         <v>0</v>
       </c>
       <c r="D16" t="s">
-        <v>51</v>
+        <v>57</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.25">
@@ -1496,13 +1553,13 @@
         <v>4</v>
       </c>
       <c r="B17" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="C17">
         <v>0</v>
       </c>
       <c r="D17" t="s">
-        <v>51</v>
+        <v>57</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.25">
@@ -1510,13 +1567,13 @@
         <v>4</v>
       </c>
       <c r="B18" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="C18">
         <v>0</v>
       </c>
       <c r="D18" t="s">
-        <v>51</v>
+        <v>57</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.25">
@@ -1524,13 +1581,13 @@
         <v>4</v>
       </c>
       <c r="B19" t="s">
-        <v>28</v>
+        <v>17</v>
       </c>
       <c r="C19">
         <v>0</v>
       </c>
       <c r="D19" t="s">
-        <v>51</v>
+        <v>57</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.25">
@@ -1538,13 +1595,13 @@
         <v>4</v>
       </c>
       <c r="B20" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C20">
         <v>0</v>
       </c>
       <c r="D20" t="s">
-        <v>51</v>
+        <v>57</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.25">
@@ -1552,13 +1609,13 @@
         <v>4</v>
       </c>
       <c r="B21" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C21">
         <v>0</v>
       </c>
       <c r="D21" t="s">
-        <v>51</v>
+        <v>57</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.25">
@@ -1572,7 +1629,7 @@
         <v>0</v>
       </c>
       <c r="D22" t="s">
-        <v>51</v>
+        <v>57</v>
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.25">
@@ -1580,13 +1637,13 @@
         <v>4</v>
       </c>
       <c r="B23" t="s">
-        <v>5</v>
+        <v>32</v>
       </c>
       <c r="C23">
         <v>0</v>
       </c>
       <c r="D23" t="s">
-        <v>51</v>
+        <v>57</v>
       </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.25">
@@ -1594,13 +1651,13 @@
         <v>4</v>
       </c>
       <c r="B24" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="C24">
         <v>0</v>
       </c>
       <c r="D24" t="s">
-        <v>51</v>
+        <v>57</v>
       </c>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.25">
@@ -1608,13 +1665,13 @@
         <v>4</v>
       </c>
       <c r="B25" t="s">
-        <v>12</v>
+        <v>34</v>
       </c>
       <c r="C25">
         <v>0</v>
       </c>
       <c r="D25" t="s">
-        <v>51</v>
+        <v>57</v>
       </c>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.25">
@@ -1622,13 +1679,13 @@
         <v>4</v>
       </c>
       <c r="B26" t="s">
-        <v>9</v>
+        <v>35</v>
       </c>
       <c r="C26">
         <v>0</v>
       </c>
       <c r="D26" t="s">
-        <v>51</v>
+        <v>57</v>
       </c>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.25">
@@ -1636,13 +1693,13 @@
         <v>4</v>
       </c>
       <c r="B27" t="s">
-        <v>33</v>
+        <v>7</v>
       </c>
       <c r="C27">
         <v>0</v>
       </c>
       <c r="D27" t="s">
-        <v>51</v>
+        <v>57</v>
       </c>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.25">
@@ -1650,13 +1707,13 @@
         <v>4</v>
       </c>
       <c r="B28" t="s">
-        <v>14</v>
+        <v>36</v>
       </c>
       <c r="C28">
         <v>0</v>
       </c>
       <c r="D28" t="s">
-        <v>51</v>
+        <v>57</v>
       </c>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.25">
@@ -1664,13 +1721,13 @@
         <v>4</v>
       </c>
       <c r="B29" t="s">
-        <v>34</v>
+        <v>11</v>
       </c>
       <c r="C29">
         <v>0</v>
       </c>
       <c r="D29" t="s">
-        <v>51</v>
+        <v>57</v>
       </c>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.25">
@@ -1678,13 +1735,13 @@
         <v>4</v>
       </c>
       <c r="B30" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C30">
         <v>0</v>
       </c>
       <c r="D30" t="s">
-        <v>51</v>
+        <v>57</v>
       </c>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.25">
@@ -1692,13 +1749,13 @@
         <v>4</v>
       </c>
       <c r="B31" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="C31">
         <v>0</v>
       </c>
       <c r="D31" t="s">
-        <v>51</v>
+        <v>57</v>
       </c>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.25">
@@ -1706,13 +1763,13 @@
         <v>4</v>
       </c>
       <c r="B32" t="s">
-        <v>36</v>
+        <v>12</v>
       </c>
       <c r="C32">
         <v>0</v>
       </c>
       <c r="D32" t="s">
-        <v>51</v>
+        <v>57</v>
       </c>
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.25">
@@ -1720,13 +1777,13 @@
         <v>4</v>
       </c>
       <c r="B33" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C33">
         <v>0</v>
       </c>
       <c r="D33" t="s">
-        <v>51</v>
+        <v>57</v>
       </c>
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.25">
@@ -1734,13 +1791,13 @@
         <v>4</v>
       </c>
       <c r="B34" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="C34">
         <v>0</v>
       </c>
       <c r="D34" t="s">
-        <v>51</v>
+        <v>57</v>
       </c>
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.25">
@@ -1748,13 +1805,13 @@
         <v>4</v>
       </c>
       <c r="B35" t="s">
-        <v>39</v>
+        <v>10</v>
       </c>
       <c r="C35">
         <v>0</v>
       </c>
       <c r="D35" t="s">
-        <v>51</v>
+        <v>57</v>
       </c>
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.25">
@@ -1768,7 +1825,7 @@
         <v>0</v>
       </c>
       <c r="D36" t="s">
-        <v>51</v>
+        <v>57</v>
       </c>
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.25">
@@ -1782,7 +1839,7 @@
         <v>0</v>
       </c>
       <c r="D37" t="s">
-        <v>51</v>
+        <v>57</v>
       </c>
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.25">
@@ -1796,7 +1853,7 @@
         <v>0</v>
       </c>
       <c r="D38" t="s">
-        <v>51</v>
+        <v>57</v>
       </c>
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.25">
@@ -1804,13 +1861,13 @@
         <v>4</v>
       </c>
       <c r="B39" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="C39">
         <v>0</v>
       </c>
       <c r="D39" t="s">
-        <v>51</v>
+        <v>57</v>
       </c>
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.25">
@@ -1818,13 +1875,13 @@
         <v>4</v>
       </c>
       <c r="B40" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="C40">
         <v>0</v>
       </c>
       <c r="D40" t="s">
-        <v>51</v>
+        <v>57</v>
       </c>
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.25">
@@ -1832,13 +1889,13 @@
         <v>4</v>
       </c>
       <c r="B41" t="s">
-        <v>11</v>
+        <v>45</v>
       </c>
       <c r="C41">
         <v>0</v>
       </c>
       <c r="D41" t="s">
-        <v>51</v>
+        <v>57</v>
       </c>
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.25">
@@ -1846,13 +1903,13 @@
         <v>4</v>
       </c>
       <c r="B42" t="s">
-        <v>13</v>
+        <v>46</v>
       </c>
       <c r="C42">
         <v>0</v>
       </c>
       <c r="D42" t="s">
-        <v>51</v>
+        <v>57</v>
       </c>
     </row>
     <row r="43" spans="1:4" x14ac:dyDescent="0.25">
@@ -1860,13 +1917,13 @@
         <v>4</v>
       </c>
       <c r="B43" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C43">
         <v>0</v>
       </c>
       <c r="D43" t="s">
-        <v>51</v>
+        <v>57</v>
       </c>
     </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.25">
@@ -1874,13 +1931,13 @@
         <v>4</v>
       </c>
       <c r="B44" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="C44">
         <v>0</v>
       </c>
       <c r="D44" t="s">
-        <v>51</v>
+        <v>57</v>
       </c>
     </row>
     <row r="45" spans="1:4" x14ac:dyDescent="0.25">
@@ -1888,13 +1945,13 @@
         <v>4</v>
       </c>
       <c r="B45" t="s">
-        <v>15</v>
+        <v>52</v>
       </c>
       <c r="C45">
         <v>0</v>
       </c>
       <c r="D45" t="s">
-        <v>51</v>
+        <v>57</v>
       </c>
     </row>
     <row r="46" spans="1:4" x14ac:dyDescent="0.25">
@@ -1902,13 +1959,97 @@
         <v>4</v>
       </c>
       <c r="B46" t="s">
-        <v>50</v>
+        <v>13</v>
       </c>
       <c r="C46">
         <v>0</v>
       </c>
       <c r="D46" t="s">
-        <v>51</v>
+        <v>57</v>
+      </c>
+    </row>
+    <row r="47" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A47" t="s">
+        <v>4</v>
+      </c>
+      <c r="B47" t="s">
+        <v>15</v>
+      </c>
+      <c r="C47">
+        <v>0</v>
+      </c>
+      <c r="D47" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="48" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A48" t="s">
+        <v>4</v>
+      </c>
+      <c r="B48" t="s">
+        <v>53</v>
+      </c>
+      <c r="C48">
+        <v>0</v>
+      </c>
+      <c r="D48" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="49" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A49" t="s">
+        <v>4</v>
+      </c>
+      <c r="B49" t="s">
+        <v>54</v>
+      </c>
+      <c r="C49">
+        <v>0</v>
+      </c>
+      <c r="D49" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="50" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A50" t="s">
+        <v>4</v>
+      </c>
+      <c r="B50" t="s">
+        <v>55</v>
+      </c>
+      <c r="C50">
+        <v>0</v>
+      </c>
+      <c r="D50" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="51" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A51" t="s">
+        <v>4</v>
+      </c>
+      <c r="B51" t="s">
+        <v>14</v>
+      </c>
+      <c r="C51">
+        <v>0</v>
+      </c>
+      <c r="D51" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="52" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A52" t="s">
+        <v>4</v>
+      </c>
+      <c r="B52" t="s">
+        <v>56</v>
+      </c>
+      <c r="C52">
+        <v>0</v>
+      </c>
+      <c r="D52" t="s">
+        <v>57</v>
       </c>
     </row>
   </sheetData>
@@ -1919,34 +2060,30 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="A1:G46"/>
+  <dimension ref="A1:D52"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:XFD1"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="2" width="30.7109375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="16" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="10.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="1" t="s">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>4</v>
       </c>
@@ -1954,213 +2091,206 @@
         <v>17</v>
       </c>
       <c r="C2">
-        <v>0.43445266378038799</v>
+        <v>0.40699141852930698</v>
       </c>
       <c r="D2" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3">
+        <v>0.37109859624581498</v>
+      </c>
+      <c r="D3" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4" t="s">
         <v>52</v>
       </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>4</v>
-      </c>
-      <c r="B3" t="s">
+      <c r="C4">
+        <v>0.22186394737821299</v>
+      </c>
+      <c r="D4" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>4</v>
+      </c>
+      <c r="B5" t="s">
+        <v>54</v>
+      </c>
+      <c r="C5">
+        <v>3.2554494777237099E-5</v>
+      </c>
+      <c r="D5" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>4</v>
+      </c>
+      <c r="B6" t="s">
         <v>7</v>
       </c>
-      <c r="C3">
-        <v>0.372226392360823</v>
-      </c>
-      <c r="D3" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>4</v>
-      </c>
-      <c r="B4" t="s">
-        <v>47</v>
-      </c>
-      <c r="C4">
-        <v>0.19330572973222801</v>
-      </c>
-      <c r="D4" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>4</v>
-      </c>
-      <c r="B5" t="s">
-        <v>5</v>
-      </c>
-      <c r="C5">
-        <v>1.3987180871425899E-5</v>
-      </c>
-      <c r="D5" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
-        <v>4</v>
-      </c>
-      <c r="B6" t="s">
+      <c r="C6">
+        <v>1.27874486111927E-5</v>
+      </c>
+      <c r="D6" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>4</v>
+      </c>
+      <c r="B7" t="s">
+        <v>30</v>
+      </c>
+      <c r="C7">
+        <v>6.9590327722542396E-7</v>
+      </c>
+      <c r="D7" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>4</v>
+      </c>
+      <c r="B8" t="s">
+        <v>16</v>
+      </c>
+      <c r="C8">
+        <v>0</v>
+      </c>
+      <c r="D8" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>4</v>
+      </c>
+      <c r="B9" t="s">
+        <v>8</v>
+      </c>
+      <c r="C9">
+        <v>0</v>
+      </c>
+      <c r="D9" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>4</v>
+      </c>
+      <c r="B10" t="s">
+        <v>18</v>
+      </c>
+      <c r="C10">
+        <v>0</v>
+      </c>
+      <c r="D10" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>4</v>
+      </c>
+      <c r="B11" t="s">
+        <v>19</v>
+      </c>
+      <c r="C11">
+        <v>0</v>
+      </c>
+      <c r="D11" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>4</v>
+      </c>
+      <c r="B12" t="s">
+        <v>20</v>
+      </c>
+      <c r="C12">
+        <v>0</v>
+      </c>
+      <c r="D12" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>4</v>
+      </c>
+      <c r="B13" t="s">
+        <v>21</v>
+      </c>
+      <c r="C13">
+        <v>0</v>
+      </c>
+      <c r="D13" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>4</v>
+      </c>
+      <c r="B14" t="s">
+        <v>22</v>
+      </c>
+      <c r="C14">
+        <v>0</v>
+      </c>
+      <c r="D14" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>4</v>
+      </c>
+      <c r="B15" t="s">
+        <v>23</v>
+      </c>
+      <c r="C15">
+        <v>0</v>
+      </c>
+      <c r="D15" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>4</v>
+      </c>
+      <c r="B16" t="s">
         <v>24</v>
       </c>
-      <c r="C6">
-        <v>1.2269456904759601E-6</v>
-      </c>
-      <c r="D6" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
-        <v>4</v>
-      </c>
-      <c r="B7" t="s">
-        <v>16</v>
-      </c>
-      <c r="C7">
-        <v>0</v>
-      </c>
-      <c r="D7" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
-        <v>4</v>
-      </c>
-      <c r="B8" t="s">
-        <v>8</v>
-      </c>
-      <c r="C8">
-        <v>0</v>
-      </c>
-      <c r="D8" t="s">
-        <v>52</v>
-      </c>
-      <c r="G8" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
-        <v>4</v>
-      </c>
-      <c r="B9" t="s">
-        <v>18</v>
-      </c>
-      <c r="C9">
-        <v>0</v>
-      </c>
-      <c r="D9" t="s">
-        <v>52</v>
-      </c>
-      <c r="G9">
-        <f>SUM(C:C)</f>
-        <v>1.0000000000000009</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
-        <v>4</v>
-      </c>
-      <c r="B10" t="s">
-        <v>19</v>
-      </c>
-      <c r="C10">
-        <v>0</v>
-      </c>
-      <c r="D10" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
-        <v>4</v>
-      </c>
-      <c r="B11" t="s">
-        <v>20</v>
-      </c>
-      <c r="C11">
-        <v>0</v>
-      </c>
-      <c r="D11" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A12" t="s">
-        <v>4</v>
-      </c>
-      <c r="B12" t="s">
-        <v>21</v>
-      </c>
-      <c r="C12">
-        <v>0</v>
-      </c>
-      <c r="D12" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A13" t="s">
-        <v>4</v>
-      </c>
-      <c r="B13" t="s">
-        <v>22</v>
-      </c>
-      <c r="C13">
-        <v>0</v>
-      </c>
-      <c r="D13" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A14" t="s">
-        <v>4</v>
-      </c>
-      <c r="B14" t="s">
-        <v>23</v>
-      </c>
-      <c r="C14">
-        <v>0</v>
-      </c>
-      <c r="D14" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A15" t="s">
-        <v>4</v>
-      </c>
-      <c r="B15" t="s">
-        <v>25</v>
-      </c>
-      <c r="C15">
-        <v>0</v>
-      </c>
-      <c r="D15" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A16" t="s">
-        <v>4</v>
-      </c>
-      <c r="B16" t="s">
-        <v>26</v>
-      </c>
       <c r="C16">
         <v>0</v>
       </c>
       <c r="D16" t="s">
-        <v>52</v>
+        <v>58</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.25">
@@ -2168,13 +2298,13 @@
         <v>4</v>
       </c>
       <c r="B17" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="C17">
         <v>0</v>
       </c>
       <c r="D17" t="s">
-        <v>52</v>
+        <v>58</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.25">
@@ -2182,13 +2312,13 @@
         <v>4</v>
       </c>
       <c r="B18" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="C18">
         <v>0</v>
       </c>
       <c r="D18" t="s">
-        <v>52</v>
+        <v>58</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.25">
@@ -2196,13 +2326,13 @@
         <v>4</v>
       </c>
       <c r="B19" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="C19">
         <v>0</v>
       </c>
       <c r="D19" t="s">
-        <v>52</v>
+        <v>58</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.25">
@@ -2210,13 +2340,13 @@
         <v>4</v>
       </c>
       <c r="B20" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="C20">
         <v>0</v>
       </c>
       <c r="D20" t="s">
-        <v>52</v>
+        <v>58</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.25">
@@ -2224,13 +2354,13 @@
         <v>4</v>
       </c>
       <c r="B21" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="C21">
         <v>0</v>
       </c>
       <c r="D21" t="s">
-        <v>52</v>
+        <v>58</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.25">
@@ -2238,13 +2368,13 @@
         <v>4</v>
       </c>
       <c r="B22" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C22">
         <v>0</v>
       </c>
       <c r="D22" t="s">
-        <v>52</v>
+        <v>58</v>
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.25">
@@ -2252,13 +2382,13 @@
         <v>4</v>
       </c>
       <c r="B23" t="s">
-        <v>12</v>
+        <v>32</v>
       </c>
       <c r="C23">
         <v>0</v>
       </c>
       <c r="D23" t="s">
-        <v>52</v>
+        <v>58</v>
       </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.25">
@@ -2266,13 +2396,13 @@
         <v>4</v>
       </c>
       <c r="B24" t="s">
-        <v>9</v>
+        <v>33</v>
       </c>
       <c r="C24">
         <v>0</v>
       </c>
       <c r="D24" t="s">
-        <v>52</v>
+        <v>58</v>
       </c>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.25">
@@ -2280,13 +2410,13 @@
         <v>4</v>
       </c>
       <c r="B25" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="C25">
         <v>0</v>
       </c>
       <c r="D25" t="s">
-        <v>52</v>
+        <v>58</v>
       </c>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.25">
@@ -2294,13 +2424,13 @@
         <v>4</v>
       </c>
       <c r="B26" t="s">
-        <v>14</v>
+        <v>35</v>
       </c>
       <c r="C26">
         <v>0</v>
       </c>
       <c r="D26" t="s">
-        <v>52</v>
+        <v>58</v>
       </c>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.25">
@@ -2308,13 +2438,13 @@
         <v>4</v>
       </c>
       <c r="B27" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="C27">
         <v>0</v>
       </c>
       <c r="D27" t="s">
-        <v>52</v>
+        <v>58</v>
       </c>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.25">
@@ -2322,13 +2452,13 @@
         <v>4</v>
       </c>
       <c r="B28" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C28">
         <v>0</v>
       </c>
       <c r="D28" t="s">
-        <v>52</v>
+        <v>58</v>
       </c>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.25">
@@ -2336,13 +2466,13 @@
         <v>4</v>
       </c>
       <c r="B29" t="s">
-        <v>35</v>
+        <v>9</v>
       </c>
       <c r="C29">
         <v>0</v>
       </c>
       <c r="D29" t="s">
-        <v>52</v>
+        <v>58</v>
       </c>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.25">
@@ -2350,13 +2480,13 @@
         <v>4</v>
       </c>
       <c r="B30" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="C30">
         <v>0</v>
       </c>
       <c r="D30" t="s">
-        <v>52</v>
+        <v>58</v>
       </c>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.25">
@@ -2364,13 +2494,13 @@
         <v>4</v>
       </c>
       <c r="B31" t="s">
-        <v>37</v>
+        <v>12</v>
       </c>
       <c r="C31">
         <v>0</v>
       </c>
       <c r="D31" t="s">
-        <v>52</v>
+        <v>58</v>
       </c>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.25">
@@ -2384,7 +2514,7 @@
         <v>0</v>
       </c>
       <c r="D32" t="s">
-        <v>52</v>
+        <v>58</v>
       </c>
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.25">
@@ -2398,7 +2528,7 @@
         <v>0</v>
       </c>
       <c r="D33" t="s">
-        <v>52</v>
+        <v>58</v>
       </c>
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.25">
@@ -2406,13 +2536,13 @@
         <v>4</v>
       </c>
       <c r="B34" t="s">
-        <v>40</v>
+        <v>10</v>
       </c>
       <c r="C34">
         <v>0</v>
       </c>
       <c r="D34" t="s">
-        <v>52</v>
+        <v>58</v>
       </c>
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.25">
@@ -2420,13 +2550,13 @@
         <v>4</v>
       </c>
       <c r="B35" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C35">
         <v>0</v>
       </c>
       <c r="D35" t="s">
-        <v>52</v>
+        <v>58</v>
       </c>
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.25">
@@ -2434,13 +2564,13 @@
         <v>4</v>
       </c>
       <c r="B36" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C36">
         <v>0</v>
       </c>
       <c r="D36" t="s">
-        <v>52</v>
+        <v>58</v>
       </c>
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.25">
@@ -2448,13 +2578,13 @@
         <v>4</v>
       </c>
       <c r="B37" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C37">
         <v>0</v>
       </c>
       <c r="D37" t="s">
-        <v>52</v>
+        <v>58</v>
       </c>
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.25">
@@ -2462,13 +2592,13 @@
         <v>4</v>
       </c>
       <c r="B38" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C38">
         <v>0</v>
       </c>
       <c r="D38" t="s">
-        <v>52</v>
+        <v>58</v>
       </c>
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.25">
@@ -2476,13 +2606,13 @@
         <v>4</v>
       </c>
       <c r="B39" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C39">
         <v>0</v>
       </c>
       <c r="D39" t="s">
-        <v>52</v>
+        <v>58</v>
       </c>
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.25">
@@ -2490,13 +2620,13 @@
         <v>4</v>
       </c>
       <c r="B40" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C40">
         <v>0</v>
       </c>
       <c r="D40" t="s">
-        <v>52</v>
+        <v>58</v>
       </c>
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.25">
@@ -2504,13 +2634,13 @@
         <v>4</v>
       </c>
       <c r="B41" t="s">
-        <v>11</v>
+        <v>46</v>
       </c>
       <c r="C41">
         <v>0</v>
       </c>
       <c r="D41" t="s">
-        <v>52</v>
+        <v>58</v>
       </c>
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.25">
@@ -2518,13 +2648,13 @@
         <v>4</v>
       </c>
       <c r="B42" t="s">
-        <v>13</v>
+        <v>47</v>
       </c>
       <c r="C42">
         <v>0</v>
       </c>
       <c r="D42" t="s">
-        <v>52</v>
+        <v>58</v>
       </c>
     </row>
     <row r="43" spans="1:4" x14ac:dyDescent="0.25">
@@ -2538,7 +2668,7 @@
         <v>0</v>
       </c>
       <c r="D43" t="s">
-        <v>52</v>
+        <v>58</v>
       </c>
     </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.25">
@@ -2552,7 +2682,7 @@
         <v>0</v>
       </c>
       <c r="D44" t="s">
-        <v>52</v>
+        <v>58</v>
       </c>
     </row>
     <row r="45" spans="1:4" x14ac:dyDescent="0.25">
@@ -2560,13 +2690,13 @@
         <v>4</v>
       </c>
       <c r="B45" t="s">
-        <v>15</v>
+        <v>50</v>
       </c>
       <c r="C45">
         <v>0</v>
       </c>
       <c r="D45" t="s">
-        <v>52</v>
+        <v>58</v>
       </c>
     </row>
     <row r="46" spans="1:4" x14ac:dyDescent="0.25">
@@ -2574,13 +2704,97 @@
         <v>4</v>
       </c>
       <c r="B46" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="C46">
         <v>0</v>
       </c>
       <c r="D46" t="s">
-        <v>52</v>
+        <v>58</v>
+      </c>
+    </row>
+    <row r="47" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A47" t="s">
+        <v>4</v>
+      </c>
+      <c r="B47" t="s">
+        <v>13</v>
+      </c>
+      <c r="C47">
+        <v>0</v>
+      </c>
+      <c r="D47" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="48" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A48" t="s">
+        <v>4</v>
+      </c>
+      <c r="B48" t="s">
+        <v>15</v>
+      </c>
+      <c r="C48">
+        <v>0</v>
+      </c>
+      <c r="D48" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="49" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A49" t="s">
+        <v>4</v>
+      </c>
+      <c r="B49" t="s">
+        <v>53</v>
+      </c>
+      <c r="C49">
+        <v>0</v>
+      </c>
+      <c r="D49" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="50" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A50" t="s">
+        <v>4</v>
+      </c>
+      <c r="B50" t="s">
+        <v>55</v>
+      </c>
+      <c r="C50">
+        <v>0</v>
+      </c>
+      <c r="D50" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="51" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A51" t="s">
+        <v>4</v>
+      </c>
+      <c r="B51" t="s">
+        <v>14</v>
+      </c>
+      <c r="C51">
+        <v>0</v>
+      </c>
+      <c r="D51" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="52" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A52" t="s">
+        <v>4</v>
+      </c>
+      <c r="B52" t="s">
+        <v>56</v>
+      </c>
+      <c r="C52">
+        <v>0</v>
+      </c>
+      <c r="D52" t="s">
+        <v>58</v>
       </c>
     </row>
   </sheetData>
@@ -2591,39 +2805,35 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
-  <dimension ref="A1:G27"/>
+  <dimension ref="A1:D26"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:XFD1"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="2" width="30.7109375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="16" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="12.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="1" t="s">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>53</v>
+        <v>59</v>
       </c>
       <c r="B2" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C2">
         <v>0.37476389662019599</v>
@@ -2632,12 +2842,12 @@
         <v>6</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>53</v>
+        <v>59</v>
       </c>
       <c r="B3" t="s">
-        <v>54</v>
+        <v>60</v>
       </c>
       <c r="C3">
         <v>0.32288216068543701</v>
@@ -2646,9 +2856,9 @@
         <v>6</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>53</v>
+        <v>59</v>
       </c>
       <c r="B4" t="s">
         <v>8</v>
@@ -2660,12 +2870,12 @@
         <v>6</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>53</v>
+        <v>59</v>
       </c>
       <c r="B5" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C5">
         <v>5.0503646485215201E-2</v>
@@ -2674,12 +2884,12 @@
         <v>6</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>53</v>
+        <v>59</v>
       </c>
       <c r="B6" t="s">
-        <v>55</v>
+        <v>61</v>
       </c>
       <c r="C6">
         <v>2.8881850977268701E-2</v>
@@ -2688,12 +2898,12 @@
         <v>6</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>53</v>
+        <v>59</v>
       </c>
       <c r="B7" t="s">
-        <v>56</v>
+        <v>62</v>
       </c>
       <c r="C7">
         <v>2.4497127480718799E-2</v>
@@ -2702,9 +2912,9 @@
         <v>6</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>53</v>
+        <v>59</v>
       </c>
       <c r="B8" t="s">
         <v>16</v>
@@ -2715,13 +2925,10 @@
       <c r="D8" t="s">
         <v>6</v>
       </c>
-      <c r="G8" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>53</v>
+        <v>59</v>
       </c>
       <c r="B9" t="s">
         <v>9</v>
@@ -2732,17 +2939,13 @@
       <c r="D9" t="s">
         <v>6</v>
       </c>
-      <c r="G9">
-        <f>SUM(C:C)</f>
-        <v>0.99999999999999978</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>53</v>
+        <v>59</v>
       </c>
       <c r="B10" t="s">
-        <v>57</v>
+        <v>63</v>
       </c>
       <c r="C10">
         <v>1.9371261665562099E-2</v>
@@ -2751,12 +2954,12 @@
         <v>6</v>
       </c>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>53</v>
+        <v>59</v>
       </c>
       <c r="B11" t="s">
-        <v>58</v>
+        <v>64</v>
       </c>
       <c r="C11">
         <v>1.2452953927861299E-2</v>
@@ -2765,12 +2968,12 @@
         <v>6</v>
       </c>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>53</v>
+        <v>59</v>
       </c>
       <c r="B12" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="C12">
         <v>9.6192908955702004E-3</v>
@@ -2779,12 +2982,12 @@
         <v>6</v>
       </c>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>53</v>
+        <v>59</v>
       </c>
       <c r="B13" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="C13">
         <v>0</v>
@@ -2793,9 +2996,9 @@
         <v>6</v>
       </c>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>53</v>
+        <v>59</v>
       </c>
       <c r="B14" t="s">
         <v>17</v>
@@ -2807,12 +3010,12 @@
         <v>6</v>
       </c>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>53</v>
+        <v>59</v>
       </c>
       <c r="B15" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="C15">
         <v>0</v>
@@ -2821,12 +3024,12 @@
         <v>6</v>
       </c>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>53</v>
+        <v>59</v>
       </c>
       <c r="B16" t="s">
-        <v>59</v>
+        <v>65</v>
       </c>
       <c r="C16">
         <v>0</v>
@@ -2837,10 +3040,10 @@
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>53</v>
+        <v>59</v>
       </c>
       <c r="B17" t="s">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="C17">
         <v>0</v>
@@ -2851,10 +3054,10 @@
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>53</v>
+        <v>59</v>
       </c>
       <c r="B18" t="s">
-        <v>12</v>
+        <v>66</v>
       </c>
       <c r="C18">
         <v>0</v>
@@ -2865,10 +3068,10 @@
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>53</v>
+        <v>59</v>
       </c>
       <c r="B19" t="s">
-        <v>60</v>
+        <v>41</v>
       </c>
       <c r="C19">
         <v>0</v>
@@ -2879,10 +3082,10 @@
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>53</v>
+        <v>59</v>
       </c>
       <c r="B20" t="s">
-        <v>36</v>
+        <v>67</v>
       </c>
       <c r="C20">
         <v>0</v>
@@ -2893,10 +3096,10 @@
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>53</v>
+        <v>59</v>
       </c>
       <c r="B21" t="s">
-        <v>61</v>
+        <v>46</v>
       </c>
       <c r="C21">
         <v>0</v>
@@ -2907,10 +3110,10 @@
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>53</v>
+        <v>59</v>
       </c>
       <c r="B22" t="s">
-        <v>41</v>
+        <v>49</v>
       </c>
       <c r="C22">
         <v>0</v>
@@ -2921,10 +3124,10 @@
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>53</v>
+        <v>59</v>
       </c>
       <c r="B23" t="s">
-        <v>44</v>
+        <v>50</v>
       </c>
       <c r="C23">
         <v>0</v>
@@ -2935,10 +3138,10 @@
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>53</v>
+        <v>59</v>
       </c>
       <c r="B24" t="s">
-        <v>45</v>
+        <v>52</v>
       </c>
       <c r="C24">
         <v>0</v>
@@ -2949,10 +3152,10 @@
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>53</v>
+        <v>59</v>
       </c>
       <c r="B25" t="s">
-        <v>47</v>
+        <v>68</v>
       </c>
       <c r="C25">
         <v>0</v>
@@ -2963,29 +3166,15 @@
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>53</v>
+        <v>59</v>
       </c>
       <c r="B26" t="s">
-        <v>62</v>
+        <v>69</v>
       </c>
       <c r="C26">
         <v>0</v>
       </c>
       <c r="D26" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A27" t="s">
-        <v>53</v>
-      </c>
-      <c r="B27" t="s">
-        <v>63</v>
-      </c>
-      <c r="C27">
-        <v>0</v>
-      </c>
-      <c r="D27" t="s">
         <v>6</v>
       </c>
     </row>
@@ -2997,148 +3186,144 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
-  <dimension ref="A1:G27"/>
+  <dimension ref="A1:D26"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:XFD1"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="2" width="30.7109375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="16" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="12.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="1" t="s">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>53</v>
+        <v>59</v>
       </c>
       <c r="B2" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C2">
-        <v>0.43791871443352298</v>
+        <v>0.55033497154681799</v>
       </c>
       <c r="D2" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>53</v>
+        <v>59</v>
       </c>
       <c r="B3" t="s">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="C3">
-        <v>0.27855664769787902</v>
+        <v>0.222845318158303</v>
       </c>
       <c r="D3" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>53</v>
+        <v>59</v>
       </c>
       <c r="B4" t="s">
         <v>8</v>
       </c>
       <c r="C4">
-        <v>0.171875</v>
+        <v>0.13750000000000001</v>
       </c>
       <c r="D4" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>53</v>
+        <v>59</v>
       </c>
       <c r="B5" t="s">
-        <v>44</v>
+        <v>49</v>
       </c>
       <c r="C5">
-        <v>5.3091050181065802E-2</v>
+        <v>4.24728401448526E-2</v>
       </c>
       <c r="D5" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>53</v>
+        <v>59</v>
       </c>
       <c r="B6" t="s">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="C6">
-        <v>4.3749999999999997E-2</v>
+        <v>3.5000000000000003E-2</v>
       </c>
       <c r="D6" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>53</v>
+        <v>59</v>
       </c>
       <c r="B7" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="C7">
-        <v>1.2441800310398401E-2</v>
+        <v>9.9534402483186808E-3</v>
       </c>
       <c r="D7" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>53</v>
+        <v>59</v>
       </c>
       <c r="B8" t="s">
-        <v>59</v>
+        <v>65</v>
       </c>
       <c r="C8">
-        <v>1.3838592860838099E-3</v>
+        <v>1.10708742886705E-3</v>
       </c>
       <c r="D8" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>53</v>
+        <v>59</v>
       </c>
       <c r="B9" t="s">
-        <v>63</v>
+        <v>69</v>
       </c>
       <c r="C9">
-        <v>9.8292809105018008E-4</v>
+        <v>7.8634247284014398E-4</v>
       </c>
       <c r="D9" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>53</v>
+        <v>59</v>
       </c>
       <c r="B10" t="s">
         <v>16</v>
@@ -3147,33 +3332,26 @@
         <v>0</v>
       </c>
       <c r="D10" t="s">
-        <v>51</v>
-      </c>
-      <c r="G10" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>53</v>
+        <v>59</v>
       </c>
       <c r="B11" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="C11">
         <v>0</v>
       </c>
       <c r="D11" t="s">
-        <v>51</v>
-      </c>
-      <c r="G11">
-        <f>SUM(C:C)</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>53</v>
+        <v>59</v>
       </c>
       <c r="B12" t="s">
         <v>17</v>
@@ -3182,110 +3360,110 @@
         <v>0</v>
       </c>
       <c r="D12" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>53</v>
+        <v>59</v>
       </c>
       <c r="B13" t="s">
-        <v>58</v>
+        <v>64</v>
       </c>
       <c r="C13">
         <v>0</v>
       </c>
       <c r="D13" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>53</v>
+        <v>59</v>
       </c>
       <c r="B14" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="C14">
         <v>0</v>
       </c>
       <c r="D14" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>53</v>
+        <v>59</v>
       </c>
       <c r="B15" t="s">
-        <v>9</v>
+        <v>63</v>
       </c>
       <c r="C15">
         <v>0</v>
       </c>
       <c r="D15" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>53</v>
+        <v>59</v>
       </c>
       <c r="B16" t="s">
-        <v>57</v>
+        <v>66</v>
       </c>
       <c r="C16">
         <v>0</v>
       </c>
       <c r="D16" t="s">
-        <v>51</v>
+        <v>57</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>53</v>
+        <v>59</v>
       </c>
       <c r="B17" t="s">
-        <v>60</v>
+        <v>41</v>
       </c>
       <c r="C17">
         <v>0</v>
       </c>
       <c r="D17" t="s">
-        <v>51</v>
+        <v>57</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>53</v>
+        <v>59</v>
       </c>
       <c r="B18" t="s">
-        <v>36</v>
+        <v>62</v>
       </c>
       <c r="C18">
         <v>0</v>
       </c>
       <c r="D18" t="s">
-        <v>51</v>
+        <v>57</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>53</v>
+        <v>59</v>
       </c>
       <c r="B19" t="s">
-        <v>56</v>
+        <v>67</v>
       </c>
       <c r="C19">
         <v>0</v>
       </c>
       <c r="D19" t="s">
-        <v>51</v>
+        <v>57</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>53</v>
+        <v>59</v>
       </c>
       <c r="B20" t="s">
         <v>61</v>
@@ -3294,105 +3472,91 @@
         <v>0</v>
       </c>
       <c r="D20" t="s">
-        <v>51</v>
+        <v>57</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>53</v>
+        <v>59</v>
       </c>
       <c r="B21" t="s">
-        <v>55</v>
+        <v>46</v>
       </c>
       <c r="C21">
         <v>0</v>
       </c>
       <c r="D21" t="s">
-        <v>51</v>
+        <v>57</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>53</v>
+        <v>59</v>
       </c>
       <c r="B22" t="s">
-        <v>41</v>
+        <v>60</v>
       </c>
       <c r="C22">
         <v>0</v>
       </c>
       <c r="D22" t="s">
-        <v>51</v>
+        <v>57</v>
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>53</v>
+        <v>59</v>
       </c>
       <c r="B23" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="C23">
         <v>0</v>
       </c>
       <c r="D23" t="s">
-        <v>51</v>
+        <v>57</v>
       </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>53</v>
+        <v>59</v>
       </c>
       <c r="B24" t="s">
-        <v>47</v>
+        <v>68</v>
       </c>
       <c r="C24">
         <v>0</v>
       </c>
       <c r="D24" t="s">
-        <v>51</v>
+        <v>57</v>
       </c>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>53</v>
+        <v>59</v>
       </c>
       <c r="B25" t="s">
-        <v>62</v>
+        <v>15</v>
       </c>
       <c r="C25">
         <v>0</v>
       </c>
       <c r="D25" t="s">
-        <v>51</v>
+        <v>57</v>
       </c>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>53</v>
+        <v>59</v>
       </c>
       <c r="B26" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C26">
         <v>0</v>
       </c>
       <c r="D26" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A27" t="s">
-        <v>53</v>
-      </c>
-      <c r="B27" t="s">
-        <v>15</v>
-      </c>
-      <c r="C27">
-        <v>0</v>
-      </c>
-      <c r="D27" t="s">
-        <v>51</v>
+        <v>57</v>
       </c>
     </row>
   </sheetData>
@@ -3403,63 +3567,62 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
-  <dimension ref="A1:G27"/>
+  <dimension ref="A1:D26"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D15" sqref="D15"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B7" sqref="B7:C7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="2" width="30.7109375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="16" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="1" t="s">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>53</v>
+        <v>59</v>
       </c>
       <c r="B2" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C2">
         <v>0.74201526904742598</v>
       </c>
       <c r="D2" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>59</v>
+      </c>
+      <c r="B3" t="s">
         <v>52</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>53</v>
-      </c>
-      <c r="B3" t="s">
-        <v>47</v>
       </c>
       <c r="C3">
         <v>0.18473178150146499</v>
       </c>
       <c r="D3" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>53</v>
+        <v>59</v>
       </c>
       <c r="B4" t="s">
         <v>17</v>
@@ -3468,12 +3631,12 @@
         <v>7.3252949451108801E-2</v>
       </c>
       <c r="D4" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>53</v>
+        <v>59</v>
       </c>
       <c r="B5" t="s">
         <v>16</v>
@@ -3482,12 +3645,12 @@
         <v>0</v>
       </c>
       <c r="D5" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>53</v>
+        <v>59</v>
       </c>
       <c r="B6" t="s">
         <v>8</v>
@@ -3496,173 +3659,166 @@
         <v>0</v>
       </c>
       <c r="D6" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>53</v>
+        <v>59</v>
       </c>
       <c r="B7" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="C7">
         <v>0</v>
       </c>
       <c r="D7" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>53</v>
+        <v>59</v>
       </c>
       <c r="B8" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="C8">
         <v>0</v>
       </c>
       <c r="D8" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>53</v>
+        <v>59</v>
       </c>
       <c r="B9" t="s">
-        <v>59</v>
+        <v>65</v>
       </c>
       <c r="C9">
         <v>0</v>
       </c>
       <c r="D9" t="s">
-        <v>52</v>
-      </c>
-      <c r="G9" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>59</v>
+      </c>
+      <c r="B10" t="s">
+        <v>32</v>
+      </c>
+      <c r="C10">
+        <v>0</v>
+      </c>
+      <c r="D10" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>59</v>
+      </c>
+      <c r="B11" t="s">
         <v>64</v>
       </c>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
-        <v>53</v>
-      </c>
-      <c r="B10" t="s">
-        <v>28</v>
-      </c>
-      <c r="C10">
-        <v>0</v>
-      </c>
-      <c r="D10" t="s">
-        <v>52</v>
-      </c>
-      <c r="G10">
-        <f>SUM(C:C)</f>
-        <v>0.99999999999999978</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
-        <v>53</v>
-      </c>
-      <c r="B11" t="s">
-        <v>58</v>
-      </c>
       <c r="C11">
         <v>0</v>
       </c>
       <c r="D11" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>53</v>
+        <v>59</v>
       </c>
       <c r="B12" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="C12">
         <v>0</v>
       </c>
       <c r="D12" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>53</v>
+        <v>59</v>
       </c>
       <c r="B13" t="s">
-        <v>9</v>
+        <v>63</v>
       </c>
       <c r="C13">
         <v>0</v>
       </c>
       <c r="D13" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>53</v>
+        <v>59</v>
       </c>
       <c r="B14" t="s">
-        <v>57</v>
+        <v>66</v>
       </c>
       <c r="C14">
         <v>0</v>
       </c>
       <c r="D14" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>53</v>
+        <v>59</v>
       </c>
       <c r="B15" t="s">
-        <v>60</v>
+        <v>41</v>
       </c>
       <c r="C15">
         <v>0</v>
       </c>
       <c r="D15" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>53</v>
+        <v>59</v>
       </c>
       <c r="B16" t="s">
-        <v>36</v>
+        <v>62</v>
       </c>
       <c r="C16">
         <v>0</v>
       </c>
       <c r="D16" t="s">
-        <v>52</v>
+        <v>58</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>53</v>
+        <v>59</v>
       </c>
       <c r="B17" t="s">
-        <v>56</v>
+        <v>67</v>
       </c>
       <c r="C17">
         <v>0</v>
       </c>
       <c r="D17" t="s">
-        <v>52</v>
+        <v>58</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>53</v>
+        <v>59</v>
       </c>
       <c r="B18" t="s">
         <v>61</v>
@@ -3671,133 +3827,119 @@
         <v>0</v>
       </c>
       <c r="D18" t="s">
-        <v>52</v>
+        <v>58</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>53</v>
+        <v>59</v>
       </c>
       <c r="B19" t="s">
-        <v>55</v>
+        <v>46</v>
       </c>
       <c r="C19">
         <v>0</v>
       </c>
       <c r="D19" t="s">
-        <v>52</v>
+        <v>58</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>53</v>
+        <v>59</v>
       </c>
       <c r="B20" t="s">
-        <v>41</v>
+        <v>60</v>
       </c>
       <c r="C20">
         <v>0</v>
       </c>
       <c r="D20" t="s">
-        <v>52</v>
+        <v>58</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>53</v>
+        <v>59</v>
       </c>
       <c r="B21" t="s">
-        <v>54</v>
+        <v>49</v>
       </c>
       <c r="C21">
         <v>0</v>
       </c>
       <c r="D21" t="s">
-        <v>52</v>
+        <v>58</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>53</v>
+        <v>59</v>
       </c>
       <c r="B22" t="s">
-        <v>44</v>
+        <v>50</v>
       </c>
       <c r="C22">
         <v>0</v>
       </c>
       <c r="D22" t="s">
-        <v>52</v>
+        <v>58</v>
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>53</v>
+        <v>59</v>
       </c>
       <c r="B23" t="s">
-        <v>45</v>
+        <v>68</v>
       </c>
       <c r="C23">
         <v>0</v>
       </c>
       <c r="D23" t="s">
-        <v>52</v>
+        <v>58</v>
       </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>53</v>
+        <v>59</v>
       </c>
       <c r="B24" t="s">
-        <v>62</v>
+        <v>15</v>
       </c>
       <c r="C24">
         <v>0</v>
       </c>
       <c r="D24" t="s">
-        <v>52</v>
+        <v>58</v>
       </c>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>53</v>
+        <v>59</v>
       </c>
       <c r="B25" t="s">
-        <v>13</v>
+        <v>69</v>
       </c>
       <c r="C25">
         <v>0</v>
       </c>
       <c r="D25" t="s">
-        <v>52</v>
+        <v>58</v>
       </c>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>53</v>
+        <v>59</v>
       </c>
       <c r="B26" t="s">
-        <v>63</v>
+        <v>14</v>
       </c>
       <c r="C26">
         <v>0</v>
       </c>
       <c r="D26" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A27" t="s">
-        <v>53</v>
-      </c>
-      <c r="B27" t="s">
-        <v>15</v>
-      </c>
-      <c r="C27">
-        <v>0</v>
-      </c>
-      <c r="D27" t="s">
-        <v>52</v>
+        <v>58</v>
       </c>
     </row>
   </sheetData>

--- a/Deliverables/predator_marker_species_proportions.xlsx
+++ b/Deliverables/predator_marker_species_proportions.xlsx
@@ -1,30 +1,44 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29328"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Intern\Arctic-predator-diet-microbiome\Deliverables\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\MBall\OneDrive\Documents\UW-DOCS\WADE lab\Arctic-predator-diet-microbiome\Deliverables\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2EF378E8-8AB7-40A7-B714-9D2B8E582E76}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="13128" windowHeight="6108" activeTab="5"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="20715" windowHeight="13155" firstSheet="2" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="bearded seal_12S" sheetId="1" r:id="rId1"/>
     <sheet name="Beluga whale_12S" sheetId="2" r:id="rId2"/>
     <sheet name="ringed seal_12S" sheetId="3" r:id="rId3"/>
     <sheet name="bearded seal_16S" sheetId="4" r:id="rId4"/>
-    <sheet name="Beluga whale_16S" sheetId="5" r:id="rId5"/>
+    <sheet name="beluga whale_16S" sheetId="5" r:id="rId5"/>
     <sheet name="ringed seal_16S" sheetId="6" r:id="rId6"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="690" uniqueCount="68">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="717" uniqueCount="68">
   <si>
     <t>Marker</t>
   </si>
@@ -41,15 +55,15 @@
     <t>12S</t>
   </si>
   <si>
+    <t>Eleginus gracilis</t>
+  </si>
+  <si>
+    <t>bearded seal</t>
+  </si>
+  <si>
     <t>Glyptocephalus zachirus</t>
   </si>
   <si>
-    <t>bearded seal</t>
-  </si>
-  <si>
-    <t>Eleginus gracilis</t>
-  </si>
-  <si>
     <t>Ammodytes hexapterus</t>
   </si>
   <si>
@@ -59,21 +73,21 @@
     <t>Leptoclinus maculatus</t>
   </si>
   <si>
+    <t>Gymnocanthus spp.</t>
+  </si>
+  <si>
+    <t>Hippoglossoides elassodon</t>
+  </si>
+  <si>
     <t>Platichthys stellatus</t>
   </si>
   <si>
-    <t>Gymnocanthus spp.</t>
+    <t>Stichaeus punctatus</t>
   </si>
   <si>
     <t>Pleuronectes quadrituberculatus</t>
   </si>
   <si>
-    <t>Hippoglossoides elassodon</t>
-  </si>
-  <si>
-    <t>Stichaeus punctatus</t>
-  </si>
-  <si>
     <t>Acantholumpenus mackayi</t>
   </si>
   <si>
@@ -191,51 +205,59 @@
     <t>Myoxocephalus scorpius</t>
   </si>
   <si>
-    <t>Myoxocephalus jaok</t>
-  </si>
-  <si>
     <t>Lumpenus spp.</t>
   </si>
   <si>
+    <t>Microcottus sellaris</t>
+  </si>
+  <si>
     <t>Limanda aspera</t>
   </si>
   <si>
     <t>Gymnocanthus pistilliger</t>
   </si>
   <si>
-    <t>Delphinapterus leucas</t>
-  </si>
-  <si>
-    <t>Erignathus barbatus</t>
+    <t>Coregonus nasus</t>
   </si>
   <si>
     <t>Esox lucius</t>
   </si>
   <si>
-    <t>Helicobacter spp.</t>
+    <t>Gadus macrocephalus</t>
   </si>
   <si>
     <t>Liopsetta glacialis</t>
   </si>
   <si>
-    <t>Microcottus sellaris</t>
+    <t>Myoxocephalus quadricornis</t>
+  </si>
+  <si>
+    <t>Oncorhynchus spp.</t>
   </si>
   <si>
     <t>Pallasina barbata</t>
   </si>
   <si>
-    <t>Pusa hispida</t>
-  </si>
-  <si>
     <t>Salvelinus spp.</t>
+  </si>
+  <si>
+    <t>beluga whale</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="1" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
@@ -263,8 +285,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -560,31 +583,34 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D45"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:F45"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:XFD1"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.5546875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="10.6640625" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="2" max="2" width="27.6640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="26.53125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="14" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" t="s">
+    <row r="1" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" t="s">
+      <c r="D1" s="1" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A2" t="s">
         <v>4</v>
       </c>
@@ -592,13 +618,13 @@
         <v>5</v>
       </c>
       <c r="C2">
-        <v>0.39060554692934402</v>
+        <v>0.301321684937217</v>
       </c>
       <c r="D2" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A3" t="s">
         <v>4</v>
       </c>
@@ -606,13 +632,13 @@
         <v>7</v>
       </c>
       <c r="C3">
-        <v>0.24365221518491501</v>
+        <v>0.28869366546805197</v>
       </c>
       <c r="D3" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A4" t="s">
         <v>4</v>
       </c>
@@ -620,13 +646,13 @@
         <v>8</v>
       </c>
       <c r="C4">
-        <v>0.138737967880738</v>
+        <v>0.16231070880870799</v>
       </c>
       <c r="D4" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A5" t="s">
         <v>4</v>
       </c>
@@ -634,13 +660,13 @@
         <v>9</v>
       </c>
       <c r="C5">
-        <v>0.113695567757455</v>
+        <v>0.13801096170716801</v>
       </c>
       <c r="D5" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A6" t="s">
         <v>4</v>
       </c>
@@ -648,13 +674,13 @@
         <v>10</v>
       </c>
       <c r="C6">
-        <v>5.5523611250181203E-2</v>
+        <v>5.4961753299877097E-2</v>
       </c>
       <c r="D6" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A7" t="s">
         <v>4</v>
       </c>
@@ -662,13 +688,13 @@
         <v>11</v>
       </c>
       <c r="C7">
-        <v>1.3717266157971E-2</v>
+        <v>1.36877324487557E-2</v>
       </c>
       <c r="D7" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A8" t="s">
         <v>4</v>
       </c>
@@ -676,13 +702,17 @@
         <v>12</v>
       </c>
       <c r="C8">
-        <v>1.28137377086356E-2</v>
+        <v>1.1059881639759499E-2</v>
       </c>
       <c r="D8" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="F8">
+        <f>SUM(C:C)</f>
+        <v>1.0000000000000009</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A9" t="s">
         <v>4</v>
       </c>
@@ -690,13 +720,13 @@
         <v>13</v>
       </c>
       <c r="C9">
-        <v>9.3658675277989295E-3</v>
+        <v>1.00077702262711E-2</v>
       </c>
       <c r="D9" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A10" t="s">
         <v>4</v>
       </c>
@@ -704,13 +734,13 @@
         <v>14</v>
       </c>
       <c r="C10">
-        <v>9.0943618604219095E-3</v>
+        <v>8.5961791921617108E-3</v>
       </c>
       <c r="D10" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A11" t="s">
         <v>4</v>
       </c>
@@ -718,13 +748,13 @@
         <v>15</v>
       </c>
       <c r="C11">
-        <v>7.06849916996472E-3</v>
+        <v>6.8330999128014399E-3</v>
       </c>
       <c r="D11" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A12" t="s">
         <v>4</v>
       </c>
@@ -732,13 +762,13 @@
         <v>16</v>
       </c>
       <c r="C12">
-        <v>5.0559107893427997E-3</v>
+        <v>3.6886645546981198E-3</v>
       </c>
       <c r="D12" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A13" t="s">
         <v>4</v>
       </c>
@@ -746,13 +776,13 @@
         <v>17</v>
       </c>
       <c r="C13">
-        <v>6.6944778323143998E-4</v>
+        <v>8.2789780453131404E-4</v>
       </c>
       <c r="D13" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A14" t="s">
         <v>4</v>
       </c>
@@ -766,7 +796,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A15" t="s">
         <v>4</v>
       </c>
@@ -780,7 +810,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A16" t="s">
         <v>4</v>
       </c>
@@ -794,7 +824,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A17" t="s">
         <v>4</v>
       </c>
@@ -808,7 +838,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A18" t="s">
         <v>4</v>
       </c>
@@ -822,7 +852,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A19" t="s">
         <v>4</v>
       </c>
@@ -836,7 +866,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A20" t="s">
         <v>4</v>
       </c>
@@ -850,7 +880,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A21" t="s">
         <v>4</v>
       </c>
@@ -864,7 +894,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A22" t="s">
         <v>4</v>
       </c>
@@ -878,7 +908,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A23" t="s">
         <v>4</v>
       </c>
@@ -892,7 +922,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A24" t="s">
         <v>4</v>
       </c>
@@ -906,7 +936,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A25" t="s">
         <v>4</v>
       </c>
@@ -920,7 +950,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A26" t="s">
         <v>4</v>
       </c>
@@ -934,7 +964,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A27" t="s">
         <v>4</v>
       </c>
@@ -948,7 +978,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A28" t="s">
         <v>4</v>
       </c>
@@ -962,7 +992,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A29" t="s">
         <v>4</v>
       </c>
@@ -976,7 +1006,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A30" t="s">
         <v>4</v>
       </c>
@@ -990,7 +1020,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A31" t="s">
         <v>4</v>
       </c>
@@ -1004,7 +1034,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A32" t="s">
         <v>4</v>
       </c>
@@ -1018,7 +1048,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A33" t="s">
         <v>4</v>
       </c>
@@ -1032,7 +1062,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A34" t="s">
         <v>4</v>
       </c>
@@ -1046,7 +1076,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A35" t="s">
         <v>4</v>
       </c>
@@ -1060,7 +1090,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A36" t="s">
         <v>4</v>
       </c>
@@ -1074,7 +1104,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A37" t="s">
         <v>4</v>
       </c>
@@ -1088,7 +1118,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A38" t="s">
         <v>4</v>
       </c>
@@ -1102,7 +1132,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A39" t="s">
         <v>4</v>
       </c>
@@ -1116,7 +1146,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A40" t="s">
         <v>4</v>
       </c>
@@ -1130,7 +1160,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="41" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A41" t="s">
         <v>4</v>
       </c>
@@ -1144,7 +1174,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="42" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A42" t="s">
         <v>4</v>
       </c>
@@ -1158,7 +1188,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="43" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A43" t="s">
         <v>4</v>
       </c>
@@ -1172,7 +1202,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="44" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A44" t="s">
         <v>4</v>
       </c>
@@ -1186,7 +1216,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="45" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A45" t="s">
         <v>4</v>
       </c>
@@ -1207,115 +1237,118 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D45"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+  <dimension ref="A1:F45"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:XFD1"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.5546875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="10.6640625" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="2" max="2" width="27.6640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="26.53125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="14" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" t="s">
+    <row r="1" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" t="s">
+      <c r="D1" s="1" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A2" t="s">
         <v>4</v>
       </c>
       <c r="B2" t="s">
-        <v>21</v>
+        <v>5</v>
       </c>
       <c r="C2">
-        <v>0.317058823529412</v>
+        <v>0.89889647251030802</v>
       </c>
       <c r="D2" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A3" t="s">
         <v>4</v>
       </c>
       <c r="B3" t="s">
+        <v>46</v>
+      </c>
+      <c r="C3">
+        <v>6.1361279768720599E-2</v>
+      </c>
+      <c r="D3" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A4" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4" t="s">
+        <v>33</v>
+      </c>
+      <c r="C4">
+        <v>1.41085021755712E-2</v>
+      </c>
+      <c r="D4" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A5" t="s">
+        <v>4</v>
+      </c>
+      <c r="B5" t="s">
+        <v>8</v>
+      </c>
+      <c r="C5">
+        <v>1.17808213143832E-2</v>
+      </c>
+      <c r="D5" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A6" t="s">
+        <v>4</v>
+      </c>
+      <c r="B6" t="s">
         <v>44</v>
       </c>
-      <c r="C3">
-        <v>0.29940314461071699</v>
-      </c>
-      <c r="D3" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A4" t="s">
-        <v>4</v>
-      </c>
-      <c r="B4" t="s">
-        <v>7</v>
-      </c>
-      <c r="C4">
-        <v>0.27465596606764198</v>
-      </c>
-      <c r="D4" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A5" t="s">
-        <v>4</v>
-      </c>
-      <c r="B5" t="s">
-        <v>43</v>
-      </c>
-      <c r="C5">
-        <v>4.1764705882352898E-2</v>
-      </c>
-      <c r="D5" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A6" t="s">
-        <v>4</v>
-      </c>
-      <c r="B6" t="s">
-        <v>8</v>
-      </c>
       <c r="C6">
-        <v>4.0742359638352398E-2</v>
+        <v>9.9602282163227997E-3</v>
       </c>
       <c r="D6" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A7" t="s">
         <v>4</v>
       </c>
       <c r="B7" t="s">
-        <v>42</v>
+        <v>25</v>
       </c>
       <c r="C7">
-        <v>1.7655678918695301E-2</v>
+        <v>1.6192703026555401E-3</v>
       </c>
       <c r="D7" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A8" t="s">
         <v>4</v>
       </c>
@@ -1323,453 +1356,457 @@
         <v>24</v>
       </c>
       <c r="C8">
-        <v>7.0588235294117598E-3</v>
+        <v>6.5952495316883399E-4</v>
       </c>
       <c r="D8" t="s">
         <v>50</v>
       </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="F8">
+        <f>SUM(C:C)</f>
+        <v>1.0000000000000002</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A9" t="s">
         <v>4</v>
       </c>
       <c r="B9" t="s">
+        <v>42</v>
+      </c>
+      <c r="C9">
+        <v>5.87350515549762E-4</v>
+      </c>
+      <c r="D9" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A10" t="s">
+        <v>4</v>
+      </c>
+      <c r="B10" t="s">
+        <v>43</v>
+      </c>
+      <c r="C10">
+        <v>5.6213481346251799E-4</v>
+      </c>
+      <c r="D10" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A11" t="s">
+        <v>4</v>
+      </c>
+      <c r="B11" t="s">
         <v>18</v>
       </c>
-      <c r="C9">
-        <v>1.66049782341779E-3</v>
-      </c>
-      <c r="D9" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A10" t="s">
-        <v>4</v>
-      </c>
-      <c r="B10" t="s">
+      <c r="C11">
+        <v>4.2603095817309901E-4</v>
+      </c>
+      <c r="D11" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A12" t="s">
+        <v>4</v>
+      </c>
+      <c r="B12" t="s">
+        <v>21</v>
+      </c>
+      <c r="C12">
+        <v>2.9579713090156401E-5</v>
+      </c>
+      <c r="D12" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A13" t="s">
+        <v>4</v>
+      </c>
+      <c r="B13" t="s">
+        <v>47</v>
+      </c>
+      <c r="C13">
+        <v>8.8047585943612904E-6</v>
+      </c>
+      <c r="D13" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A14" t="s">
+        <v>4</v>
+      </c>
+      <c r="B14" t="s">
         <v>16</v>
       </c>
-      <c r="C10">
-        <v>0</v>
-      </c>
-      <c r="D10" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A11" t="s">
-        <v>4</v>
-      </c>
-      <c r="B11" t="s">
+      <c r="C14">
+        <v>0</v>
+      </c>
+      <c r="D14" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A15" t="s">
+        <v>4</v>
+      </c>
+      <c r="B15" t="s">
         <v>19</v>
       </c>
-      <c r="C11">
-        <v>0</v>
-      </c>
-      <c r="D11" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A12" t="s">
-        <v>4</v>
-      </c>
-      <c r="B12" t="s">
+      <c r="C15">
+        <v>0</v>
+      </c>
+      <c r="D15" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A16" t="s">
+        <v>4</v>
+      </c>
+      <c r="B16" t="s">
         <v>20</v>
       </c>
-      <c r="C12">
-        <v>0</v>
-      </c>
-      <c r="D12" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A13" t="s">
-        <v>4</v>
-      </c>
-      <c r="B13" t="s">
+      <c r="C16">
+        <v>0</v>
+      </c>
+      <c r="D16" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A17" t="s">
+        <v>4</v>
+      </c>
+      <c r="B17" t="s">
         <v>22</v>
       </c>
-      <c r="C13">
-        <v>0</v>
-      </c>
-      <c r="D13" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A14" t="s">
-        <v>4</v>
-      </c>
-      <c r="B14" t="s">
+      <c r="C17">
+        <v>0</v>
+      </c>
+      <c r="D17" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A18" t="s">
+        <v>4</v>
+      </c>
+      <c r="B18" t="s">
         <v>23</v>
       </c>
-      <c r="C14">
-        <v>0</v>
-      </c>
-      <c r="D14" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A15" t="s">
-        <v>4</v>
-      </c>
-      <c r="B15" t="s">
+      <c r="C18">
+        <v>0</v>
+      </c>
+      <c r="D18" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A19" t="s">
+        <v>4</v>
+      </c>
+      <c r="B19" t="s">
         <v>17</v>
       </c>
-      <c r="C15">
-        <v>0</v>
-      </c>
-      <c r="D15" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A16" t="s">
-        <v>4</v>
-      </c>
-      <c r="B16" t="s">
-        <v>25</v>
-      </c>
-      <c r="C16">
-        <v>0</v>
-      </c>
-      <c r="D16" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A17" t="s">
-        <v>4</v>
-      </c>
-      <c r="B17" t="s">
+      <c r="C19">
+        <v>0</v>
+      </c>
+      <c r="D19" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A20" t="s">
+        <v>4</v>
+      </c>
+      <c r="B20" t="s">
         <v>26</v>
       </c>
-      <c r="C17">
-        <v>0</v>
-      </c>
-      <c r="D17" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A18" t="s">
-        <v>4</v>
-      </c>
-      <c r="B18" t="s">
+      <c r="C20">
+        <v>0</v>
+      </c>
+      <c r="D20" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A21" t="s">
+        <v>4</v>
+      </c>
+      <c r="B21" t="s">
         <v>27</v>
       </c>
-      <c r="C18">
-        <v>0</v>
-      </c>
-      <c r="D18" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A19" t="s">
-        <v>4</v>
-      </c>
-      <c r="B19" t="s">
+      <c r="C21">
+        <v>0</v>
+      </c>
+      <c r="D21" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A22" t="s">
+        <v>4</v>
+      </c>
+      <c r="B22" t="s">
         <v>28</v>
       </c>
-      <c r="C19">
-        <v>0</v>
-      </c>
-      <c r="D19" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A20" t="s">
-        <v>4</v>
-      </c>
-      <c r="B20" t="s">
+      <c r="C22">
+        <v>0</v>
+      </c>
+      <c r="D22" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A23" t="s">
+        <v>4</v>
+      </c>
+      <c r="B23" t="s">
         <v>29</v>
       </c>
-      <c r="C20">
-        <v>0</v>
-      </c>
-      <c r="D20" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A21" t="s">
-        <v>4</v>
-      </c>
-      <c r="B21" t="s">
+      <c r="C23">
+        <v>0</v>
+      </c>
+      <c r="D23" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A24" t="s">
+        <v>4</v>
+      </c>
+      <c r="B24" t="s">
         <v>30</v>
       </c>
-      <c r="C21">
-        <v>0</v>
-      </c>
-      <c r="D21" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A22" t="s">
-        <v>4</v>
-      </c>
-      <c r="B22" t="s">
-        <v>5</v>
-      </c>
-      <c r="C22">
-        <v>0</v>
-      </c>
-      <c r="D22" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A23" t="s">
-        <v>4</v>
-      </c>
-      <c r="B23" t="s">
+      <c r="C24">
+        <v>0</v>
+      </c>
+      <c r="D24" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A25" t="s">
+        <v>4</v>
+      </c>
+      <c r="B25" t="s">
+        <v>7</v>
+      </c>
+      <c r="C25">
+        <v>0</v>
+      </c>
+      <c r="D25" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A26" t="s">
+        <v>4</v>
+      </c>
+      <c r="B26" t="s">
         <v>31</v>
       </c>
-      <c r="C23">
-        <v>0</v>
-      </c>
-      <c r="D23" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A24" t="s">
-        <v>4</v>
-      </c>
-      <c r="B24" t="s">
+      <c r="C26">
+        <v>0</v>
+      </c>
+      <c r="D26" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A27" t="s">
+        <v>4</v>
+      </c>
+      <c r="B27" t="s">
+        <v>11</v>
+      </c>
+      <c r="C27">
+        <v>0</v>
+      </c>
+      <c r="D27" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A28" t="s">
+        <v>4</v>
+      </c>
+      <c r="B28" t="s">
+        <v>9</v>
+      </c>
+      <c r="C28">
+        <v>0</v>
+      </c>
+      <c r="D28" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A29" t="s">
+        <v>4</v>
+      </c>
+      <c r="B29" t="s">
+        <v>32</v>
+      </c>
+      <c r="C29">
+        <v>0</v>
+      </c>
+      <c r="D29" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A30" t="s">
+        <v>4</v>
+      </c>
+      <c r="B30" t="s">
         <v>12</v>
       </c>
-      <c r="C24">
-        <v>0</v>
-      </c>
-      <c r="D24" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A25" t="s">
-        <v>4</v>
-      </c>
-      <c r="B25" t="s">
-        <v>9</v>
-      </c>
-      <c r="C25">
-        <v>0</v>
-      </c>
-      <c r="D25" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A26" t="s">
-        <v>4</v>
-      </c>
-      <c r="B26" t="s">
-        <v>32</v>
-      </c>
-      <c r="C26">
-        <v>0</v>
-      </c>
-      <c r="D26" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A27" t="s">
-        <v>4</v>
-      </c>
-      <c r="B27" t="s">
-        <v>14</v>
-      </c>
-      <c r="C27">
-        <v>0</v>
-      </c>
-      <c r="D27" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A28" t="s">
-        <v>4</v>
-      </c>
-      <c r="B28" t="s">
-        <v>33</v>
-      </c>
-      <c r="C28">
-        <v>0</v>
-      </c>
-      <c r="D28" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A29" t="s">
-        <v>4</v>
-      </c>
-      <c r="B29" t="s">
+      <c r="C30">
+        <v>0</v>
+      </c>
+      <c r="D30" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A31" t="s">
+        <v>4</v>
+      </c>
+      <c r="B31" t="s">
         <v>10</v>
       </c>
-      <c r="C29">
-        <v>0</v>
-      </c>
-      <c r="D29" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A30" t="s">
-        <v>4</v>
-      </c>
-      <c r="B30" t="s">
+      <c r="C31">
+        <v>0</v>
+      </c>
+      <c r="D31" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A32" t="s">
+        <v>4</v>
+      </c>
+      <c r="B32" t="s">
         <v>34</v>
       </c>
-      <c r="C30">
-        <v>0</v>
-      </c>
-      <c r="D30" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A31" t="s">
-        <v>4</v>
-      </c>
-      <c r="B31" t="s">
+      <c r="C32">
+        <v>0</v>
+      </c>
+      <c r="D32" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A33" t="s">
+        <v>4</v>
+      </c>
+      <c r="B33" t="s">
         <v>35</v>
       </c>
-      <c r="C31">
-        <v>0</v>
-      </c>
-      <c r="D31" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A32" t="s">
-        <v>4</v>
-      </c>
-      <c r="B32" t="s">
+      <c r="C33">
+        <v>0</v>
+      </c>
+      <c r="D33" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A34" t="s">
+        <v>4</v>
+      </c>
+      <c r="B34" t="s">
         <v>36</v>
       </c>
-      <c r="C32">
-        <v>0</v>
-      </c>
-      <c r="D32" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A33" t="s">
-        <v>4</v>
-      </c>
-      <c r="B33" t="s">
+      <c r="C34">
+        <v>0</v>
+      </c>
+      <c r="D34" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A35" t="s">
+        <v>4</v>
+      </c>
+      <c r="B35" t="s">
         <v>37</v>
       </c>
-      <c r="C33">
-        <v>0</v>
-      </c>
-      <c r="D33" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A34" t="s">
-        <v>4</v>
-      </c>
-      <c r="B34" t="s">
+      <c r="C35">
+        <v>0</v>
+      </c>
+      <c r="D35" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A36" t="s">
+        <v>4</v>
+      </c>
+      <c r="B36" t="s">
         <v>38</v>
       </c>
-      <c r="C34">
-        <v>0</v>
-      </c>
-      <c r="D34" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A35" t="s">
-        <v>4</v>
-      </c>
-      <c r="B35" t="s">
+      <c r="C36">
+        <v>0</v>
+      </c>
+      <c r="D36" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A37" t="s">
+        <v>4</v>
+      </c>
+      <c r="B37" t="s">
         <v>39</v>
       </c>
-      <c r="C35">
-        <v>0</v>
-      </c>
-      <c r="D35" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A36" t="s">
-        <v>4</v>
-      </c>
-      <c r="B36" t="s">
+      <c r="C37">
+        <v>0</v>
+      </c>
+      <c r="D37" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A38" t="s">
+        <v>4</v>
+      </c>
+      <c r="B38" t="s">
         <v>40</v>
       </c>
-      <c r="C36">
-        <v>0</v>
-      </c>
-      <c r="D36" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A37" t="s">
-        <v>4</v>
-      </c>
-      <c r="B37" t="s">
+      <c r="C38">
+        <v>0</v>
+      </c>
+      <c r="D38" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A39" t="s">
+        <v>4</v>
+      </c>
+      <c r="B39" t="s">
         <v>41</v>
       </c>
-      <c r="C37">
-        <v>0</v>
-      </c>
-      <c r="D37" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A38" t="s">
-        <v>4</v>
-      </c>
-      <c r="B38" t="s">
+      <c r="C39">
+        <v>0</v>
+      </c>
+      <c r="D39" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A40" t="s">
+        <v>4</v>
+      </c>
+      <c r="B40" t="s">
         <v>45</v>
       </c>
-      <c r="C38">
-        <v>0</v>
-      </c>
-      <c r="D38" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A39" t="s">
-        <v>4</v>
-      </c>
-      <c r="B39" t="s">
-        <v>46</v>
-      </c>
-      <c r="C39">
-        <v>0</v>
-      </c>
-      <c r="D39" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A40" t="s">
-        <v>4</v>
-      </c>
-      <c r="B40" t="s">
-        <v>11</v>
-      </c>
       <c r="C40">
         <v>0</v>
       </c>
@@ -1777,7 +1814,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="41" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A41" t="s">
         <v>4</v>
       </c>
@@ -1791,12 +1828,12 @@
         <v>50</v>
       </c>
     </row>
-    <row r="42" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A42" t="s">
         <v>4</v>
       </c>
       <c r="B42" t="s">
-        <v>47</v>
+        <v>15</v>
       </c>
       <c r="C42">
         <v>0</v>
@@ -1805,7 +1842,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="43" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A43" t="s">
         <v>4</v>
       </c>
@@ -1819,12 +1856,12 @@
         <v>50</v>
       </c>
     </row>
-    <row r="44" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A44" t="s">
         <v>4</v>
       </c>
       <c r="B44" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C44">
         <v>0</v>
@@ -1833,7 +1870,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="45" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A45" t="s">
         <v>4</v>
       </c>
@@ -1854,31 +1891,34 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D45"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+  <dimension ref="A1:F45"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:XFD1"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.5546875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="10.6640625" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="2" max="2" width="27.6640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="26.53125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="14" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" t="s">
+    <row r="1" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" t="s">
+      <c r="D1" s="1" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A2" t="s">
         <v>4</v>
       </c>
@@ -1886,27 +1926,27 @@
         <v>17</v>
       </c>
       <c r="C2">
-        <v>0.43477165448003802</v>
+        <v>0.40700495160595801</v>
       </c>
       <c r="D2" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A3" t="s">
         <v>4</v>
       </c>
       <c r="B3" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C3">
-        <v>0.37201724927979002</v>
+        <v>0.37111093583215399</v>
       </c>
       <c r="D3" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A4" t="s">
         <v>4</v>
       </c>
@@ -1914,27 +1954,27 @@
         <v>46</v>
       </c>
       <c r="C4">
-        <v>0.193197116918287</v>
+        <v>0.22187132468807599</v>
       </c>
       <c r="D4" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A5" t="s">
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C5">
-        <v>1.3979321885167999E-5</v>
+        <v>1.27878738130872E-5</v>
       </c>
       <c r="D5" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A6" t="s">
         <v>4</v>
       </c>
@@ -1948,7 +1988,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A7" t="s">
         <v>4</v>
       </c>
@@ -1961,8 +2001,12 @@
       <c r="D7" t="s">
         <v>51</v>
       </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="F7">
+        <f>SUM(C:C)</f>
+        <v>1.0000000000000011</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A8" t="s">
         <v>4</v>
       </c>
@@ -1976,7 +2020,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A9" t="s">
         <v>4</v>
       </c>
@@ -1990,7 +2034,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A10" t="s">
         <v>4</v>
       </c>
@@ -2004,7 +2048,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A11" t="s">
         <v>4</v>
       </c>
@@ -2018,7 +2062,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A12" t="s">
         <v>4</v>
       </c>
@@ -2032,7 +2076,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A13" t="s">
         <v>4</v>
       </c>
@@ -2046,7 +2090,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A14" t="s">
         <v>4</v>
       </c>
@@ -2060,7 +2104,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A15" t="s">
         <v>4</v>
       </c>
@@ -2074,7 +2118,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A16" t="s">
         <v>4</v>
       </c>
@@ -2088,7 +2132,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A17" t="s">
         <v>4</v>
       </c>
@@ -2102,7 +2146,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A18" t="s">
         <v>4</v>
       </c>
@@ -2116,7 +2160,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A19" t="s">
         <v>4</v>
       </c>
@@ -2130,7 +2174,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A20" t="s">
         <v>4</v>
       </c>
@@ -2144,7 +2188,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A21" t="s">
         <v>4</v>
       </c>
@@ -2158,12 +2202,12 @@
         <v>51</v>
       </c>
     </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A22" t="s">
         <v>4</v>
       </c>
       <c r="B22" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C22">
         <v>0</v>
@@ -2172,7 +2216,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A23" t="s">
         <v>4</v>
       </c>
@@ -2186,7 +2230,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A24" t="s">
         <v>4</v>
       </c>
@@ -2200,12 +2244,12 @@
         <v>51</v>
       </c>
     </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A25" t="s">
         <v>4</v>
       </c>
       <c r="B25" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="C25">
         <v>0</v>
@@ -2214,7 +2258,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A26" t="s">
         <v>4</v>
       </c>
@@ -2228,7 +2272,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A27" t="s">
         <v>4</v>
       </c>
@@ -2242,7 +2286,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A28" t="s">
         <v>4</v>
       </c>
@@ -2256,7 +2300,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A29" t="s">
         <v>4</v>
       </c>
@@ -2270,7 +2314,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A30" t="s">
         <v>4</v>
       </c>
@@ -2284,7 +2328,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A31" t="s">
         <v>4</v>
       </c>
@@ -2298,7 +2342,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A32" t="s">
         <v>4</v>
       </c>
@@ -2312,7 +2356,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A33" t="s">
         <v>4</v>
       </c>
@@ -2326,7 +2370,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A34" t="s">
         <v>4</v>
       </c>
@@ -2340,7 +2384,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A35" t="s">
         <v>4</v>
       </c>
@@ -2354,7 +2398,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A36" t="s">
         <v>4</v>
       </c>
@@ -2368,7 +2412,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A37" t="s">
         <v>4</v>
       </c>
@@ -2382,7 +2426,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A38" t="s">
         <v>4</v>
       </c>
@@ -2396,7 +2440,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A39" t="s">
         <v>4</v>
       </c>
@@ -2410,12 +2454,12 @@
         <v>51</v>
       </c>
     </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A40" t="s">
         <v>4</v>
       </c>
       <c r="B40" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="C40">
         <v>0</v>
@@ -2424,12 +2468,12 @@
         <v>51</v>
       </c>
     </row>
-    <row r="41" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A41" t="s">
         <v>4</v>
       </c>
       <c r="B41" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="C41">
         <v>0</v>
@@ -2438,7 +2482,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="42" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A42" t="s">
         <v>4</v>
       </c>
@@ -2452,7 +2496,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="43" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A43" t="s">
         <v>4</v>
       </c>
@@ -2466,12 +2510,12 @@
         <v>51</v>
       </c>
     </row>
-    <row r="44" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A44" t="s">
         <v>4</v>
       </c>
       <c r="B44" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C44">
         <v>0</v>
@@ -2480,7 +2524,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="45" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A45" t="s">
         <v>4</v>
       </c>
@@ -2501,45 +2545,48 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D31"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
+  <dimension ref="A1:F34"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:XFD1"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.5546875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="10.6640625" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="2" max="2" width="27.6640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="26.53125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="14" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" t="s">
+    <row r="1" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" t="s">
+      <c r="D1" s="1" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A2" t="s">
         <v>52</v>
       </c>
       <c r="B2" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C2">
-        <v>0.32980162197277901</v>
+        <v>0.34768018635255699</v>
       </c>
       <c r="D2" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A3" t="s">
         <v>52</v>
       </c>
@@ -2547,13 +2594,13 @@
         <v>53</v>
       </c>
       <c r="C3">
-        <v>0.285475885952724</v>
+        <v>0.28105769087609001</v>
       </c>
       <c r="D3" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A4" t="s">
         <v>52</v>
       </c>
@@ -2561,13 +2608,13 @@
         <v>54</v>
       </c>
       <c r="C4">
-        <v>0.20285774406499699</v>
+        <v>0.20284878844603399</v>
       </c>
       <c r="D4" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A5" t="s">
         <v>52</v>
       </c>
@@ -2575,13 +2622,13 @@
         <v>8</v>
       </c>
       <c r="C5">
-        <v>5.0094433126424899E-2</v>
+        <v>5.0034401843307097E-2</v>
       </c>
       <c r="D5" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A6" t="s">
         <v>52</v>
       </c>
@@ -2589,83 +2636,87 @@
         <v>55</v>
       </c>
       <c r="C6">
-        <v>2.54167527442824E-2</v>
+        <v>2.1824980565778401E-2</v>
       </c>
       <c r="D6" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A7" t="s">
         <v>52</v>
       </c>
       <c r="B7" t="s">
+        <v>14</v>
+      </c>
+      <c r="C7">
+        <v>2.1585949790904502E-2</v>
+      </c>
+      <c r="D7" t="s">
+        <v>6</v>
+      </c>
+      <c r="F7">
+        <f>SUM(C:C)</f>
+        <v>1.0000000000000002</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A8" t="s">
+        <v>52</v>
+      </c>
+      <c r="B8" t="s">
+        <v>16</v>
+      </c>
+      <c r="C8">
+        <v>2.10209023344076E-2</v>
+      </c>
+      <c r="D8" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A9" t="s">
+        <v>52</v>
+      </c>
+      <c r="B9" t="s">
+        <v>9</v>
+      </c>
+      <c r="C9">
+        <v>1.90633340875297E-2</v>
+      </c>
+      <c r="D9" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A10" t="s">
+        <v>52</v>
+      </c>
+      <c r="B10" t="s">
         <v>56</v>
       </c>
-      <c r="C7">
-        <v>2.2265642799790802E-2</v>
-      </c>
-      <c r="D7" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A8" t="s">
-        <v>52</v>
-      </c>
-      <c r="B8" t="s">
+      <c r="C10">
+        <v>1.2666536448154801E-2</v>
+      </c>
+      <c r="D10" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A11" t="s">
+        <v>52</v>
+      </c>
+      <c r="B11" t="s">
         <v>15</v>
       </c>
-      <c r="C8">
-        <v>2.1586902794088599E-2</v>
-      </c>
-      <c r="D8" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A9" t="s">
-        <v>52</v>
-      </c>
-      <c r="B9" t="s">
-        <v>16</v>
-      </c>
-      <c r="C9">
-        <v>2.13330504312132E-2</v>
-      </c>
-      <c r="D9" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A10" t="s">
-        <v>52</v>
-      </c>
-      <c r="B10" t="s">
-        <v>9</v>
-      </c>
-      <c r="C10">
-        <v>1.8822206788037001E-2</v>
-      </c>
-      <c r="D10" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A11" t="s">
-        <v>52</v>
-      </c>
-      <c r="B11" t="s">
-        <v>13</v>
-      </c>
       <c r="C11">
-        <v>8.7430534554152391E-3</v>
+        <v>8.6151239075440908E-3</v>
       </c>
       <c r="D11" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A12" t="s">
         <v>52</v>
       </c>
@@ -2673,13 +2724,13 @@
         <v>57</v>
       </c>
       <c r="C12">
-        <v>8.27990792102027E-3</v>
+        <v>8.2795423855524103E-3</v>
       </c>
       <c r="D12" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A13" t="s">
         <v>52</v>
       </c>
@@ -2687,13 +2738,13 @@
         <v>58</v>
       </c>
       <c r="C13">
-        <v>5.3227979492273198E-3</v>
+        <v>5.3225629621408196E-3</v>
       </c>
       <c r="D13" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A14" t="s">
         <v>52</v>
       </c>
@@ -2707,7 +2758,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A15" t="s">
         <v>52</v>
       </c>
@@ -2721,7 +2772,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A16" t="s">
         <v>52</v>
       </c>
@@ -2735,7 +2786,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A17" t="s">
         <v>52</v>
       </c>
@@ -2749,7 +2800,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A18" t="s">
         <v>52</v>
       </c>
@@ -2763,27 +2814,27 @@
         <v>6</v>
       </c>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A19" t="s">
         <v>52</v>
       </c>
       <c r="B19" t="s">
+        <v>27</v>
+      </c>
+      <c r="C19">
+        <v>0</v>
+      </c>
+      <c r="D19" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A20" t="s">
+        <v>52</v>
+      </c>
+      <c r="B20" t="s">
         <v>61</v>
       </c>
-      <c r="C19">
-        <v>0</v>
-      </c>
-      <c r="D19" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A20" t="s">
-        <v>52</v>
-      </c>
-      <c r="B20" t="s">
-        <v>27</v>
-      </c>
       <c r="C20">
         <v>0</v>
       </c>
@@ -2791,157 +2842,199 @@
         <v>6</v>
       </c>
     </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A21" t="s">
         <v>52</v>
       </c>
       <c r="B21" t="s">
+        <v>29</v>
+      </c>
+      <c r="C21">
+        <v>0</v>
+      </c>
+      <c r="D21" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A22" t="s">
+        <v>52</v>
+      </c>
+      <c r="B22" t="s">
+        <v>33</v>
+      </c>
+      <c r="C22">
+        <v>0</v>
+      </c>
+      <c r="D22" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A23" t="s">
+        <v>52</v>
+      </c>
+      <c r="B23" t="s">
         <v>62</v>
       </c>
-      <c r="C21">
-        <v>0</v>
-      </c>
-      <c r="D21" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A22" t="s">
-        <v>52</v>
-      </c>
-      <c r="B22" t="s">
+      <c r="C23">
+        <v>0</v>
+      </c>
+      <c r="D23" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A24" t="s">
+        <v>52</v>
+      </c>
+      <c r="B24" t="s">
+        <v>35</v>
+      </c>
+      <c r="C24">
+        <v>0</v>
+      </c>
+      <c r="D24" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A25" t="s">
+        <v>52</v>
+      </c>
+      <c r="B25" t="s">
         <v>63</v>
       </c>
-      <c r="C22">
-        <v>0</v>
-      </c>
-      <c r="D22" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A23" t="s">
-        <v>52</v>
-      </c>
-      <c r="B23" t="s">
-        <v>35</v>
-      </c>
-      <c r="C23">
-        <v>0</v>
-      </c>
-      <c r="D23" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A24" t="s">
-        <v>52</v>
-      </c>
-      <c r="B24" t="s">
+      <c r="C25">
+        <v>0</v>
+      </c>
+      <c r="D25" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A26" t="s">
+        <v>52</v>
+      </c>
+      <c r="B26" t="s">
+        <v>40</v>
+      </c>
+      <c r="C26">
+        <v>0</v>
+      </c>
+      <c r="D26" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A27" t="s">
+        <v>52</v>
+      </c>
+      <c r="B27" t="s">
+        <v>42</v>
+      </c>
+      <c r="C27">
+        <v>0</v>
+      </c>
+      <c r="D27" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A28" t="s">
+        <v>52</v>
+      </c>
+      <c r="B28" t="s">
+        <v>43</v>
+      </c>
+      <c r="C28">
+        <v>0</v>
+      </c>
+      <c r="D28" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A29" t="s">
+        <v>52</v>
+      </c>
+      <c r="B29" t="s">
+        <v>44</v>
+      </c>
+      <c r="C29">
+        <v>0</v>
+      </c>
+      <c r="D29" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A30" t="s">
+        <v>52</v>
+      </c>
+      <c r="B30" t="s">
         <v>64</v>
       </c>
-      <c r="C24">
-        <v>0</v>
-      </c>
-      <c r="D24" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A25" t="s">
-        <v>52</v>
-      </c>
-      <c r="B25" t="s">
-        <v>40</v>
-      </c>
-      <c r="C25">
-        <v>0</v>
-      </c>
-      <c r="D25" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A26" t="s">
-        <v>52</v>
-      </c>
-      <c r="B26" t="s">
-        <v>43</v>
-      </c>
-      <c r="C26">
-        <v>0</v>
-      </c>
-      <c r="D26" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A27" t="s">
-        <v>52</v>
-      </c>
-      <c r="B27" t="s">
-        <v>44</v>
-      </c>
-      <c r="C27">
-        <v>0</v>
-      </c>
-      <c r="D27" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A28" t="s">
-        <v>52</v>
-      </c>
-      <c r="B28" t="s">
+      <c r="C30">
+        <v>0</v>
+      </c>
+      <c r="D30" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A31" t="s">
+        <v>52</v>
+      </c>
+      <c r="B31" t="s">
         <v>46</v>
       </c>
-      <c r="C28">
-        <v>0</v>
-      </c>
-      <c r="D28" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A29" t="s">
-        <v>52</v>
-      </c>
-      <c r="B29" t="s">
+      <c r="C31">
+        <v>0</v>
+      </c>
+      <c r="D31" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A32" t="s">
+        <v>52</v>
+      </c>
+      <c r="B32" t="s">
         <v>65</v>
       </c>
-      <c r="C29">
-        <v>0</v>
-      </c>
-      <c r="D29" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A30" t="s">
-        <v>52</v>
-      </c>
-      <c r="B30" t="s">
+      <c r="C32">
+        <v>0</v>
+      </c>
+      <c r="D32" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A33" t="s">
+        <v>52</v>
+      </c>
+      <c r="B33" t="s">
+        <v>47</v>
+      </c>
+      <c r="C33">
+        <v>0</v>
+      </c>
+      <c r="D33" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A34" t="s">
+        <v>52</v>
+      </c>
+      <c r="B34" t="s">
         <v>66</v>
       </c>
-      <c r="C30">
-        <v>0</v>
-      </c>
-      <c r="D30" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A31" t="s">
-        <v>52</v>
-      </c>
-      <c r="B31" t="s">
-        <v>67</v>
-      </c>
-      <c r="C31">
-        <v>0</v>
-      </c>
-      <c r="D31" t="s">
+      <c r="C34">
+        <v>0</v>
+      </c>
+      <c r="D34" t="s">
         <v>6</v>
       </c>
     </row>
@@ -2952,45 +3045,48 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D31"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
+  <dimension ref="A1:F34"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:XFD1"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.5546875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="10.6640625" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="2" max="2" width="27.6640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="26.53125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="14.59765625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" t="s">
+    <row r="1" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" t="s">
+      <c r="D1" s="1" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A2" t="s">
         <v>52</v>
       </c>
       <c r="B2" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C2">
-        <v>0.43728587068521402</v>
+        <v>0.78952926249532296</v>
       </c>
       <c r="D2" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A3" t="s">
         <v>52</v>
       </c>
@@ -2998,13 +3094,13 @@
         <v>44</v>
       </c>
       <c r="C3">
-        <v>0.27843894899536298</v>
+        <v>5.9319369828527702E-2</v>
       </c>
       <c r="D3" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A4" t="s">
         <v>52</v>
       </c>
@@ -3012,388 +3108,434 @@
         <v>8</v>
       </c>
       <c r="C4">
-        <v>0.171875</v>
+        <v>3.7137711190253497E-2</v>
       </c>
       <c r="D4" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A5" t="s">
         <v>52</v>
       </c>
       <c r="B5" t="s">
+        <v>27</v>
+      </c>
+      <c r="C5">
+        <v>3.3329511421866902E-2</v>
+      </c>
+      <c r="D5" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A6" t="s">
+        <v>52</v>
+      </c>
+      <c r="B6" t="s">
+        <v>46</v>
+      </c>
+      <c r="C6">
+        <v>2.9621119011861E-2</v>
+      </c>
+      <c r="D6" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A7" t="s">
+        <v>52</v>
+      </c>
+      <c r="B7" t="s">
+        <v>59</v>
+      </c>
+      <c r="C7">
+        <v>1.29951498035878E-2</v>
+      </c>
+      <c r="D7" t="s">
+        <v>67</v>
+      </c>
+      <c r="F7">
+        <f>SUM(C:C)</f>
+        <v>1.0000000000000004</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A8" t="s">
+        <v>52</v>
+      </c>
+      <c r="B8" t="s">
+        <v>14</v>
+      </c>
+      <c r="C8">
+        <v>1.27141100517397E-2</v>
+      </c>
+      <c r="D8" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A9" t="s">
+        <v>52</v>
+      </c>
+      <c r="B9" t="s">
         <v>43</v>
       </c>
-      <c r="C5">
-        <v>5.2872230808861498E-2</v>
-      </c>
-      <c r="D5" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A6" t="s">
-        <v>52</v>
-      </c>
-      <c r="B6" t="s">
-        <v>27</v>
-      </c>
-      <c r="C6">
-        <v>4.3749999999999997E-2</v>
-      </c>
-      <c r="D6" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A7" t="s">
-        <v>52</v>
-      </c>
-      <c r="B7" t="s">
+      <c r="C9">
+        <v>1.12003351778843E-2</v>
+      </c>
+      <c r="D9" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A10" t="s">
+        <v>52</v>
+      </c>
+      <c r="B10" t="s">
         <v>24</v>
       </c>
-      <c r="C7">
-        <v>1.23905203503349E-2</v>
-      </c>
-      <c r="D7" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A8" t="s">
-        <v>52</v>
-      </c>
-      <c r="B8" t="s">
+      <c r="C10">
+        <v>1.0532154690600299E-2</v>
+      </c>
+      <c r="D10" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A11" t="s">
+        <v>52</v>
+      </c>
+      <c r="B11" t="s">
+        <v>33</v>
+      </c>
+      <c r="C11">
+        <v>2.62305164355364E-3</v>
+      </c>
+      <c r="D11" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A12" t="s">
+        <v>52</v>
+      </c>
+      <c r="B12" t="s">
+        <v>60</v>
+      </c>
+      <c r="C12">
+        <v>2.96569132401293E-4</v>
+      </c>
+      <c r="D12" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A13" t="s">
+        <v>52</v>
+      </c>
+      <c r="B13" t="s">
+        <v>47</v>
+      </c>
+      <c r="C13">
+        <v>2.9445165568609498E-4</v>
+      </c>
+      <c r="D13" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A14" t="s">
+        <v>52</v>
+      </c>
+      <c r="B14" t="s">
+        <v>66</v>
+      </c>
+      <c r="C14">
+        <v>2.1064723422895601E-4</v>
+      </c>
+      <c r="D14" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A15" t="s">
+        <v>52</v>
+      </c>
+      <c r="B15" t="s">
+        <v>29</v>
+      </c>
+      <c r="C15">
+        <v>1.92638031086965E-4</v>
+      </c>
+      <c r="D15" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A16" t="s">
+        <v>52</v>
+      </c>
+      <c r="B16" t="s">
+        <v>17</v>
+      </c>
+      <c r="C16">
+        <v>3.9186313991868404E-6</v>
+      </c>
+      <c r="D16" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A17" t="s">
+        <v>52</v>
+      </c>
+      <c r="B17" t="s">
+        <v>16</v>
+      </c>
+      <c r="C17">
+        <v>0</v>
+      </c>
+      <c r="D17" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A18" t="s">
+        <v>52</v>
+      </c>
+      <c r="B18" t="s">
+        <v>21</v>
+      </c>
+      <c r="C18">
+        <v>0</v>
+      </c>
+      <c r="D18" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A19" t="s">
+        <v>52</v>
+      </c>
+      <c r="B19" t="s">
         <v>61</v>
       </c>
-      <c r="C8">
-        <v>1.3781555899021101E-3</v>
-      </c>
-      <c r="D8" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A9" t="s">
-        <v>52</v>
-      </c>
-      <c r="B9" t="s">
-        <v>59</v>
-      </c>
-      <c r="C9">
-        <v>1.03039670273055E-3</v>
-      </c>
-      <c r="D9" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A10" t="s">
-        <v>52</v>
-      </c>
-      <c r="B10" t="s">
+      <c r="C19">
+        <v>0</v>
+      </c>
+      <c r="D19" t="s">
         <v>67</v>
       </c>
-      <c r="C10">
-        <v>9.788768675940251E-4</v>
-      </c>
-      <c r="D10" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A11" t="s">
-        <v>52</v>
-      </c>
-      <c r="B11" t="s">
-        <v>16</v>
-      </c>
-      <c r="C11">
-        <v>0</v>
-      </c>
-      <c r="D11" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A12" t="s">
-        <v>52</v>
-      </c>
-      <c r="B12" t="s">
-        <v>21</v>
-      </c>
-      <c r="C12">
-        <v>0</v>
-      </c>
-      <c r="D12" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A13" t="s">
-        <v>52</v>
-      </c>
-      <c r="B13" t="s">
-        <v>17</v>
-      </c>
-      <c r="C13">
-        <v>0</v>
-      </c>
-      <c r="D13" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A14" t="s">
-        <v>52</v>
-      </c>
-      <c r="B14" t="s">
-        <v>60</v>
-      </c>
-      <c r="C14">
-        <v>0</v>
-      </c>
-      <c r="D14" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A15" t="s">
-        <v>52</v>
-      </c>
-      <c r="B15" t="s">
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A20" t="s">
+        <v>52</v>
+      </c>
+      <c r="B20" t="s">
         <v>58</v>
       </c>
-      <c r="C15">
-        <v>0</v>
-      </c>
-      <c r="D15" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A16" t="s">
-        <v>52</v>
-      </c>
-      <c r="B16" t="s">
+      <c r="C20">
+        <v>0</v>
+      </c>
+      <c r="D20" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A21" t="s">
+        <v>52</v>
+      </c>
+      <c r="B21" t="s">
         <v>9</v>
       </c>
-      <c r="C16">
-        <v>0</v>
-      </c>
-      <c r="D16" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A17" t="s">
-        <v>52</v>
-      </c>
-      <c r="B17" t="s">
+      <c r="C21">
+        <v>0</v>
+      </c>
+      <c r="D21" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A22" t="s">
+        <v>52</v>
+      </c>
+      <c r="B22" t="s">
+        <v>57</v>
+      </c>
+      <c r="C22">
+        <v>0</v>
+      </c>
+      <c r="D22" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A23" t="s">
+        <v>52</v>
+      </c>
+      <c r="B23" t="s">
         <v>62</v>
       </c>
-      <c r="C17">
-        <v>0</v>
-      </c>
-      <c r="D17" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A18" t="s">
-        <v>52</v>
-      </c>
-      <c r="B18" t="s">
-        <v>57</v>
-      </c>
-      <c r="C18">
-        <v>0</v>
-      </c>
-      <c r="D18" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A19" t="s">
-        <v>52</v>
-      </c>
-      <c r="B19" t="s">
+      <c r="C23">
+        <v>0</v>
+      </c>
+      <c r="D23" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A24" t="s">
+        <v>52</v>
+      </c>
+      <c r="B24" t="s">
+        <v>35</v>
+      </c>
+      <c r="C24">
+        <v>0</v>
+      </c>
+      <c r="D24" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A25" t="s">
+        <v>52</v>
+      </c>
+      <c r="B25" t="s">
+        <v>55</v>
+      </c>
+      <c r="C25">
+        <v>0</v>
+      </c>
+      <c r="D25" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A26" t="s">
+        <v>52</v>
+      </c>
+      <c r="B26" t="s">
+        <v>56</v>
+      </c>
+      <c r="C26">
+        <v>0</v>
+      </c>
+      <c r="D26" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A27" t="s">
+        <v>52</v>
+      </c>
+      <c r="B27" t="s">
         <v>63</v>
       </c>
-      <c r="C19">
-        <v>0</v>
-      </c>
-      <c r="D19" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A20" t="s">
-        <v>52</v>
-      </c>
-      <c r="B20" t="s">
-        <v>35</v>
-      </c>
-      <c r="C20">
-        <v>0</v>
-      </c>
-      <c r="D20" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A21" t="s">
-        <v>52</v>
-      </c>
-      <c r="B21" t="s">
-        <v>56</v>
-      </c>
-      <c r="C21">
-        <v>0</v>
-      </c>
-      <c r="D21" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A22" t="s">
-        <v>52</v>
-      </c>
-      <c r="B22" t="s">
+      <c r="C27">
+        <v>0</v>
+      </c>
+      <c r="D27" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A28" t="s">
+        <v>52</v>
+      </c>
+      <c r="B28" t="s">
+        <v>54</v>
+      </c>
+      <c r="C28">
+        <v>0</v>
+      </c>
+      <c r="D28" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A29" t="s">
+        <v>52</v>
+      </c>
+      <c r="B29" t="s">
+        <v>40</v>
+      </c>
+      <c r="C29">
+        <v>0</v>
+      </c>
+      <c r="D29" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A30" t="s">
+        <v>52</v>
+      </c>
+      <c r="B30" t="s">
+        <v>53</v>
+      </c>
+      <c r="C30">
+        <v>0</v>
+      </c>
+      <c r="D30" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A31" t="s">
+        <v>52</v>
+      </c>
+      <c r="B31" t="s">
+        <v>42</v>
+      </c>
+      <c r="C31">
+        <v>0</v>
+      </c>
+      <c r="D31" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A32" t="s">
+        <v>52</v>
+      </c>
+      <c r="B32" t="s">
         <v>64</v>
       </c>
-      <c r="C22">
-        <v>0</v>
-      </c>
-      <c r="D22" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A23" t="s">
-        <v>52</v>
-      </c>
-      <c r="B23" t="s">
-        <v>55</v>
-      </c>
-      <c r="C23">
-        <v>0</v>
-      </c>
-      <c r="D23" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A24" t="s">
-        <v>52</v>
-      </c>
-      <c r="B24" t="s">
-        <v>54</v>
-      </c>
-      <c r="C24">
-        <v>0</v>
-      </c>
-      <c r="D24" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A25" t="s">
-        <v>52</v>
-      </c>
-      <c r="B25" t="s">
-        <v>40</v>
-      </c>
-      <c r="C25">
-        <v>0</v>
-      </c>
-      <c r="D25" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A26" t="s">
-        <v>52</v>
-      </c>
-      <c r="B26" t="s">
-        <v>53</v>
-      </c>
-      <c r="C26">
-        <v>0</v>
-      </c>
-      <c r="D26" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A27" t="s">
-        <v>52</v>
-      </c>
-      <c r="B27" t="s">
-        <v>46</v>
-      </c>
-      <c r="C27">
-        <v>0</v>
-      </c>
-      <c r="D27" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A28" t="s">
-        <v>52</v>
-      </c>
-      <c r="B28" t="s">
+      <c r="C32">
+        <v>0</v>
+      </c>
+      <c r="D32" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A33" t="s">
+        <v>52</v>
+      </c>
+      <c r="B33" t="s">
         <v>65</v>
       </c>
-      <c r="C28">
-        <v>0</v>
-      </c>
-      <c r="D28" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A29" t="s">
-        <v>52</v>
-      </c>
-      <c r="B29" t="s">
-        <v>13</v>
-      </c>
-      <c r="C29">
-        <v>0</v>
-      </c>
-      <c r="D29" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A30" t="s">
-        <v>52</v>
-      </c>
-      <c r="B30" t="s">
-        <v>66</v>
-      </c>
-      <c r="C30">
-        <v>0</v>
-      </c>
-      <c r="D30" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A31" t="s">
-        <v>52</v>
-      </c>
-      <c r="B31" t="s">
+      <c r="C33">
+        <v>0</v>
+      </c>
+      <c r="D33" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A34" t="s">
+        <v>52</v>
+      </c>
+      <c r="B34" t="s">
         <v>15</v>
       </c>
-      <c r="C31">
-        <v>0</v>
-      </c>
-      <c r="D31" t="s">
-        <v>50</v>
+      <c r="C34">
+        <v>0</v>
+      </c>
+      <c r="D34" t="s">
+        <v>67</v>
       </c>
     </row>
   </sheetData>
@@ -3403,45 +3545,48 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D31"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
+  <dimension ref="A1:F34"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection sqref="A1:XFD1"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.5546875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="10.6640625" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="2" max="2" width="27.6640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="26.53125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="14" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" t="s">
+    <row r="1" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" t="s">
+      <c r="D1" s="1" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A2" t="s">
         <v>52</v>
       </c>
       <c r="B2" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C2">
-        <v>0.74201526904742598</v>
+        <v>0.74241551130081296</v>
       </c>
       <c r="D2" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A3" t="s">
         <v>52</v>
       </c>
@@ -3449,13 +3594,13 @@
         <v>46</v>
       </c>
       <c r="C3">
-        <v>0.18473178150146499</v>
+        <v>0.18433099462611099</v>
       </c>
       <c r="D3" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A4" t="s">
         <v>52</v>
       </c>
@@ -3463,13 +3608,13 @@
         <v>17</v>
       </c>
       <c r="C4">
-        <v>7.3252949451108801E-2</v>
+        <v>7.3253494073075798E-2</v>
       </c>
       <c r="D4" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A5" t="s">
         <v>52</v>
       </c>
@@ -3483,7 +3628,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A6" t="s">
         <v>52</v>
       </c>
@@ -3497,7 +3642,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A7" t="s">
         <v>52</v>
       </c>
@@ -3510,8 +3655,12 @@
       <c r="D7" t="s">
         <v>51</v>
       </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="F7">
+        <f>SUM(C:C)</f>
+        <v>0.99999999999999978</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A8" t="s">
         <v>52</v>
       </c>
@@ -3525,7 +3674,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A9" t="s">
         <v>52</v>
       </c>
@@ -3539,7 +3688,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A10" t="s">
         <v>52</v>
       </c>
@@ -3553,27 +3702,27 @@
         <v>51</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A11" t="s">
         <v>52</v>
       </c>
       <c r="B11" t="s">
+        <v>27</v>
+      </c>
+      <c r="C11">
+        <v>0</v>
+      </c>
+      <c r="D11" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A12" t="s">
+        <v>52</v>
+      </c>
+      <c r="B12" t="s">
         <v>61</v>
       </c>
-      <c r="C11">
-        <v>0</v>
-      </c>
-      <c r="D11" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A12" t="s">
-        <v>52</v>
-      </c>
-      <c r="B12" t="s">
-        <v>27</v>
-      </c>
       <c r="C12">
         <v>0</v>
       </c>
@@ -3581,251 +3730,251 @@
         <v>51</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A13" t="s">
         <v>52</v>
       </c>
       <c r="B13" t="s">
+        <v>29</v>
+      </c>
+      <c r="C13">
+        <v>0</v>
+      </c>
+      <c r="D13" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A14" t="s">
+        <v>52</v>
+      </c>
+      <c r="B14" t="s">
         <v>58</v>
       </c>
-      <c r="C13">
-        <v>0</v>
-      </c>
-      <c r="D13" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A14" t="s">
-        <v>52</v>
-      </c>
-      <c r="B14" t="s">
+      <c r="C14">
+        <v>0</v>
+      </c>
+      <c r="D14" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A15" t="s">
+        <v>52</v>
+      </c>
+      <c r="B15" t="s">
         <v>9</v>
       </c>
-      <c r="C14">
-        <v>0</v>
-      </c>
-      <c r="D14" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A15" t="s">
-        <v>52</v>
-      </c>
-      <c r="B15" t="s">
+      <c r="C15">
+        <v>0</v>
+      </c>
+      <c r="D15" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A16" t="s">
+        <v>52</v>
+      </c>
+      <c r="B16" t="s">
+        <v>33</v>
+      </c>
+      <c r="C16">
+        <v>0</v>
+      </c>
+      <c r="D16" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A17" t="s">
+        <v>52</v>
+      </c>
+      <c r="B17" t="s">
+        <v>57</v>
+      </c>
+      <c r="C17">
+        <v>0</v>
+      </c>
+      <c r="D17" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A18" t="s">
+        <v>52</v>
+      </c>
+      <c r="B18" t="s">
         <v>62</v>
       </c>
-      <c r="C15">
-        <v>0</v>
-      </c>
-      <c r="D15" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A16" t="s">
-        <v>52</v>
-      </c>
-      <c r="B16" t="s">
-        <v>57</v>
-      </c>
-      <c r="C16">
-        <v>0</v>
-      </c>
-      <c r="D16" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A17" t="s">
-        <v>52</v>
-      </c>
-      <c r="B17" t="s">
+      <c r="C18">
+        <v>0</v>
+      </c>
+      <c r="D18" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A19" t="s">
+        <v>52</v>
+      </c>
+      <c r="B19" t="s">
+        <v>35</v>
+      </c>
+      <c r="C19">
+        <v>0</v>
+      </c>
+      <c r="D19" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A20" t="s">
+        <v>52</v>
+      </c>
+      <c r="B20" t="s">
+        <v>55</v>
+      </c>
+      <c r="C20">
+        <v>0</v>
+      </c>
+      <c r="D20" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A21" t="s">
+        <v>52</v>
+      </c>
+      <c r="B21" t="s">
+        <v>56</v>
+      </c>
+      <c r="C21">
+        <v>0</v>
+      </c>
+      <c r="D21" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A22" t="s">
+        <v>52</v>
+      </c>
+      <c r="B22" t="s">
         <v>63</v>
       </c>
-      <c r="C17">
-        <v>0</v>
-      </c>
-      <c r="D17" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A18" t="s">
-        <v>52</v>
-      </c>
-      <c r="B18" t="s">
-        <v>35</v>
-      </c>
-      <c r="C18">
-        <v>0</v>
-      </c>
-      <c r="D18" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A19" t="s">
-        <v>52</v>
-      </c>
-      <c r="B19" t="s">
-        <v>56</v>
-      </c>
-      <c r="C19">
-        <v>0</v>
-      </c>
-      <c r="D19" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A20" t="s">
-        <v>52</v>
-      </c>
-      <c r="B20" t="s">
+      <c r="C22">
+        <v>0</v>
+      </c>
+      <c r="D22" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A23" t="s">
+        <v>52</v>
+      </c>
+      <c r="B23" t="s">
+        <v>54</v>
+      </c>
+      <c r="C23">
+        <v>0</v>
+      </c>
+      <c r="D23" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A24" t="s">
+        <v>52</v>
+      </c>
+      <c r="B24" t="s">
+        <v>40</v>
+      </c>
+      <c r="C24">
+        <v>0</v>
+      </c>
+      <c r="D24" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A25" t="s">
+        <v>52</v>
+      </c>
+      <c r="B25" t="s">
+        <v>53</v>
+      </c>
+      <c r="C25">
+        <v>0</v>
+      </c>
+      <c r="D25" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A26" t="s">
+        <v>52</v>
+      </c>
+      <c r="B26" t="s">
+        <v>42</v>
+      </c>
+      <c r="C26">
+        <v>0</v>
+      </c>
+      <c r="D26" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A27" t="s">
+        <v>52</v>
+      </c>
+      <c r="B27" t="s">
+        <v>43</v>
+      </c>
+      <c r="C27">
+        <v>0</v>
+      </c>
+      <c r="D27" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A28" t="s">
+        <v>52</v>
+      </c>
+      <c r="B28" t="s">
+        <v>44</v>
+      </c>
+      <c r="C28">
+        <v>0</v>
+      </c>
+      <c r="D28" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A29" t="s">
+        <v>52</v>
+      </c>
+      <c r="B29" t="s">
         <v>64</v>
       </c>
-      <c r="C20">
-        <v>0</v>
-      </c>
-      <c r="D20" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A21" t="s">
-        <v>52</v>
-      </c>
-      <c r="B21" t="s">
-        <v>55</v>
-      </c>
-      <c r="C21">
-        <v>0</v>
-      </c>
-      <c r="D21" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A22" t="s">
-        <v>52</v>
-      </c>
-      <c r="B22" t="s">
-        <v>54</v>
-      </c>
-      <c r="C22">
-        <v>0</v>
-      </c>
-      <c r="D22" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A23" t="s">
-        <v>52</v>
-      </c>
-      <c r="B23" t="s">
-        <v>40</v>
-      </c>
-      <c r="C23">
-        <v>0</v>
-      </c>
-      <c r="D23" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A24" t="s">
-        <v>52</v>
-      </c>
-      <c r="B24" t="s">
-        <v>53</v>
-      </c>
-      <c r="C24">
-        <v>0</v>
-      </c>
-      <c r="D24" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A25" t="s">
-        <v>52</v>
-      </c>
-      <c r="B25" t="s">
-        <v>43</v>
-      </c>
-      <c r="C25">
-        <v>0</v>
-      </c>
-      <c r="D25" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A26" t="s">
-        <v>52</v>
-      </c>
-      <c r="B26" t="s">
-        <v>44</v>
-      </c>
-      <c r="C26">
-        <v>0</v>
-      </c>
-      <c r="D26" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A27" t="s">
-        <v>52</v>
-      </c>
-      <c r="B27" t="s">
+      <c r="C29">
+        <v>0</v>
+      </c>
+      <c r="D29" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A30" t="s">
+        <v>52</v>
+      </c>
+      <c r="B30" t="s">
         <v>65</v>
       </c>
-      <c r="C27">
-        <v>0</v>
-      </c>
-      <c r="D27" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A28" t="s">
-        <v>52</v>
-      </c>
-      <c r="B28" t="s">
-        <v>13</v>
-      </c>
-      <c r="C28">
-        <v>0</v>
-      </c>
-      <c r="D28" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A29" t="s">
-        <v>52</v>
-      </c>
-      <c r="B29" t="s">
-        <v>66</v>
-      </c>
-      <c r="C29">
-        <v>0</v>
-      </c>
-      <c r="D29" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A30" t="s">
-        <v>52</v>
-      </c>
-      <c r="B30" t="s">
-        <v>67</v>
-      </c>
       <c r="C30">
         <v>0</v>
       </c>
@@ -3833,7 +3982,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A31" t="s">
         <v>52</v>
       </c>
@@ -3844,6 +3993,48 @@
         <v>0</v>
       </c>
       <c r="D31" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A32" t="s">
+        <v>52</v>
+      </c>
+      <c r="B32" t="s">
+        <v>47</v>
+      </c>
+      <c r="C32">
+        <v>0</v>
+      </c>
+      <c r="D32" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A33" t="s">
+        <v>52</v>
+      </c>
+      <c r="B33" t="s">
+        <v>66</v>
+      </c>
+      <c r="C33">
+        <v>0</v>
+      </c>
+      <c r="D33" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A34" t="s">
+        <v>52</v>
+      </c>
+      <c r="B34" t="s">
+        <v>14</v>
+      </c>
+      <c r="C34">
+        <v>0</v>
+      </c>
+      <c r="D34" t="s">
         <v>51</v>
       </c>
     </row>

--- a/Deliverables/predator_marker_species_proportions.xlsx
+++ b/Deliverables/predator_marker_species_proportions.xlsx
@@ -1,263 +1,232 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29328"/>
-  <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\MBall\OneDrive\Documents\UW-DOCS\WADE lab\Arctic-predator-diet-microbiome\Deliverables\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2EF378E8-8AB7-40A7-B714-9D2B8E582E76}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <workbookPr date1904="false"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="20715" windowHeight="13155" firstSheet="2" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="13125" windowHeight="6105" firstSheet="0" activeTab="0"/>
   </bookViews>
   <sheets>
-    <sheet name="bearded seal_12S" sheetId="1" r:id="rId1"/>
-    <sheet name="Beluga whale_12S" sheetId="2" r:id="rId2"/>
-    <sheet name="ringed seal_12S" sheetId="3" r:id="rId3"/>
-    <sheet name="bearded seal_16S" sheetId="4" r:id="rId4"/>
-    <sheet name="beluga whale_16S" sheetId="5" r:id="rId5"/>
-    <sheet name="ringed seal_16S" sheetId="6" r:id="rId6"/>
+    <sheet name="bearded seal_12S" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="beluga whale_12S" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="ringed seal_12S" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet name="bearded seal_16S" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet name="beluga whale_16S" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet name="ringed seal_16S" sheetId="6" state="visible" r:id="rId6"/>
   </sheets>
-  <calcPr calcId="191029"/>
-  <extLst>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
-      </xcalcf:calcFeatures>
-    </ext>
-  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="717" uniqueCount="68">
-  <si>
-    <t>Marker</t>
-  </si>
-  <si>
-    <t>Species.y</t>
-  </si>
-  <si>
-    <t>prop_abundance</t>
-  </si>
-  <si>
-    <t>Predator</t>
-  </si>
-  <si>
-    <t>12S</t>
-  </si>
-  <si>
-    <t>Eleginus gracilis</t>
-  </si>
-  <si>
-    <t>bearded seal</t>
-  </si>
-  <si>
-    <t>Glyptocephalus zachirus</t>
-  </si>
-  <si>
-    <t>Ammodytes hexapterus</t>
-  </si>
-  <si>
-    <t>Gymnocanthus tricuspis</t>
-  </si>
-  <si>
-    <t>Leptoclinus maculatus</t>
-  </si>
-  <si>
-    <t>Gymnocanthus spp.</t>
-  </si>
-  <si>
-    <t>Hippoglossoides elassodon</t>
-  </si>
-  <si>
-    <t>Platichthys stellatus</t>
-  </si>
-  <si>
-    <t>Stichaeus punctatus</t>
-  </si>
-  <si>
-    <t>Pleuronectes quadrituberculatus</t>
-  </si>
-  <si>
-    <t>Acantholumpenus mackayi</t>
-  </si>
-  <si>
-    <t>Clupea pallasii</t>
-  </si>
-  <si>
-    <t>Ammodytes personatus</t>
-  </si>
-  <si>
-    <t>Artedius harringtoni</t>
-  </si>
-  <si>
-    <t>Aspidophoroides monopterygius</t>
-  </si>
-  <si>
-    <t>Boreogadus saida</t>
-  </si>
-  <si>
-    <t>Chitonotus pugetensis</t>
-  </si>
-  <si>
-    <t>Citharichthys sordidus</t>
-  </si>
-  <si>
-    <t>Coregonus laurettae</t>
-  </si>
-  <si>
-    <t>Coregonus spp.</t>
-  </si>
-  <si>
-    <t>Eurymen gyrinus</t>
-  </si>
-  <si>
-    <t>Gadus chalcogrammus</t>
-  </si>
-  <si>
-    <t>Gadus spp.</t>
-  </si>
-  <si>
-    <t>Gasterosteus aculeatus</t>
-  </si>
-  <si>
-    <t>Gasterosteus spp.</t>
-  </si>
-  <si>
-    <t>Gymnelus viridis</t>
-  </si>
-  <si>
-    <t>Hemilepidotus spp.</t>
-  </si>
-  <si>
-    <t>Hypomesus olidus</t>
-  </si>
-  <si>
-    <t>Liparis microstomus</t>
-  </si>
-  <si>
-    <t>Liparis spp.</t>
-  </si>
-  <si>
-    <t>Liparis tunicatus</t>
-  </si>
-  <si>
-    <t>Lumpenus sagitta</t>
-  </si>
-  <si>
-    <t>Mallotus villosus</t>
-  </si>
-  <si>
-    <t>Melanogrammus aeglefinus</t>
-  </si>
-  <si>
-    <t>Myoxocephalus spp.</t>
-  </si>
-  <si>
-    <t>Nautichthys pribilovius</t>
-  </si>
-  <si>
-    <t>Oncorhynchus gorbuscha</t>
-  </si>
-  <si>
-    <t>Oncorhynchus keta</t>
-  </si>
-  <si>
-    <t>Oncorhynchus kisutch</t>
-  </si>
-  <si>
-    <t>Ophiodon elongatus</t>
-  </si>
-  <si>
-    <t>Osmerus mordax</t>
-  </si>
-  <si>
-    <t>Pungitius pungitius</t>
-  </si>
-  <si>
-    <t>Stenobrachius leucopsarus</t>
-  </si>
-  <si>
-    <t>Thunnus spp.</t>
-  </si>
-  <si>
-    <t>Beluga whale</t>
-  </si>
-  <si>
-    <t>ringed seal</t>
-  </si>
-  <si>
-    <t>16S</t>
-  </si>
-  <si>
-    <t>Myzopsetta proboscidea</t>
-  </si>
-  <si>
-    <t>Myoxocephalus scorpius</t>
-  </si>
-  <si>
-    <t>Lumpenus spp.</t>
-  </si>
-  <si>
-    <t>Microcottus sellaris</t>
-  </si>
-  <si>
-    <t>Limanda aspera</t>
-  </si>
-  <si>
-    <t>Gymnocanthus pistilliger</t>
-  </si>
-  <si>
-    <t>Coregonus nasus</t>
-  </si>
-  <si>
-    <t>Esox lucius</t>
-  </si>
-  <si>
-    <t>Gadus macrocephalus</t>
-  </si>
-  <si>
-    <t>Liopsetta glacialis</t>
-  </si>
-  <si>
-    <t>Myoxocephalus quadricornis</t>
-  </si>
-  <si>
-    <t>Oncorhynchus spp.</t>
-  </si>
-  <si>
-    <t>Pallasina barbata</t>
-  </si>
-  <si>
-    <t>Salvelinus spp.</t>
-  </si>
-  <si>
-    <t>beluga whale</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="67" uniqueCount="67">
+  <si>
+    <t xml:space="preserve">Marker</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Species.y</t>
+  </si>
+  <si>
+    <t xml:space="preserve">prop_abundance</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Predator</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12S</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Glyptocephalus zachirus</t>
+  </si>
+  <si>
+    <t xml:space="preserve">bearded seal</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Eleginus gracilis</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ammodytes hexapterus</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Gymnocanthus tricuspis</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Leptoclinus maculatus</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Platichthys stellatus</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Gymnocanthus spp.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Pleuronectes quadrituberculatus</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Hippoglossoides elassodon</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Stichaeus punctatus</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Acantholumpenus mackayi</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Clupea pallasii</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ammodytes personatus</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Artedius harringtoni</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Aspidophoroides monopterygius</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Boreogadus saida</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Chitonotus pugetensis</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Citharichthys sordidus</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Coregonus laurettae</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Coregonus spp.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Eurymen gyrinus</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Gadus chalcogrammus</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Gadus spp.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Gasterosteus aculeatus</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Gasterosteus spp.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Gymnelus viridis</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Hemilepidotus spp.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Hypomesus olidus</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Liparis microstomus</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Liparis spp.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Liparis tunicatus</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Lumpenus sagitta</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mallotus villosus</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Melanogrammus aeglefinus</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Myoxocephalus spp.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Nautichthys pribilovius</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Oncorhynchus gorbuscha</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Oncorhynchus keta</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Oncorhynchus kisutch</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ophiodon elongatus</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Osmerus mordax</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Pungitius pungitius</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Stenobrachius leucopsarus</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Thunnus spp.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">beluga whale</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ringed seal</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16S</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Myzopsetta proboscidea</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Myoxocephalus scorpius</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Lumpenus spp.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Microcottus sellaris</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Limanda aspera</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Gymnocanthus pistilliger</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Coregonus nasus</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Esox lucius</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Gadus macrocephalus</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Liopsetta glacialis</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Myoxocephalus quadricornis</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Oncorhynchus spp.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Pallasina barbata</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Salvelinus spp.</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <numFmts count="0"/>
+  <fonts count="1">
     <font>
-      <sz val="11"/>
-      <color rgb="FF000000"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
@@ -285,23 +254,13 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
 </styleSheet>
 </file>
 
@@ -583,647 +542,637 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F45"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3">
+  <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:XFD1"/>
-    </sheetView>
+    <sheetView workbookViewId="0" zoomScale="100" showGridLines="1" tabSelected="true"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.6640625" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
-  <cols>
-    <col min="2" max="2" width="26.53125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="14" bestFit="1" customWidth="1"/>
-  </cols>
+  <sheetFormatPr defaultRowHeight="15.0" baseColWidth="10"/>
   <sheetData>
-    <row r="1" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.45">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="1" t="s">
+    <row r="1">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="2">
       <c r="A2" t="s">
         <v>4</v>
       </c>
       <c r="B2" t="s">
         <v>5</v>
       </c>
-      <c r="C2">
-        <v>0.301321684937217</v>
+      <c r="C2" t="n">
+        <v>0.390605546929344</v>
       </c>
       <c r="D2" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="3">
       <c r="A3" t="s">
         <v>4</v>
       </c>
       <c r="B3" t="s">
         <v>7</v>
       </c>
-      <c r="C3">
-        <v>0.28869366546805197</v>
+      <c r="C3" t="n">
+        <v>0.243652215184915</v>
       </c>
       <c r="D3" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="4">
       <c r="A4" t="s">
         <v>4</v>
       </c>
       <c r="B4" t="s">
         <v>8</v>
       </c>
-      <c r="C4">
-        <v>0.16231070880870799</v>
+      <c r="C4" t="n">
+        <v>0.138737967880738</v>
       </c>
       <c r="D4" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="5">
       <c r="A5" t="s">
         <v>4</v>
       </c>
       <c r="B5" t="s">
         <v>9</v>
       </c>
-      <c r="C5">
-        <v>0.13801096170716801</v>
+      <c r="C5" t="n">
+        <v>0.113695567757455</v>
       </c>
       <c r="D5" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="6">
       <c r="A6" t="s">
         <v>4</v>
       </c>
       <c r="B6" t="s">
         <v>10</v>
       </c>
-      <c r="C6">
-        <v>5.4961753299877097E-2</v>
+      <c r="C6" t="n">
+        <v>0.0555236112501812</v>
       </c>
       <c r="D6" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="7">
       <c r="A7" t="s">
         <v>4</v>
       </c>
       <c r="B7" t="s">
         <v>11</v>
       </c>
-      <c r="C7">
-        <v>1.36877324487557E-2</v>
+      <c r="C7" t="n">
+        <v>0.013717266157971</v>
       </c>
       <c r="D7" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="8">
       <c r="A8" t="s">
         <v>4</v>
       </c>
       <c r="B8" t="s">
         <v>12</v>
       </c>
-      <c r="C8">
-        <v>1.1059881639759499E-2</v>
+      <c r="C8" t="n">
+        <v>0.0128137377086356</v>
       </c>
       <c r="D8" t="s">
         <v>6</v>
       </c>
-      <c r="F8">
-        <f>SUM(C:C)</f>
-        <v>1.0000000000000009</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.45">
+    </row>
+    <row r="9">
       <c r="A9" t="s">
         <v>4</v>
       </c>
       <c r="B9" t="s">
         <v>13</v>
       </c>
-      <c r="C9">
-        <v>1.00077702262711E-2</v>
+      <c r="C9" t="n">
+        <v>0.00936586752779893</v>
       </c>
       <c r="D9" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="10">
       <c r="A10" t="s">
         <v>4</v>
       </c>
       <c r="B10" t="s">
         <v>14</v>
       </c>
-      <c r="C10">
-        <v>8.5961791921617108E-3</v>
+      <c r="C10" t="n">
+        <v>0.00909436186042191</v>
       </c>
       <c r="D10" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="11">
       <c r="A11" t="s">
         <v>4</v>
       </c>
       <c r="B11" t="s">
         <v>15</v>
       </c>
-      <c r="C11">
-        <v>6.8330999128014399E-3</v>
+      <c r="C11" t="n">
+        <v>0.00706849916996472</v>
       </c>
       <c r="D11" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="12">
       <c r="A12" t="s">
         <v>4</v>
       </c>
       <c r="B12" t="s">
         <v>16</v>
       </c>
-      <c r="C12">
-        <v>3.6886645546981198E-3</v>
+      <c r="C12" t="n">
+        <v>0.0050559107893428</v>
       </c>
       <c r="D12" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="13">
       <c r="A13" t="s">
         <v>4</v>
       </c>
       <c r="B13" t="s">
         <v>17</v>
       </c>
-      <c r="C13">
-        <v>8.2789780453131404E-4</v>
+      <c r="C13" t="n">
+        <v>0.00066944778323144</v>
       </c>
       <c r="D13" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="14">
       <c r="A14" t="s">
         <v>4</v>
       </c>
       <c r="B14" t="s">
         <v>18</v>
       </c>
-      <c r="C14">
+      <c r="C14" t="n">
         <v>0</v>
       </c>
       <c r="D14" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="15">
       <c r="A15" t="s">
         <v>4</v>
       </c>
       <c r="B15" t="s">
         <v>19</v>
       </c>
-      <c r="C15">
+      <c r="C15" t="n">
         <v>0</v>
       </c>
       <c r="D15" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="16">
       <c r="A16" t="s">
         <v>4</v>
       </c>
       <c r="B16" t="s">
         <v>20</v>
       </c>
-      <c r="C16">
+      <c r="C16" t="n">
         <v>0</v>
       </c>
       <c r="D16" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="17">
       <c r="A17" t="s">
         <v>4</v>
       </c>
       <c r="B17" t="s">
         <v>21</v>
       </c>
-      <c r="C17">
+      <c r="C17" t="n">
         <v>0</v>
       </c>
       <c r="D17" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="18">
       <c r="A18" t="s">
         <v>4</v>
       </c>
       <c r="B18" t="s">
         <v>22</v>
       </c>
-      <c r="C18">
+      <c r="C18" t="n">
         <v>0</v>
       </c>
       <c r="D18" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="19">
       <c r="A19" t="s">
         <v>4</v>
       </c>
       <c r="B19" t="s">
         <v>23</v>
       </c>
-      <c r="C19">
+      <c r="C19" t="n">
         <v>0</v>
       </c>
       <c r="D19" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="20">
       <c r="A20" t="s">
         <v>4</v>
       </c>
       <c r="B20" t="s">
         <v>24</v>
       </c>
-      <c r="C20">
+      <c r="C20" t="n">
         <v>0</v>
       </c>
       <c r="D20" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="21">
       <c r="A21" t="s">
         <v>4</v>
       </c>
       <c r="B21" t="s">
         <v>25</v>
       </c>
-      <c r="C21">
+      <c r="C21" t="n">
         <v>0</v>
       </c>
       <c r="D21" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="22">
       <c r="A22" t="s">
         <v>4</v>
       </c>
       <c r="B22" t="s">
         <v>26</v>
       </c>
-      <c r="C22">
+      <c r="C22" t="n">
         <v>0</v>
       </c>
       <c r="D22" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="23">
       <c r="A23" t="s">
         <v>4</v>
       </c>
       <c r="B23" t="s">
         <v>27</v>
       </c>
-      <c r="C23">
+      <c r="C23" t="n">
         <v>0</v>
       </c>
       <c r="D23" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="24">
       <c r="A24" t="s">
         <v>4</v>
       </c>
       <c r="B24" t="s">
         <v>28</v>
       </c>
-      <c r="C24">
+      <c r="C24" t="n">
         <v>0</v>
       </c>
       <c r="D24" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="25">
       <c r="A25" t="s">
         <v>4</v>
       </c>
       <c r="B25" t="s">
         <v>29</v>
       </c>
-      <c r="C25">
+      <c r="C25" t="n">
         <v>0</v>
       </c>
       <c r="D25" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="26">
       <c r="A26" t="s">
         <v>4</v>
       </c>
       <c r="B26" t="s">
         <v>30</v>
       </c>
-      <c r="C26">
+      <c r="C26" t="n">
         <v>0</v>
       </c>
       <c r="D26" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="27">
       <c r="A27" t="s">
         <v>4</v>
       </c>
       <c r="B27" t="s">
         <v>31</v>
       </c>
-      <c r="C27">
+      <c r="C27" t="n">
         <v>0</v>
       </c>
       <c r="D27" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="28">
       <c r="A28" t="s">
         <v>4</v>
       </c>
       <c r="B28" t="s">
         <v>32</v>
       </c>
-      <c r="C28">
+      <c r="C28" t="n">
         <v>0</v>
       </c>
       <c r="D28" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="29">
       <c r="A29" t="s">
         <v>4</v>
       </c>
       <c r="B29" t="s">
         <v>33</v>
       </c>
-      <c r="C29">
+      <c r="C29" t="n">
         <v>0</v>
       </c>
       <c r="D29" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="30">
       <c r="A30" t="s">
         <v>4</v>
       </c>
       <c r="B30" t="s">
         <v>34</v>
       </c>
-      <c r="C30">
+      <c r="C30" t="n">
         <v>0</v>
       </c>
       <c r="D30" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="31">
       <c r="A31" t="s">
         <v>4</v>
       </c>
       <c r="B31" t="s">
         <v>35</v>
       </c>
-      <c r="C31">
+      <c r="C31" t="n">
         <v>0</v>
       </c>
       <c r="D31" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="32">
       <c r="A32" t="s">
         <v>4</v>
       </c>
       <c r="B32" t="s">
         <v>36</v>
       </c>
-      <c r="C32">
+      <c r="C32" t="n">
         <v>0</v>
       </c>
       <c r="D32" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="33">
       <c r="A33" t="s">
         <v>4</v>
       </c>
       <c r="B33" t="s">
         <v>37</v>
       </c>
-      <c r="C33">
+      <c r="C33" t="n">
         <v>0</v>
       </c>
       <c r="D33" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="34">
       <c r="A34" t="s">
         <v>4</v>
       </c>
       <c r="B34" t="s">
         <v>38</v>
       </c>
-      <c r="C34">
+      <c r="C34" t="n">
         <v>0</v>
       </c>
       <c r="D34" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="35">
       <c r="A35" t="s">
         <v>4</v>
       </c>
       <c r="B35" t="s">
         <v>39</v>
       </c>
-      <c r="C35">
+      <c r="C35" t="n">
         <v>0</v>
       </c>
       <c r="D35" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="36">
       <c r="A36" t="s">
         <v>4</v>
       </c>
       <c r="B36" t="s">
         <v>40</v>
       </c>
-      <c r="C36">
+      <c r="C36" t="n">
         <v>0</v>
       </c>
       <c r="D36" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="37">
       <c r="A37" t="s">
         <v>4</v>
       </c>
       <c r="B37" t="s">
         <v>41</v>
       </c>
-      <c r="C37">
+      <c r="C37" t="n">
         <v>0</v>
       </c>
       <c r="D37" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="38">
       <c r="A38" t="s">
         <v>4</v>
       </c>
       <c r="B38" t="s">
         <v>42</v>
       </c>
-      <c r="C38">
+      <c r="C38" t="n">
         <v>0</v>
       </c>
       <c r="D38" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="39">
       <c r="A39" t="s">
         <v>4</v>
       </c>
       <c r="B39" t="s">
         <v>43</v>
       </c>
-      <c r="C39">
+      <c r="C39" t="n">
         <v>0</v>
       </c>
       <c r="D39" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="40">
       <c r="A40" t="s">
         <v>4</v>
       </c>
       <c r="B40" t="s">
         <v>44</v>
       </c>
-      <c r="C40">
+      <c r="C40" t="n">
         <v>0</v>
       </c>
       <c r="D40" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="41" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="41">
       <c r="A41" t="s">
         <v>4</v>
       </c>
       <c r="B41" t="s">
         <v>45</v>
       </c>
-      <c r="C41">
+      <c r="C41" t="n">
         <v>0</v>
       </c>
       <c r="D41" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="42" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="42">
       <c r="A42" t="s">
         <v>4</v>
       </c>
       <c r="B42" t="s">
         <v>46</v>
       </c>
-      <c r="C42">
+      <c r="C42" t="n">
         <v>0</v>
       </c>
       <c r="D42" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="43" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="43">
       <c r="A43" t="s">
         <v>4</v>
       </c>
       <c r="B43" t="s">
         <v>47</v>
       </c>
-      <c r="C43">
+      <c r="C43" t="n">
         <v>0</v>
       </c>
       <c r="D43" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="44" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="44">
       <c r="A44" t="s">
         <v>4</v>
       </c>
       <c r="B44" t="s">
         <v>48</v>
       </c>
-      <c r="C44">
+      <c r="C44" t="n">
         <v>0</v>
       </c>
       <c r="D44" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="45" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="45">
       <c r="A45" t="s">
         <v>4</v>
       </c>
       <c r="B45" t="s">
         <v>49</v>
       </c>
-      <c r="C45">
+      <c r="C45" t="n">
         <v>0</v>
       </c>
       <c r="D45" t="s">
@@ -1232,652 +1181,642 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:F45"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3">
+  <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:XFD1"/>
-    </sheetView>
+    <sheetView workbookViewId="0" zoomScale="100" showGridLines="1" tabSelected="false"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.6640625" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
-  <cols>
-    <col min="2" max="2" width="26.53125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="14" bestFit="1" customWidth="1"/>
-  </cols>
+  <sheetFormatPr defaultRowHeight="15.0" baseColWidth="10"/>
   <sheetData>
-    <row r="1" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.45">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="1" t="s">
+    <row r="1">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="2">
       <c r="A2" t="s">
         <v>4</v>
       </c>
       <c r="B2" t="s">
-        <v>5</v>
-      </c>
-      <c r="C2">
-        <v>0.89889647251030802</v>
+        <v>7</v>
+      </c>
+      <c r="C2" t="n">
+        <v>0.79367436627927</v>
       </c>
       <c r="D2" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="3">
       <c r="A3" t="s">
         <v>4</v>
       </c>
       <c r="B3" t="s">
+        <v>21</v>
+      </c>
+      <c r="C3" t="n">
+        <v>0.0658228320933481</v>
+      </c>
+      <c r="D3" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4" t="s">
+        <v>44</v>
+      </c>
+      <c r="C4" t="n">
+        <v>0.0621574340576692</v>
+      </c>
+      <c r="D4" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="s">
+        <v>4</v>
+      </c>
+      <c r="B5" t="s">
         <v>46</v>
       </c>
-      <c r="C3">
-        <v>6.1361279768720599E-2</v>
-      </c>
-      <c r="D3" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A4" t="s">
-        <v>4</v>
-      </c>
-      <c r="B4" t="s">
+      <c r="C5" t="n">
+        <v>0.0380189275761641</v>
+      </c>
+      <c r="D5" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="s">
+        <v>4</v>
+      </c>
+      <c r="B6" t="s">
         <v>33</v>
       </c>
-      <c r="C4">
-        <v>1.41085021755712E-2</v>
-      </c>
-      <c r="D4" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A5" t="s">
-        <v>4</v>
-      </c>
-      <c r="B5" t="s">
+      <c r="C6" t="n">
+        <v>0.0138115213380467</v>
+      </c>
+      <c r="D6" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="s">
+        <v>4</v>
+      </c>
+      <c r="B7" t="s">
         <v>8</v>
       </c>
-      <c r="C5">
-        <v>1.17808213143832E-2</v>
-      </c>
-      <c r="D5" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A6" t="s">
-        <v>4</v>
-      </c>
-      <c r="B6" t="s">
-        <v>44</v>
-      </c>
-      <c r="C6">
-        <v>9.9602282163227997E-3</v>
-      </c>
-      <c r="D6" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A7" t="s">
-        <v>4</v>
-      </c>
-      <c r="B7" t="s">
-        <v>25</v>
-      </c>
-      <c r="C7">
-        <v>1.6192703026555401E-3</v>
+      <c r="C7" t="n">
+        <v>0.0102034574332982</v>
       </c>
       <c r="D7" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="8">
       <c r="A8" t="s">
         <v>4</v>
       </c>
       <c r="B8" t="s">
-        <v>24</v>
-      </c>
-      <c r="C8">
-        <v>6.5952495316883399E-4</v>
+        <v>43</v>
+      </c>
+      <c r="C8" t="n">
+        <v>0.00867054003455975</v>
       </c>
       <c r="D8" t="s">
         <v>50</v>
       </c>
-      <c r="F8">
-        <f>SUM(C:C)</f>
-        <v>1.0000000000000002</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.45">
+    </row>
+    <row r="9">
       <c r="A9" t="s">
         <v>4</v>
       </c>
       <c r="B9" t="s">
         <v>42</v>
       </c>
-      <c r="C9">
-        <v>5.87350515549762E-4</v>
+      <c r="C9" t="n">
+        <v>0.00366539803567882</v>
       </c>
       <c r="D9" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="10">
       <c r="A10" t="s">
         <v>4</v>
       </c>
       <c r="B10" t="s">
-        <v>43</v>
-      </c>
-      <c r="C10">
-        <v>5.6213481346251799E-4</v>
+        <v>24</v>
+      </c>
+      <c r="C10" t="n">
+        <v>0.00202115714296508</v>
       </c>
       <c r="D10" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="11">
       <c r="A11" t="s">
         <v>4</v>
       </c>
       <c r="B11" t="s">
+        <v>25</v>
+      </c>
+      <c r="C11" t="n">
+        <v>0.00159402103936346</v>
+      </c>
+      <c r="D11" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="s">
+        <v>4</v>
+      </c>
+      <c r="B12" t="s">
         <v>18</v>
       </c>
-      <c r="C11">
-        <v>4.2603095817309901E-4</v>
-      </c>
-      <c r="D11" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A12" t="s">
-        <v>4</v>
-      </c>
-      <c r="B12" t="s">
-        <v>21</v>
-      </c>
-      <c r="C12">
-        <v>2.9579713090156401E-5</v>
+      <c r="C12" t="n">
+        <v>0.00034472678667484</v>
       </c>
       <c r="D12" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="13">
       <c r="A13" t="s">
         <v>4</v>
       </c>
       <c r="B13" t="s">
         <v>47</v>
       </c>
-      <c r="C13">
-        <v>8.8047585943612904E-6</v>
+      <c r="C13" t="n">
+        <v>0.0000156181829619998</v>
       </c>
       <c r="D13" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="14">
       <c r="A14" t="s">
         <v>4</v>
       </c>
       <c r="B14" t="s">
         <v>16</v>
       </c>
-      <c r="C14">
+      <c r="C14" t="n">
         <v>0</v>
       </c>
       <c r="D14" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="15">
       <c r="A15" t="s">
         <v>4</v>
       </c>
       <c r="B15" t="s">
         <v>19</v>
       </c>
-      <c r="C15">
+      <c r="C15" t="n">
         <v>0</v>
       </c>
       <c r="D15" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="16">
       <c r="A16" t="s">
         <v>4</v>
       </c>
       <c r="B16" t="s">
         <v>20</v>
       </c>
-      <c r="C16">
+      <c r="C16" t="n">
         <v>0</v>
       </c>
       <c r="D16" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="17">
       <c r="A17" t="s">
         <v>4</v>
       </c>
       <c r="B17" t="s">
         <v>22</v>
       </c>
-      <c r="C17">
+      <c r="C17" t="n">
         <v>0</v>
       </c>
       <c r="D17" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="18">
       <c r="A18" t="s">
         <v>4</v>
       </c>
       <c r="B18" t="s">
         <v>23</v>
       </c>
-      <c r="C18">
+      <c r="C18" t="n">
         <v>0</v>
       </c>
       <c r="D18" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="19">
       <c r="A19" t="s">
         <v>4</v>
       </c>
       <c r="B19" t="s">
         <v>17</v>
       </c>
-      <c r="C19">
+      <c r="C19" t="n">
         <v>0</v>
       </c>
       <c r="D19" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="20">
       <c r="A20" t="s">
         <v>4</v>
       </c>
       <c r="B20" t="s">
         <v>26</v>
       </c>
-      <c r="C20">
+      <c r="C20" t="n">
         <v>0</v>
       </c>
       <c r="D20" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="21">
       <c r="A21" t="s">
         <v>4</v>
       </c>
       <c r="B21" t="s">
         <v>27</v>
       </c>
-      <c r="C21">
+      <c r="C21" t="n">
         <v>0</v>
       </c>
       <c r="D21" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="22">
       <c r="A22" t="s">
         <v>4</v>
       </c>
       <c r="B22" t="s">
         <v>28</v>
       </c>
-      <c r="C22">
+      <c r="C22" t="n">
         <v>0</v>
       </c>
       <c r="D22" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="23">
       <c r="A23" t="s">
         <v>4</v>
       </c>
       <c r="B23" t="s">
         <v>29</v>
       </c>
-      <c r="C23">
+      <c r="C23" t="n">
         <v>0</v>
       </c>
       <c r="D23" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="24">
       <c r="A24" t="s">
         <v>4</v>
       </c>
       <c r="B24" t="s">
         <v>30</v>
       </c>
-      <c r="C24">
+      <c r="C24" t="n">
         <v>0</v>
       </c>
       <c r="D24" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="25">
       <c r="A25" t="s">
         <v>4</v>
       </c>
       <c r="B25" t="s">
-        <v>7</v>
-      </c>
-      <c r="C25">
+        <v>5</v>
+      </c>
+      <c r="C25" t="n">
         <v>0</v>
       </c>
       <c r="D25" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="26">
       <c r="A26" t="s">
         <v>4</v>
       </c>
       <c r="B26" t="s">
         <v>31</v>
       </c>
-      <c r="C26">
+      <c r="C26" t="n">
         <v>0</v>
       </c>
       <c r="D26" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="27">
       <c r="A27" t="s">
         <v>4</v>
       </c>
       <c r="B27" t="s">
-        <v>11</v>
-      </c>
-      <c r="C27">
+        <v>12</v>
+      </c>
+      <c r="C27" t="n">
         <v>0</v>
       </c>
       <c r="D27" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="28">
       <c r="A28" t="s">
         <v>4</v>
       </c>
       <c r="B28" t="s">
         <v>9</v>
       </c>
-      <c r="C28">
+      <c r="C28" t="n">
         <v>0</v>
       </c>
       <c r="D28" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="29">
       <c r="A29" t="s">
         <v>4</v>
       </c>
       <c r="B29" t="s">
         <v>32</v>
       </c>
-      <c r="C29">
+      <c r="C29" t="n">
         <v>0</v>
       </c>
       <c r="D29" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="30">
       <c r="A30" t="s">
         <v>4</v>
       </c>
       <c r="B30" t="s">
-        <v>12</v>
-      </c>
-      <c r="C30">
+        <v>14</v>
+      </c>
+      <c r="C30" t="n">
         <v>0</v>
       </c>
       <c r="D30" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="31">
       <c r="A31" t="s">
         <v>4</v>
       </c>
       <c r="B31" t="s">
         <v>10</v>
       </c>
-      <c r="C31">
+      <c r="C31" t="n">
         <v>0</v>
       </c>
       <c r="D31" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="32">
       <c r="A32" t="s">
         <v>4</v>
       </c>
       <c r="B32" t="s">
         <v>34</v>
       </c>
-      <c r="C32">
+      <c r="C32" t="n">
         <v>0</v>
       </c>
       <c r="D32" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="33">
       <c r="A33" t="s">
         <v>4</v>
       </c>
       <c r="B33" t="s">
         <v>35</v>
       </c>
-      <c r="C33">
+      <c r="C33" t="n">
         <v>0</v>
       </c>
       <c r="D33" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="34">
       <c r="A34" t="s">
         <v>4</v>
       </c>
       <c r="B34" t="s">
         <v>36</v>
       </c>
-      <c r="C34">
+      <c r="C34" t="n">
         <v>0</v>
       </c>
       <c r="D34" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="35">
       <c r="A35" t="s">
         <v>4</v>
       </c>
       <c r="B35" t="s">
         <v>37</v>
       </c>
-      <c r="C35">
+      <c r="C35" t="n">
         <v>0</v>
       </c>
       <c r="D35" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="36">
       <c r="A36" t="s">
         <v>4</v>
       </c>
       <c r="B36" t="s">
         <v>38</v>
       </c>
-      <c r="C36">
+      <c r="C36" t="n">
         <v>0</v>
       </c>
       <c r="D36" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="37">
       <c r="A37" t="s">
         <v>4</v>
       </c>
       <c r="B37" t="s">
         <v>39</v>
       </c>
-      <c r="C37">
+      <c r="C37" t="n">
         <v>0</v>
       </c>
       <c r="D37" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="38">
       <c r="A38" t="s">
         <v>4</v>
       </c>
       <c r="B38" t="s">
         <v>40</v>
       </c>
-      <c r="C38">
+      <c r="C38" t="n">
         <v>0</v>
       </c>
       <c r="D38" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="39">
       <c r="A39" t="s">
         <v>4</v>
       </c>
       <c r="B39" t="s">
         <v>41</v>
       </c>
-      <c r="C39">
+      <c r="C39" t="n">
         <v>0</v>
       </c>
       <c r="D39" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="40">
       <c r="A40" t="s">
         <v>4</v>
       </c>
       <c r="B40" t="s">
         <v>45</v>
       </c>
-      <c r="C40">
+      <c r="C40" t="n">
         <v>0</v>
       </c>
       <c r="D40" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="41" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="41">
       <c r="A41" t="s">
         <v>4</v>
       </c>
       <c r="B41" t="s">
+        <v>11</v>
+      </c>
+      <c r="C41" t="n">
+        <v>0</v>
+      </c>
+      <c r="D41" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="s">
+        <v>4</v>
+      </c>
+      <c r="B42" t="s">
         <v>13</v>
       </c>
-      <c r="C41">
-        <v>0</v>
-      </c>
-      <c r="D41" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="42" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A42" t="s">
-        <v>4</v>
-      </c>
-      <c r="B42" t="s">
-        <v>15</v>
-      </c>
-      <c r="C42">
+      <c r="C42" t="n">
         <v>0</v>
       </c>
       <c r="D42" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="43" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="43">
       <c r="A43" t="s">
         <v>4</v>
       </c>
       <c r="B43" t="s">
         <v>48</v>
       </c>
-      <c r="C43">
+      <c r="C43" t="n">
         <v>0</v>
       </c>
       <c r="D43" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="44" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="44">
       <c r="A44" t="s">
         <v>4</v>
       </c>
       <c r="B44" t="s">
-        <v>14</v>
-      </c>
-      <c r="C44">
+        <v>15</v>
+      </c>
+      <c r="C44" t="n">
         <v>0</v>
       </c>
       <c r="D44" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="45" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="45">
       <c r="A45" t="s">
         <v>4</v>
       </c>
       <c r="B45" t="s">
         <v>49</v>
       </c>
-      <c r="C45">
+      <c r="C45" t="n">
         <v>0</v>
       </c>
       <c r="D45" t="s">
@@ -1886,652 +1825,642 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="A1:F45"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3">
+  <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:XFD1"/>
-    </sheetView>
+    <sheetView workbookViewId="0" zoomScale="100" showGridLines="1" tabSelected="false"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.6640625" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
-  <cols>
-    <col min="2" max="2" width="26.53125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="14" bestFit="1" customWidth="1"/>
-  </cols>
+  <sheetFormatPr defaultRowHeight="15.0" baseColWidth="10"/>
   <sheetData>
-    <row r="1" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.45">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="1" t="s">
+    <row r="1">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="2">
       <c r="A2" t="s">
         <v>4</v>
       </c>
       <c r="B2" t="s">
         <v>17</v>
       </c>
-      <c r="C2">
-        <v>0.40700495160595801</v>
+      <c r="C2" t="n">
+        <v>0.434771654480038</v>
       </c>
       <c r="D2" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="3">
       <c r="A3" t="s">
         <v>4</v>
       </c>
       <c r="B3" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3">
-        <v>0.37111093583215399</v>
+        <v>7</v>
+      </c>
+      <c r="C3" t="n">
+        <v>0.37201724927979</v>
       </c>
       <c r="D3" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="4">
       <c r="A4" t="s">
         <v>4</v>
       </c>
       <c r="B4" t="s">
         <v>46</v>
       </c>
-      <c r="C4">
-        <v>0.22187132468807599</v>
+      <c r="C4" t="n">
+        <v>0.193197116918287</v>
       </c>
       <c r="D4" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="5">
       <c r="A5" t="s">
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>7</v>
-      </c>
-      <c r="C5">
-        <v>1.27878738130872E-5</v>
+        <v>5</v>
+      </c>
+      <c r="C5" t="n">
+        <v>0.000013979321885168</v>
       </c>
       <c r="D5" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="6">
       <c r="A6" t="s">
         <v>4</v>
       </c>
       <c r="B6" t="s">
         <v>16</v>
       </c>
-      <c r="C6">
+      <c r="C6" t="n">
         <v>0</v>
       </c>
       <c r="D6" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="7">
       <c r="A7" t="s">
         <v>4</v>
       </c>
       <c r="B7" t="s">
         <v>8</v>
       </c>
-      <c r="C7">
+      <c r="C7" t="n">
         <v>0</v>
       </c>
       <c r="D7" t="s">
         <v>51</v>
       </c>
-      <c r="F7">
-        <f>SUM(C:C)</f>
-        <v>1.0000000000000011</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.45">
+    </row>
+    <row r="8">
       <c r="A8" t="s">
         <v>4</v>
       </c>
       <c r="B8" t="s">
         <v>18</v>
       </c>
-      <c r="C8">
+      <c r="C8" t="n">
         <v>0</v>
       </c>
       <c r="D8" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="9">
       <c r="A9" t="s">
         <v>4</v>
       </c>
       <c r="B9" t="s">
         <v>19</v>
       </c>
-      <c r="C9">
+      <c r="C9" t="n">
         <v>0</v>
       </c>
       <c r="D9" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="10">
       <c r="A10" t="s">
         <v>4</v>
       </c>
       <c r="B10" t="s">
         <v>20</v>
       </c>
-      <c r="C10">
+      <c r="C10" t="n">
         <v>0</v>
       </c>
       <c r="D10" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="11">
       <c r="A11" t="s">
         <v>4</v>
       </c>
       <c r="B11" t="s">
         <v>21</v>
       </c>
-      <c r="C11">
+      <c r="C11" t="n">
         <v>0</v>
       </c>
       <c r="D11" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="12">
       <c r="A12" t="s">
         <v>4</v>
       </c>
       <c r="B12" t="s">
         <v>22</v>
       </c>
-      <c r="C12">
+      <c r="C12" t="n">
         <v>0</v>
       </c>
       <c r="D12" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="13">
       <c r="A13" t="s">
         <v>4</v>
       </c>
       <c r="B13" t="s">
         <v>23</v>
       </c>
-      <c r="C13">
+      <c r="C13" t="n">
         <v>0</v>
       </c>
       <c r="D13" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="14">
       <c r="A14" t="s">
         <v>4</v>
       </c>
       <c r="B14" t="s">
         <v>24</v>
       </c>
-      <c r="C14">
+      <c r="C14" t="n">
         <v>0</v>
       </c>
       <c r="D14" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="15">
       <c r="A15" t="s">
         <v>4</v>
       </c>
       <c r="B15" t="s">
         <v>25</v>
       </c>
-      <c r="C15">
+      <c r="C15" t="n">
         <v>0</v>
       </c>
       <c r="D15" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="16">
       <c r="A16" t="s">
         <v>4</v>
       </c>
       <c r="B16" t="s">
         <v>26</v>
       </c>
-      <c r="C16">
+      <c r="C16" t="n">
         <v>0</v>
       </c>
       <c r="D16" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="17">
       <c r="A17" t="s">
         <v>4</v>
       </c>
       <c r="B17" t="s">
         <v>27</v>
       </c>
-      <c r="C17">
+      <c r="C17" t="n">
         <v>0</v>
       </c>
       <c r="D17" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="18">
       <c r="A18" t="s">
         <v>4</v>
       </c>
       <c r="B18" t="s">
         <v>28</v>
       </c>
-      <c r="C18">
+      <c r="C18" t="n">
         <v>0</v>
       </c>
       <c r="D18" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="19">
       <c r="A19" t="s">
         <v>4</v>
       </c>
       <c r="B19" t="s">
         <v>29</v>
       </c>
-      <c r="C19">
+      <c r="C19" t="n">
         <v>0</v>
       </c>
       <c r="D19" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="20">
       <c r="A20" t="s">
         <v>4</v>
       </c>
       <c r="B20" t="s">
         <v>30</v>
       </c>
-      <c r="C20">
+      <c r="C20" t="n">
         <v>0</v>
       </c>
       <c r="D20" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="21">
       <c r="A21" t="s">
         <v>4</v>
       </c>
       <c r="B21" t="s">
         <v>31</v>
       </c>
-      <c r="C21">
+      <c r="C21" t="n">
         <v>0</v>
       </c>
       <c r="D21" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="22">
       <c r="A22" t="s">
         <v>4</v>
       </c>
       <c r="B22" t="s">
-        <v>11</v>
-      </c>
-      <c r="C22">
+        <v>12</v>
+      </c>
+      <c r="C22" t="n">
         <v>0</v>
       </c>
       <c r="D22" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="23">
       <c r="A23" t="s">
         <v>4</v>
       </c>
       <c r="B23" t="s">
         <v>9</v>
       </c>
-      <c r="C23">
+      <c r="C23" t="n">
         <v>0</v>
       </c>
       <c r="D23" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="24">
       <c r="A24" t="s">
         <v>4</v>
       </c>
       <c r="B24" t="s">
         <v>32</v>
       </c>
-      <c r="C24">
+      <c r="C24" t="n">
         <v>0</v>
       </c>
       <c r="D24" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="25">
       <c r="A25" t="s">
         <v>4</v>
       </c>
       <c r="B25" t="s">
-        <v>12</v>
-      </c>
-      <c r="C25">
+        <v>14</v>
+      </c>
+      <c r="C25" t="n">
         <v>0</v>
       </c>
       <c r="D25" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="26">
       <c r="A26" t="s">
         <v>4</v>
       </c>
       <c r="B26" t="s">
         <v>33</v>
       </c>
-      <c r="C26">
+      <c r="C26" t="n">
         <v>0</v>
       </c>
       <c r="D26" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="27">
       <c r="A27" t="s">
         <v>4</v>
       </c>
       <c r="B27" t="s">
         <v>10</v>
       </c>
-      <c r="C27">
+      <c r="C27" t="n">
         <v>0</v>
       </c>
       <c r="D27" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="28">
       <c r="A28" t="s">
         <v>4</v>
       </c>
       <c r="B28" t="s">
         <v>34</v>
       </c>
-      <c r="C28">
+      <c r="C28" t="n">
         <v>0</v>
       </c>
       <c r="D28" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="29">
       <c r="A29" t="s">
         <v>4</v>
       </c>
       <c r="B29" t="s">
         <v>35</v>
       </c>
-      <c r="C29">
+      <c r="C29" t="n">
         <v>0</v>
       </c>
       <c r="D29" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="30">
       <c r="A30" t="s">
         <v>4</v>
       </c>
       <c r="B30" t="s">
         <v>36</v>
       </c>
-      <c r="C30">
+      <c r="C30" t="n">
         <v>0</v>
       </c>
       <c r="D30" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="31">
       <c r="A31" t="s">
         <v>4</v>
       </c>
       <c r="B31" t="s">
         <v>37</v>
       </c>
-      <c r="C31">
+      <c r="C31" t="n">
         <v>0</v>
       </c>
       <c r="D31" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="32">
       <c r="A32" t="s">
         <v>4</v>
       </c>
       <c r="B32" t="s">
         <v>38</v>
       </c>
-      <c r="C32">
+      <c r="C32" t="n">
         <v>0</v>
       </c>
       <c r="D32" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="33">
       <c r="A33" t="s">
         <v>4</v>
       </c>
       <c r="B33" t="s">
         <v>39</v>
       </c>
-      <c r="C33">
+      <c r="C33" t="n">
         <v>0</v>
       </c>
       <c r="D33" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="34">
       <c r="A34" t="s">
         <v>4</v>
       </c>
       <c r="B34" t="s">
         <v>40</v>
       </c>
-      <c r="C34">
+      <c r="C34" t="n">
         <v>0</v>
       </c>
       <c r="D34" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="35">
       <c r="A35" t="s">
         <v>4</v>
       </c>
       <c r="B35" t="s">
         <v>41</v>
       </c>
-      <c r="C35">
+      <c r="C35" t="n">
         <v>0</v>
       </c>
       <c r="D35" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="36">
       <c r="A36" t="s">
         <v>4</v>
       </c>
       <c r="B36" t="s">
         <v>42</v>
       </c>
-      <c r="C36">
+      <c r="C36" t="n">
         <v>0</v>
       </c>
       <c r="D36" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="37">
       <c r="A37" t="s">
         <v>4</v>
       </c>
       <c r="B37" t="s">
         <v>43</v>
       </c>
-      <c r="C37">
+      <c r="C37" t="n">
         <v>0</v>
       </c>
       <c r="D37" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="38">
       <c r="A38" t="s">
         <v>4</v>
       </c>
       <c r="B38" t="s">
         <v>44</v>
       </c>
-      <c r="C38">
+      <c r="C38" t="n">
         <v>0</v>
       </c>
       <c r="D38" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="39">
       <c r="A39" t="s">
         <v>4</v>
       </c>
       <c r="B39" t="s">
         <v>45</v>
       </c>
-      <c r="C39">
+      <c r="C39" t="n">
         <v>0</v>
       </c>
       <c r="D39" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="40">
       <c r="A40" t="s">
         <v>4</v>
       </c>
       <c r="B40" t="s">
+        <v>11</v>
+      </c>
+      <c r="C40" t="n">
+        <v>0</v>
+      </c>
+      <c r="D40" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="s">
+        <v>4</v>
+      </c>
+      <c r="B41" t="s">
         <v>13</v>
       </c>
-      <c r="C40">
-        <v>0</v>
-      </c>
-      <c r="D40" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="41" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A41" t="s">
-        <v>4</v>
-      </c>
-      <c r="B41" t="s">
-        <v>15</v>
-      </c>
-      <c r="C41">
+      <c r="C41" t="n">
         <v>0</v>
       </c>
       <c r="D41" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="42" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="42">
       <c r="A42" t="s">
         <v>4</v>
       </c>
       <c r="B42" t="s">
         <v>47</v>
       </c>
-      <c r="C42">
+      <c r="C42" t="n">
         <v>0</v>
       </c>
       <c r="D42" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="43" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="43">
       <c r="A43" t="s">
         <v>4</v>
       </c>
       <c r="B43" t="s">
         <v>48</v>
       </c>
-      <c r="C43">
+      <c r="C43" t="n">
         <v>0</v>
       </c>
       <c r="D43" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="44" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="44">
       <c r="A44" t="s">
         <v>4</v>
       </c>
       <c r="B44" t="s">
-        <v>14</v>
-      </c>
-      <c r="C44">
+        <v>15</v>
+      </c>
+      <c r="C44" t="n">
         <v>0</v>
       </c>
       <c r="D44" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="45" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="45">
       <c r="A45" t="s">
         <v>4</v>
       </c>
       <c r="B45" t="s">
         <v>49</v>
       </c>
-      <c r="C45">
+      <c r="C45" t="n">
         <v>0</v>
       </c>
       <c r="D45" t="s">
@@ -2540,498 +2469,488 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
-  <dimension ref="A1:F34"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3">
+  <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:XFD1"/>
-    </sheetView>
+    <sheetView workbookViewId="0" zoomScale="100" showGridLines="1" tabSelected="false"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.6640625" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
-  <cols>
-    <col min="2" max="2" width="26.53125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="14" bestFit="1" customWidth="1"/>
-  </cols>
+  <sheetFormatPr defaultRowHeight="15.0" baseColWidth="10"/>
   <sheetData>
-    <row r="1" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.45">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="1" t="s">
+    <row r="1">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="2">
       <c r="A2" t="s">
         <v>52</v>
       </c>
       <c r="B2" t="s">
-        <v>5</v>
-      </c>
-      <c r="C2">
-        <v>0.34768018635255699</v>
+        <v>7</v>
+      </c>
+      <c r="C2" t="n">
+        <v>0.347680186352557</v>
       </c>
       <c r="D2" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="3">
       <c r="A3" t="s">
         <v>52</v>
       </c>
       <c r="B3" t="s">
         <v>53</v>
       </c>
-      <c r="C3">
-        <v>0.28105769087609001</v>
+      <c r="C3" t="n">
+        <v>0.28105769087609</v>
       </c>
       <c r="D3" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="4">
       <c r="A4" t="s">
         <v>52</v>
       </c>
       <c r="B4" t="s">
         <v>54</v>
       </c>
-      <c r="C4">
-        <v>0.20284878844603399</v>
+      <c r="C4" t="n">
+        <v>0.202848788446034</v>
       </c>
       <c r="D4" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="5">
       <c r="A5" t="s">
         <v>52</v>
       </c>
       <c r="B5" t="s">
         <v>8</v>
       </c>
-      <c r="C5">
-        <v>5.0034401843307097E-2</v>
+      <c r="C5" t="n">
+        <v>0.0500344018433071</v>
       </c>
       <c r="D5" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="6">
       <c r="A6" t="s">
         <v>52</v>
       </c>
       <c r="B6" t="s">
         <v>55</v>
       </c>
-      <c r="C6">
-        <v>2.1824980565778401E-2</v>
+      <c r="C6" t="n">
+        <v>0.0218249805657784</v>
       </c>
       <c r="D6" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="7">
       <c r="A7" t="s">
         <v>52</v>
       </c>
       <c r="B7" t="s">
-        <v>14</v>
-      </c>
-      <c r="C7">
-        <v>2.1585949790904502E-2</v>
+        <v>15</v>
+      </c>
+      <c r="C7" t="n">
+        <v>0.0215859497909045</v>
       </c>
       <c r="D7" t="s">
         <v>6</v>
       </c>
-      <c r="F7">
-        <f>SUM(C:C)</f>
-        <v>1.0000000000000002</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.45">
+    </row>
+    <row r="8">
       <c r="A8" t="s">
         <v>52</v>
       </c>
       <c r="B8" t="s">
         <v>16</v>
       </c>
-      <c r="C8">
-        <v>2.10209023344076E-2</v>
+      <c r="C8" t="n">
+        <v>0.0210209023344076</v>
       </c>
       <c r="D8" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="9">
       <c r="A9" t="s">
         <v>52</v>
       </c>
       <c r="B9" t="s">
         <v>9</v>
       </c>
-      <c r="C9">
-        <v>1.90633340875297E-2</v>
+      <c r="C9" t="n">
+        <v>0.0190633340875297</v>
       </c>
       <c r="D9" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="10">
       <c r="A10" t="s">
         <v>52</v>
       </c>
       <c r="B10" t="s">
         <v>56</v>
       </c>
-      <c r="C10">
-        <v>1.2666536448154801E-2</v>
+      <c r="C10" t="n">
+        <v>0.0126665364481548</v>
       </c>
       <c r="D10" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="11">
       <c r="A11" t="s">
         <v>52</v>
       </c>
       <c r="B11" t="s">
-        <v>15</v>
-      </c>
-      <c r="C11">
-        <v>8.6151239075440908E-3</v>
+        <v>13</v>
+      </c>
+      <c r="C11" t="n">
+        <v>0.00861512390754409</v>
       </c>
       <c r="D11" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="12">
       <c r="A12" t="s">
         <v>52</v>
       </c>
       <c r="B12" t="s">
         <v>57</v>
       </c>
-      <c r="C12">
-        <v>8.2795423855524103E-3</v>
+      <c r="C12" t="n">
+        <v>0.00827954238555241</v>
       </c>
       <c r="D12" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="13">
       <c r="A13" t="s">
         <v>52</v>
       </c>
       <c r="B13" t="s">
         <v>58</v>
       </c>
-      <c r="C13">
-        <v>5.3225629621408196E-3</v>
+      <c r="C13" t="n">
+        <v>0.00532256296214082</v>
       </c>
       <c r="D13" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="14">
       <c r="A14" t="s">
         <v>52</v>
       </c>
       <c r="B14" t="s">
         <v>21</v>
       </c>
-      <c r="C14">
+      <c r="C14" t="n">
         <v>0</v>
       </c>
       <c r="D14" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="15">
       <c r="A15" t="s">
         <v>52</v>
       </c>
       <c r="B15" t="s">
         <v>17</v>
       </c>
-      <c r="C15">
+      <c r="C15" t="n">
         <v>0</v>
       </c>
       <c r="D15" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="16">
       <c r="A16" t="s">
         <v>52</v>
       </c>
       <c r="B16" t="s">
         <v>24</v>
       </c>
-      <c r="C16">
+      <c r="C16" t="n">
         <v>0</v>
       </c>
       <c r="D16" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="17">
       <c r="A17" t="s">
         <v>52</v>
       </c>
       <c r="B17" t="s">
         <v>59</v>
       </c>
-      <c r="C17">
+      <c r="C17" t="n">
         <v>0</v>
       </c>
       <c r="D17" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="18">
       <c r="A18" t="s">
         <v>52</v>
       </c>
       <c r="B18" t="s">
         <v>60</v>
       </c>
-      <c r="C18">
+      <c r="C18" t="n">
         <v>0</v>
       </c>
       <c r="D18" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="19">
       <c r="A19" t="s">
         <v>52</v>
       </c>
       <c r="B19" t="s">
         <v>27</v>
       </c>
-      <c r="C19">
+      <c r="C19" t="n">
         <v>0</v>
       </c>
       <c r="D19" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="20">
       <c r="A20" t="s">
         <v>52</v>
       </c>
       <c r="B20" t="s">
         <v>61</v>
       </c>
-      <c r="C20">
+      <c r="C20" t="n">
         <v>0</v>
       </c>
       <c r="D20" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="21">
       <c r="A21" t="s">
         <v>52</v>
       </c>
       <c r="B21" t="s">
         <v>29</v>
       </c>
-      <c r="C21">
+      <c r="C21" t="n">
         <v>0</v>
       </c>
       <c r="D21" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="22">
       <c r="A22" t="s">
         <v>52</v>
       </c>
       <c r="B22" t="s">
         <v>33</v>
       </c>
-      <c r="C22">
+      <c r="C22" t="n">
         <v>0</v>
       </c>
       <c r="D22" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="23">
       <c r="A23" t="s">
         <v>52</v>
       </c>
       <c r="B23" t="s">
         <v>62</v>
       </c>
-      <c r="C23">
+      <c r="C23" t="n">
         <v>0</v>
       </c>
       <c r="D23" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="24">
       <c r="A24" t="s">
         <v>52</v>
       </c>
       <c r="B24" t="s">
         <v>35</v>
       </c>
-      <c r="C24">
+      <c r="C24" t="n">
         <v>0</v>
       </c>
       <c r="D24" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="25">
       <c r="A25" t="s">
         <v>52</v>
       </c>
       <c r="B25" t="s">
         <v>63</v>
       </c>
-      <c r="C25">
+      <c r="C25" t="n">
         <v>0</v>
       </c>
       <c r="D25" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="26">
       <c r="A26" t="s">
         <v>52</v>
       </c>
       <c r="B26" t="s">
         <v>40</v>
       </c>
-      <c r="C26">
+      <c r="C26" t="n">
         <v>0</v>
       </c>
       <c r="D26" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="27">
       <c r="A27" t="s">
         <v>52</v>
       </c>
       <c r="B27" t="s">
         <v>42</v>
       </c>
-      <c r="C27">
+      <c r="C27" t="n">
         <v>0</v>
       </c>
       <c r="D27" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="28">
       <c r="A28" t="s">
         <v>52</v>
       </c>
       <c r="B28" t="s">
         <v>43</v>
       </c>
-      <c r="C28">
+      <c r="C28" t="n">
         <v>0</v>
       </c>
       <c r="D28" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="29">
       <c r="A29" t="s">
         <v>52</v>
       </c>
       <c r="B29" t="s">
         <v>44</v>
       </c>
-      <c r="C29">
+      <c r="C29" t="n">
         <v>0</v>
       </c>
       <c r="D29" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="30">
       <c r="A30" t="s">
         <v>52</v>
       </c>
       <c r="B30" t="s">
         <v>64</v>
       </c>
-      <c r="C30">
+      <c r="C30" t="n">
         <v>0</v>
       </c>
       <c r="D30" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="31">
       <c r="A31" t="s">
         <v>52</v>
       </c>
       <c r="B31" t="s">
         <v>46</v>
       </c>
-      <c r="C31">
+      <c r="C31" t="n">
         <v>0</v>
       </c>
       <c r="D31" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="32">
       <c r="A32" t="s">
         <v>52</v>
       </c>
       <c r="B32" t="s">
         <v>65</v>
       </c>
-      <c r="C32">
+      <c r="C32" t="n">
         <v>0</v>
       </c>
       <c r="D32" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="33">
       <c r="A33" t="s">
         <v>52</v>
       </c>
       <c r="B33" t="s">
         <v>47</v>
       </c>
-      <c r="C33">
+      <c r="C33" t="n">
         <v>0</v>
       </c>
       <c r="D33" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="34">
       <c r="A34" t="s">
         <v>52</v>
       </c>
       <c r="B34" t="s">
         <v>66</v>
       </c>
-      <c r="C34">
+      <c r="C34" t="n">
         <v>0</v>
       </c>
       <c r="D34" t="s">
@@ -3040,998 +2959,978 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
-  <dimension ref="A1:F34"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3">
+  <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:XFD1"/>
-    </sheetView>
+    <sheetView workbookViewId="0" zoomScale="100" showGridLines="1" tabSelected="false"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.6640625" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
-  <cols>
-    <col min="2" max="2" width="26.53125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="14.59765625" bestFit="1" customWidth="1"/>
-  </cols>
+  <sheetFormatPr defaultRowHeight="15.0" baseColWidth="10"/>
   <sheetData>
-    <row r="1" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.45">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="1" t="s">
+    <row r="1">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="2">
       <c r="A2" t="s">
         <v>52</v>
       </c>
       <c r="B2" t="s">
-        <v>5</v>
-      </c>
-      <c r="C2">
-        <v>0.78952926249532296</v>
+        <v>7</v>
+      </c>
+      <c r="C2" t="n">
+        <v>0.76441784333543</v>
       </c>
       <c r="D2" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.45">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="3">
       <c r="A3" t="s">
         <v>52</v>
       </c>
       <c r="B3" t="s">
         <v>44</v>
       </c>
-      <c r="C3">
-        <v>5.9319369828527702E-2</v>
+      <c r="C3" t="n">
+        <v>0.0663968076601492</v>
       </c>
       <c r="D3" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.45">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="4">
       <c r="A4" t="s">
         <v>52</v>
       </c>
       <c r="B4" t="s">
         <v>8</v>
       </c>
-      <c r="C4">
-        <v>3.7137711190253497E-2</v>
+      <c r="C4" t="n">
+        <v>0.0415686389448387</v>
       </c>
       <c r="D4" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.45">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="5">
       <c r="A5" t="s">
         <v>52</v>
       </c>
       <c r="B5" t="s">
         <v>27</v>
       </c>
-      <c r="C5">
-        <v>3.3329511421866902E-2</v>
+      <c r="C5" t="n">
+        <v>0.0373060800490869</v>
       </c>
       <c r="D5" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.45">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="6">
       <c r="A6" t="s">
         <v>52</v>
       </c>
       <c r="B6" t="s">
         <v>46</v>
       </c>
-      <c r="C6">
-        <v>2.9621119011861E-2</v>
+      <c r="C6" t="n">
+        <v>0.0331552366013686</v>
       </c>
       <c r="D6" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.45">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="7">
       <c r="A7" t="s">
         <v>52</v>
       </c>
       <c r="B7" t="s">
         <v>59</v>
       </c>
-      <c r="C7">
-        <v>1.29951498035878E-2</v>
+      <c r="C7" t="n">
+        <v>0.0145456107257682</v>
       </c>
       <c r="D7" t="s">
-        <v>67</v>
-      </c>
-      <c r="F7">
-        <f>SUM(C:C)</f>
-        <v>1.0000000000000004</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.45">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="8">
       <c r="A8" t="s">
         <v>52</v>
       </c>
       <c r="B8" t="s">
-        <v>14</v>
-      </c>
-      <c r="C8">
-        <v>1.27141100517397E-2</v>
+        <v>15</v>
+      </c>
+      <c r="C8" t="n">
+        <v>0.0142310399135318</v>
       </c>
       <c r="D8" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.45">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="9">
       <c r="A9" t="s">
         <v>52</v>
       </c>
       <c r="B9" t="s">
         <v>43</v>
       </c>
-      <c r="C9">
-        <v>1.12003351778843E-2</v>
+      <c r="C9" t="n">
+        <v>0.0125366554412982</v>
       </c>
       <c r="D9" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.45">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="10">
       <c r="A10" t="s">
         <v>52</v>
       </c>
       <c r="B10" t="s">
         <v>24</v>
       </c>
-      <c r="C10">
-        <v>1.0532154690600299E-2</v>
+      <c r="C10" t="n">
+        <v>0.0117887538465121</v>
       </c>
       <c r="D10" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.45">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="11">
       <c r="A11" t="s">
         <v>52</v>
       </c>
       <c r="B11" t="s">
         <v>33</v>
       </c>
-      <c r="C11">
-        <v>2.62305164355364E-3</v>
+      <c r="C11" t="n">
+        <v>0.00293600987271297</v>
       </c>
       <c r="D11" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.45">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="12">
       <c r="A12" t="s">
         <v>52</v>
       </c>
       <c r="B12" t="s">
         <v>60</v>
       </c>
-      <c r="C12">
-        <v>2.96569132401293E-4</v>
+      <c r="C12" t="n">
+        <v>0.000331953014654517</v>
       </c>
       <c r="D12" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.45">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="13">
       <c r="A13" t="s">
         <v>52</v>
       </c>
       <c r="B13" t="s">
         <v>47</v>
       </c>
-      <c r="C13">
-        <v>2.9445165568609498E-4</v>
+      <c r="C13" t="n">
+        <v>0.000329582900228314</v>
       </c>
       <c r="D13" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.45">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="14">
       <c r="A14" t="s">
         <v>52</v>
       </c>
       <c r="B14" t="s">
         <v>66</v>
       </c>
-      <c r="C14">
-        <v>2.1064723422895601E-4</v>
+      <c r="C14" t="n">
+        <v>0.000235779711343395</v>
       </c>
       <c r="D14" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.45">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="15">
       <c r="A15" t="s">
         <v>52</v>
       </c>
       <c r="B15" t="s">
         <v>29</v>
       </c>
-      <c r="C15">
-        <v>1.92638031086965E-4</v>
+      <c r="C15" t="n">
+        <v>0.000215621816871693</v>
       </c>
       <c r="D15" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.45">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="16">
       <c r="A16" t="s">
         <v>52</v>
       </c>
       <c r="B16" t="s">
         <v>17</v>
       </c>
-      <c r="C16">
-        <v>3.9186313991868404E-6</v>
+      <c r="C16" t="n">
+        <v>0.00000438616620599538</v>
       </c>
       <c r="D16" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.45">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="17">
       <c r="A17" t="s">
         <v>52</v>
       </c>
       <c r="B17" t="s">
         <v>16</v>
       </c>
-      <c r="C17">
+      <c r="C17" t="n">
         <v>0</v>
       </c>
       <c r="D17" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.45">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="18">
       <c r="A18" t="s">
         <v>52</v>
       </c>
       <c r="B18" t="s">
         <v>21</v>
       </c>
-      <c r="C18">
+      <c r="C18" t="n">
         <v>0</v>
       </c>
       <c r="D18" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.45">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="19">
       <c r="A19" t="s">
         <v>52</v>
       </c>
       <c r="B19" t="s">
         <v>61</v>
       </c>
-      <c r="C19">
+      <c r="C19" t="n">
         <v>0</v>
       </c>
       <c r="D19" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.45">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="20">
       <c r="A20" t="s">
         <v>52</v>
       </c>
       <c r="B20" t="s">
         <v>58</v>
       </c>
-      <c r="C20">
+      <c r="C20" t="n">
         <v>0</v>
       </c>
       <c r="D20" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.45">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="21">
       <c r="A21" t="s">
         <v>52</v>
       </c>
       <c r="B21" t="s">
         <v>9</v>
       </c>
-      <c r="C21">
+      <c r="C21" t="n">
         <v>0</v>
       </c>
       <c r="D21" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.45">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="22">
       <c r="A22" t="s">
         <v>52</v>
       </c>
       <c r="B22" t="s">
         <v>57</v>
       </c>
-      <c r="C22">
+      <c r="C22" t="n">
         <v>0</v>
       </c>
       <c r="D22" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.45">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="23">
       <c r="A23" t="s">
         <v>52</v>
       </c>
       <c r="B23" t="s">
         <v>62</v>
       </c>
-      <c r="C23">
+      <c r="C23" t="n">
         <v>0</v>
       </c>
       <c r="D23" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.45">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="24">
       <c r="A24" t="s">
         <v>52</v>
       </c>
       <c r="B24" t="s">
         <v>35</v>
       </c>
-      <c r="C24">
+      <c r="C24" t="n">
         <v>0</v>
       </c>
       <c r="D24" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.45">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="25">
       <c r="A25" t="s">
         <v>52</v>
       </c>
       <c r="B25" t="s">
         <v>55</v>
       </c>
-      <c r="C25">
+      <c r="C25" t="n">
         <v>0</v>
       </c>
       <c r="D25" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.45">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="26">
       <c r="A26" t="s">
         <v>52</v>
       </c>
       <c r="B26" t="s">
         <v>56</v>
       </c>
-      <c r="C26">
+      <c r="C26" t="n">
         <v>0</v>
       </c>
       <c r="D26" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.45">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="27">
       <c r="A27" t="s">
         <v>52</v>
       </c>
       <c r="B27" t="s">
         <v>63</v>
       </c>
-      <c r="C27">
+      <c r="C27" t="n">
         <v>0</v>
       </c>
       <c r="D27" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.45">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="28">
       <c r="A28" t="s">
         <v>52</v>
       </c>
       <c r="B28" t="s">
         <v>54</v>
       </c>
-      <c r="C28">
+      <c r="C28" t="n">
         <v>0</v>
       </c>
       <c r="D28" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.45">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="29">
       <c r="A29" t="s">
         <v>52</v>
       </c>
       <c r="B29" t="s">
         <v>40</v>
       </c>
-      <c r="C29">
+      <c r="C29" t="n">
         <v>0</v>
       </c>
       <c r="D29" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.45">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="30">
       <c r="A30" t="s">
         <v>52</v>
       </c>
       <c r="B30" t="s">
         <v>53</v>
       </c>
-      <c r="C30">
+      <c r="C30" t="n">
         <v>0</v>
       </c>
       <c r="D30" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.45">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="31">
       <c r="A31" t="s">
         <v>52</v>
       </c>
       <c r="B31" t="s">
         <v>42</v>
       </c>
-      <c r="C31">
+      <c r="C31" t="n">
         <v>0</v>
       </c>
       <c r="D31" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.45">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="32">
       <c r="A32" t="s">
         <v>52</v>
       </c>
       <c r="B32" t="s">
         <v>64</v>
       </c>
-      <c r="C32">
+      <c r="C32" t="n">
         <v>0</v>
       </c>
       <c r="D32" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.45">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="33">
       <c r="A33" t="s">
         <v>52</v>
       </c>
       <c r="B33" t="s">
         <v>65</v>
       </c>
-      <c r="C33">
+      <c r="C33" t="n">
         <v>0</v>
       </c>
       <c r="D33" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.45">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="34">
       <c r="A34" t="s">
         <v>52</v>
       </c>
       <c r="B34" t="s">
-        <v>15</v>
-      </c>
-      <c r="C34">
+        <v>13</v>
+      </c>
+      <c r="C34" t="n">
         <v>0</v>
       </c>
       <c r="D34" t="s">
-        <v>67</v>
+        <v>50</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
-  <dimension ref="A1:F34"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3">
+  <dimension ref="A1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:XFD1"/>
-    </sheetView>
+    <sheetView workbookViewId="0" zoomScale="100" showGridLines="1" tabSelected="false"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.6640625" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
-  <cols>
-    <col min="2" max="2" width="26.53125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="14" bestFit="1" customWidth="1"/>
-  </cols>
+  <sheetFormatPr defaultRowHeight="15.0" baseColWidth="10"/>
   <sheetData>
-    <row r="1" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.45">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="1" t="s">
+    <row r="1">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="2">
       <c r="A2" t="s">
         <v>52</v>
       </c>
       <c r="B2" t="s">
-        <v>5</v>
-      </c>
-      <c r="C2">
-        <v>0.74241551130081296</v>
+        <v>7</v>
+      </c>
+      <c r="C2" t="n">
+        <v>0.742415511300813</v>
       </c>
       <c r="D2" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="3">
       <c r="A3" t="s">
         <v>52</v>
       </c>
       <c r="B3" t="s">
         <v>46</v>
       </c>
-      <c r="C3">
-        <v>0.18433099462611099</v>
+      <c r="C3" t="n">
+        <v>0.184330994626111</v>
       </c>
       <c r="D3" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="4">
       <c r="A4" t="s">
         <v>52</v>
       </c>
       <c r="B4" t="s">
         <v>17</v>
       </c>
-      <c r="C4">
-        <v>7.3253494073075798E-2</v>
+      <c r="C4" t="n">
+        <v>0.0732534940730758</v>
       </c>
       <c r="D4" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="5">
       <c r="A5" t="s">
         <v>52</v>
       </c>
       <c r="B5" t="s">
         <v>16</v>
       </c>
-      <c r="C5">
+      <c r="C5" t="n">
         <v>0</v>
       </c>
       <c r="D5" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="6">
       <c r="A6" t="s">
         <v>52</v>
       </c>
       <c r="B6" t="s">
         <v>8</v>
       </c>
-      <c r="C6">
+      <c r="C6" t="n">
         <v>0</v>
       </c>
       <c r="D6" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="7">
       <c r="A7" t="s">
         <v>52</v>
       </c>
       <c r="B7" t="s">
         <v>21</v>
       </c>
-      <c r="C7">
+      <c r="C7" t="n">
         <v>0</v>
       </c>
       <c r="D7" t="s">
         <v>51</v>
       </c>
-      <c r="F7">
-        <f>SUM(C:C)</f>
-        <v>0.99999999999999978</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.45">
+    </row>
+    <row r="8">
       <c r="A8" t="s">
         <v>52</v>
       </c>
       <c r="B8" t="s">
         <v>24</v>
       </c>
-      <c r="C8">
+      <c r="C8" t="n">
         <v>0</v>
       </c>
       <c r="D8" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="9">
       <c r="A9" t="s">
         <v>52</v>
       </c>
       <c r="B9" t="s">
         <v>59</v>
       </c>
-      <c r="C9">
+      <c r="C9" t="n">
         <v>0</v>
       </c>
       <c r="D9" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="10">
       <c r="A10" t="s">
         <v>52</v>
       </c>
       <c r="B10" t="s">
         <v>60</v>
       </c>
-      <c r="C10">
+      <c r="C10" t="n">
         <v>0</v>
       </c>
       <c r="D10" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="11">
       <c r="A11" t="s">
         <v>52</v>
       </c>
       <c r="B11" t="s">
         <v>27</v>
       </c>
-      <c r="C11">
+      <c r="C11" t="n">
         <v>0</v>
       </c>
       <c r="D11" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="12">
       <c r="A12" t="s">
         <v>52</v>
       </c>
       <c r="B12" t="s">
         <v>61</v>
       </c>
-      <c r="C12">
+      <c r="C12" t="n">
         <v>0</v>
       </c>
       <c r="D12" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="13">
       <c r="A13" t="s">
         <v>52</v>
       </c>
       <c r="B13" t="s">
         <v>29</v>
       </c>
-      <c r="C13">
+      <c r="C13" t="n">
         <v>0</v>
       </c>
       <c r="D13" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="14">
       <c r="A14" t="s">
         <v>52</v>
       </c>
       <c r="B14" t="s">
         <v>58</v>
       </c>
-      <c r="C14">
+      <c r="C14" t="n">
         <v>0</v>
       </c>
       <c r="D14" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="15">
       <c r="A15" t="s">
         <v>52</v>
       </c>
       <c r="B15" t="s">
         <v>9</v>
       </c>
-      <c r="C15">
+      <c r="C15" t="n">
         <v>0</v>
       </c>
       <c r="D15" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="16">
       <c r="A16" t="s">
         <v>52</v>
       </c>
       <c r="B16" t="s">
         <v>33</v>
       </c>
-      <c r="C16">
+      <c r="C16" t="n">
         <v>0</v>
       </c>
       <c r="D16" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="17">
       <c r="A17" t="s">
         <v>52</v>
       </c>
       <c r="B17" t="s">
         <v>57</v>
       </c>
-      <c r="C17">
+      <c r="C17" t="n">
         <v>0</v>
       </c>
       <c r="D17" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="18">
       <c r="A18" t="s">
         <v>52</v>
       </c>
       <c r="B18" t="s">
         <v>62</v>
       </c>
-      <c r="C18">
+      <c r="C18" t="n">
         <v>0</v>
       </c>
       <c r="D18" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="19">
       <c r="A19" t="s">
         <v>52</v>
       </c>
       <c r="B19" t="s">
         <v>35</v>
       </c>
-      <c r="C19">
+      <c r="C19" t="n">
         <v>0</v>
       </c>
       <c r="D19" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="20">
       <c r="A20" t="s">
         <v>52</v>
       </c>
       <c r="B20" t="s">
         <v>55</v>
       </c>
-      <c r="C20">
+      <c r="C20" t="n">
         <v>0</v>
       </c>
       <c r="D20" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="21">
       <c r="A21" t="s">
         <v>52</v>
       </c>
       <c r="B21" t="s">
         <v>56</v>
       </c>
-      <c r="C21">
+      <c r="C21" t="n">
         <v>0</v>
       </c>
       <c r="D21" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="22">
       <c r="A22" t="s">
         <v>52</v>
       </c>
       <c r="B22" t="s">
         <v>63</v>
       </c>
-      <c r="C22">
+      <c r="C22" t="n">
         <v>0</v>
       </c>
       <c r="D22" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="23">
       <c r="A23" t="s">
         <v>52</v>
       </c>
       <c r="B23" t="s">
         <v>54</v>
       </c>
-      <c r="C23">
+      <c r="C23" t="n">
         <v>0</v>
       </c>
       <c r="D23" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="24">
       <c r="A24" t="s">
         <v>52</v>
       </c>
       <c r="B24" t="s">
         <v>40</v>
       </c>
-      <c r="C24">
+      <c r="C24" t="n">
         <v>0</v>
       </c>
       <c r="D24" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="25">
       <c r="A25" t="s">
         <v>52</v>
       </c>
       <c r="B25" t="s">
         <v>53</v>
       </c>
-      <c r="C25">
+      <c r="C25" t="n">
         <v>0</v>
       </c>
       <c r="D25" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="26">
       <c r="A26" t="s">
         <v>52</v>
       </c>
       <c r="B26" t="s">
         <v>42</v>
       </c>
-      <c r="C26">
+      <c r="C26" t="n">
         <v>0</v>
       </c>
       <c r="D26" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="27">
       <c r="A27" t="s">
         <v>52</v>
       </c>
       <c r="B27" t="s">
         <v>43</v>
       </c>
-      <c r="C27">
+      <c r="C27" t="n">
         <v>0</v>
       </c>
       <c r="D27" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="28">
       <c r="A28" t="s">
         <v>52</v>
       </c>
       <c r="B28" t="s">
         <v>44</v>
       </c>
-      <c r="C28">
+      <c r="C28" t="n">
         <v>0</v>
       </c>
       <c r="D28" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="29">
       <c r="A29" t="s">
         <v>52</v>
       </c>
       <c r="B29" t="s">
         <v>64</v>
       </c>
-      <c r="C29">
+      <c r="C29" t="n">
         <v>0</v>
       </c>
       <c r="D29" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="30">
       <c r="A30" t="s">
         <v>52</v>
       </c>
       <c r="B30" t="s">
         <v>65</v>
       </c>
-      <c r="C30">
+      <c r="C30" t="n">
         <v>0</v>
       </c>
       <c r="D30" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="31">
       <c r="A31" t="s">
         <v>52</v>
       </c>
       <c r="B31" t="s">
-        <v>15</v>
-      </c>
-      <c r="C31">
+        <v>13</v>
+      </c>
+      <c r="C31" t="n">
         <v>0</v>
       </c>
       <c r="D31" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="32">
       <c r="A32" t="s">
         <v>52</v>
       </c>
       <c r="B32" t="s">
         <v>47</v>
       </c>
-      <c r="C32">
+      <c r="C32" t="n">
         <v>0</v>
       </c>
       <c r="D32" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="33">
       <c r="A33" t="s">
         <v>52</v>
       </c>
       <c r="B33" t="s">
         <v>66</v>
       </c>
-      <c r="C33">
+      <c r="C33" t="n">
         <v>0</v>
       </c>
       <c r="D33" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="34">
       <c r="A34" t="s">
         <v>52</v>
       </c>
       <c r="B34" t="s">
-        <v>14</v>
-      </c>
-      <c r="C34">
+        <v>15</v>
+      </c>
+      <c r="C34" t="n">
         <v>0</v>
       </c>
       <c r="D34" t="s">
@@ -4040,6 +3939,6 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>
 </worksheet>
 </file>